--- a/files/separadas/repeat_p15.xlsx
+++ b/files/separadas/repeat_p15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="397">
   <si>
     <t>p15_nom</t>
   </si>
@@ -109,7 +109,10 @@
     <t>c3</t>
   </si>
   <si>
-    <t>nota_iniciativa</t>
+    <t>s_i</t>
+  </si>
+  <si>
+    <t>c4</t>
   </si>
   <si>
     <t>articular acciones interinstitucionales</t>
@@ -1602,13 +1605,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AG135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1705,13 +1708,16 @@
       <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:32">
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1729,16 +1735,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T2">
         <v>2</v>
@@ -1747,13 +1753,13 @@
         <v>6</v>
       </c>
       <c r="V2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="W2" s="2">
         <v>44998.82651620371</v>
       </c>
       <c r="Z2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -1767,13 +1773,16 @@
       <c r="AF2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:32">
+      <c r="AG2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1791,16 +1800,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="R3">
         <v>2</v>
       </c>
       <c r="S3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T3">
         <v>3</v>
@@ -1809,13 +1818,13 @@
         <v>7</v>
       </c>
       <c r="V3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="W3" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="Z3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -1829,13 +1838,16 @@
       <c r="AF3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:32">
+      <c r="AG3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1853,19 +1865,19 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="R4">
         <v>3</v>
       </c>
       <c r="S4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T4">
         <v>4</v>
@@ -1874,13 +1886,13 @@
         <v>9</v>
       </c>
       <c r="V4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="W4" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="Z4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -1894,13 +1906,16 @@
       <c r="AF4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:32">
+      <c r="AG4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1918,16 +1933,16 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="R5">
         <v>4</v>
       </c>
       <c r="S5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T5">
         <v>5</v>
@@ -1936,13 +1951,13 @@
         <v>10</v>
       </c>
       <c r="V5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="W5" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1956,13 +1971,16 @@
       <c r="AF5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:32">
+      <c r="AG5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1980,16 +1998,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="R6">
         <v>5</v>
       </c>
       <c r="S6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T6">
         <v>5</v>
@@ -1998,13 +2016,13 @@
         <v>10</v>
       </c>
       <c r="V6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="W6" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -2018,13 +2036,16 @@
       <c r="AF6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:32">
+      <c r="AG6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2042,16 +2063,16 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="R7">
         <v>6</v>
       </c>
       <c r="S7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T7">
         <v>5</v>
@@ -2060,13 +2081,13 @@
         <v>10</v>
       </c>
       <c r="V7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="W7" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -2080,13 +2101,16 @@
       <c r="AF7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:32">
+      <c r="AG7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2104,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="R8">
         <v>7</v>
       </c>
       <c r="S8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T8">
         <v>6</v>
@@ -2122,13 +2146,13 @@
         <v>12</v>
       </c>
       <c r="V8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="W8" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="Z8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -2142,13 +2166,16 @@
       <c r="AF8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:32">
+      <c r="AG8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2166,16 +2193,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="R9">
         <v>8</v>
       </c>
       <c r="S9" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T9">
         <v>7</v>
@@ -2184,13 +2211,13 @@
         <v>13</v>
       </c>
       <c r="V9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="W9" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="Z9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -2204,13 +2231,16 @@
       <c r="AF9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:32">
+      <c r="AG9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2228,16 +2258,16 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="R10">
         <v>9</v>
       </c>
       <c r="S10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T10">
         <v>9</v>
@@ -2246,13 +2276,13 @@
         <v>15</v>
       </c>
       <c r="V10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="W10" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Z10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -2266,13 +2296,16 @@
       <c r="AF10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:32">
+      <c r="AG10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2290,16 +2323,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="R11">
         <v>10</v>
       </c>
       <c r="S11" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T11">
         <v>10</v>
@@ -2308,13 +2341,13 @@
         <v>16</v>
       </c>
       <c r="V11" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="W11" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="Z11" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -2328,13 +2361,16 @@
       <c r="AF11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:32">
+      <c r="AG11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2352,16 +2388,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="R12">
         <v>11</v>
       </c>
       <c r="S12" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T12">
         <v>11</v>
@@ -2370,13 +2406,13 @@
         <v>17</v>
       </c>
       <c r="V12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W12" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z12" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -2390,13 +2426,16 @@
       <c r="AF12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:32">
+      <c r="AG12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2414,16 +2453,16 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R13">
         <v>12</v>
       </c>
       <c r="S13" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T13">
         <v>11</v>
@@ -2432,13 +2471,13 @@
         <v>17</v>
       </c>
       <c r="V13" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W13" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -2452,13 +2491,16 @@
       <c r="AF13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:32">
+      <c r="AG13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2476,16 +2518,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="R14">
         <v>13</v>
       </c>
       <c r="S14" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T14">
         <v>11</v>
@@ -2494,13 +2536,13 @@
         <v>17</v>
       </c>
       <c r="V14" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W14" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z14" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -2514,13 +2556,16 @@
       <c r="AF14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:32">
+      <c r="AG14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2538,16 +2583,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="R15">
         <v>14</v>
       </c>
       <c r="S15" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T15">
         <v>11</v>
@@ -2556,13 +2601,13 @@
         <v>17</v>
       </c>
       <c r="V15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W15" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z15" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -2576,13 +2621,16 @@
       <c r="AF15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:32">
+      <c r="AG15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2600,16 +2648,16 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="R16">
         <v>15</v>
       </c>
       <c r="S16" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T16">
         <v>11</v>
@@ -2618,13 +2666,13 @@
         <v>17</v>
       </c>
       <c r="V16" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W16" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z16" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC16">
         <v>0</v>
@@ -2638,13 +2686,16 @@
       <c r="AF16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:32">
+      <c r="AG16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2662,16 +2713,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="R17">
         <v>16</v>
       </c>
       <c r="S17" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T17">
         <v>11</v>
@@ -2680,13 +2731,13 @@
         <v>17</v>
       </c>
       <c r="V17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W17" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z17" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC17">
         <v>0</v>
@@ -2700,13 +2751,16 @@
       <c r="AF17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:32">
+      <c r="AG17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2724,16 +2778,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="R18">
         <v>17</v>
       </c>
       <c r="S18" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T18">
         <v>11</v>
@@ -2742,13 +2796,13 @@
         <v>17</v>
       </c>
       <c r="V18" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W18" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z18" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC18">
         <v>0</v>
@@ -2762,13 +2816,16 @@
       <c r="AF18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:32">
+      <c r="AG18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2786,16 +2843,16 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="R19">
         <v>18</v>
       </c>
       <c r="S19" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T19">
         <v>11</v>
@@ -2804,13 +2861,13 @@
         <v>17</v>
       </c>
       <c r="V19" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W19" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z19" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC19">
         <v>0</v>
@@ -2824,13 +2881,16 @@
       <c r="AF19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:32">
+      <c r="AG19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2848,16 +2908,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="R20">
         <v>19</v>
       </c>
       <c r="S20" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T20">
         <v>11</v>
@@ -2866,13 +2926,13 @@
         <v>17</v>
       </c>
       <c r="V20" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W20" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z20" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC20">
         <v>0</v>
@@ -2886,13 +2946,16 @@
       <c r="AF20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:32">
+      <c r="AG20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2910,16 +2973,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J21" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="R21">
         <v>20</v>
       </c>
       <c r="S21" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T21">
         <v>11</v>
@@ -2928,13 +2991,13 @@
         <v>17</v>
       </c>
       <c r="V21" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W21" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z21" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC21">
         <v>0</v>
@@ -2948,13 +3011,16 @@
       <c r="AF21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:32">
+      <c r="AG21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2972,16 +3038,16 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J22" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="R22">
         <v>21</v>
       </c>
       <c r="S22" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T22">
         <v>11</v>
@@ -2990,13 +3056,13 @@
         <v>17</v>
       </c>
       <c r="V22" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W22" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z22" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC22">
         <v>0</v>
@@ -3010,13 +3076,16 @@
       <c r="AF22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:32">
+      <c r="AG22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -3034,16 +3103,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J23" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="R23">
         <v>22</v>
       </c>
       <c r="S23" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T23">
         <v>11</v>
@@ -3052,13 +3121,13 @@
         <v>17</v>
       </c>
       <c r="V23" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W23" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z23" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC23">
         <v>0</v>
@@ -3072,13 +3141,16 @@
       <c r="AF23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:32">
+      <c r="AG23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -3096,16 +3168,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="R24">
         <v>23</v>
       </c>
       <c r="S24" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T24">
         <v>12</v>
@@ -3114,13 +3186,13 @@
         <v>18</v>
       </c>
       <c r="V24" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="W24" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="Z24" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC24">
         <v>0</v>
@@ -3134,13 +3206,16 @@
       <c r="AF24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:32">
+      <c r="AG24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -3158,16 +3233,16 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J25" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="R25">
         <v>24</v>
       </c>
       <c r="S25" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T25">
         <v>13</v>
@@ -3176,13 +3251,13 @@
         <v>20</v>
       </c>
       <c r="V25" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="W25" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="Z25" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AC25">
         <v>0</v>
@@ -3196,13 +3271,16 @@
       <c r="AF25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:32">
+      <c r="AG25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -3220,16 +3298,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J26" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="R26">
         <v>25</v>
       </c>
       <c r="S26" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T26">
         <v>13</v>
@@ -3238,13 +3316,13 @@
         <v>20</v>
       </c>
       <c r="V26" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="W26" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="Z26" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -3258,13 +3336,16 @@
       <c r="AF26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:32">
+      <c r="AG26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -3282,16 +3363,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J27" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="R27">
         <v>26</v>
       </c>
       <c r="S27" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T27">
         <v>15</v>
@@ -3300,13 +3381,13 @@
         <v>22</v>
       </c>
       <c r="V27" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="W27" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Z27" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -3320,13 +3401,16 @@
       <c r="AF27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:32">
+      <c r="AG27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -3344,16 +3428,16 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J28" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="R28">
         <v>27</v>
       </c>
       <c r="S28" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T28">
         <v>16</v>
@@ -3362,13 +3446,13 @@
         <v>25</v>
       </c>
       <c r="V28" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="W28" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="Z28" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC28">
         <v>0</v>
@@ -3382,13 +3466,16 @@
       <c r="AF28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:32">
+      <c r="AG28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -3406,16 +3493,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J29" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="R29">
         <v>28</v>
       </c>
       <c r="S29" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T29">
         <v>16</v>
@@ -3424,13 +3511,13 @@
         <v>25</v>
       </c>
       <c r="V29" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="W29" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="Z29" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC29">
         <v>0</v>
@@ -3444,13 +3531,16 @@
       <c r="AF29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:32">
+      <c r="AG29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -3468,16 +3558,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J30" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="R30">
         <v>29</v>
       </c>
       <c r="S30" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T30">
         <v>16</v>
@@ -3486,13 +3576,13 @@
         <v>25</v>
       </c>
       <c r="V30" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="W30" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="Z30" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC30">
         <v>0</v>
@@ -3506,13 +3596,16 @@
       <c r="AF30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:32">
+      <c r="AG30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -3530,19 +3623,19 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J31" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="R31">
         <v>30</v>
       </c>
       <c r="S31" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T31">
         <v>17</v>
@@ -3551,13 +3644,13 @@
         <v>26</v>
       </c>
       <c r="V31" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="W31" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="Z31" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC31">
         <v>0</v>
@@ -3571,13 +3664,16 @@
       <c r="AF31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:32">
+      <c r="AG31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -3595,16 +3691,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J32" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="R32">
         <v>31</v>
       </c>
       <c r="S32" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T32">
         <v>18</v>
@@ -3613,13 +3709,13 @@
         <v>27</v>
       </c>
       <c r="V32" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="W32" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="Z32" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC32">
         <v>0</v>
@@ -3633,13 +3729,16 @@
       <c r="AF32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:32">
+      <c r="AG32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -3657,16 +3756,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J33" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="R33">
         <v>32</v>
       </c>
       <c r="S33" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T33">
         <v>19</v>
@@ -3675,13 +3774,13 @@
         <v>30</v>
       </c>
       <c r="V33" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="W33" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z33" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC33">
         <v>0</v>
@@ -3695,13 +3794,16 @@
       <c r="AF33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:32">
+      <c r="AG33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -3719,19 +3821,19 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I34" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J34" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="R34">
         <v>33</v>
       </c>
       <c r="S34" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T34">
         <v>19</v>
@@ -3740,13 +3842,13 @@
         <v>30</v>
       </c>
       <c r="V34" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="W34" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z34" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC34">
         <v>0</v>
@@ -3760,13 +3862,16 @@
       <c r="AF34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:32">
+      <c r="AG34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -3784,19 +3889,19 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I35" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J35" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="R35">
         <v>34</v>
       </c>
       <c r="S35" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T35">
         <v>19</v>
@@ -3805,13 +3910,13 @@
         <v>30</v>
       </c>
       <c r="V35" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="W35" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z35" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC35">
         <v>0</v>
@@ -3825,13 +3930,16 @@
       <c r="AF35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:32">
+      <c r="AG35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -3849,19 +3957,19 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I36" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J36" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R36">
         <v>35</v>
       </c>
       <c r="S36" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T36">
         <v>21</v>
@@ -3870,13 +3978,13 @@
         <v>34</v>
       </c>
       <c r="V36" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="W36" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="Z36" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC36">
         <v>0</v>
@@ -3890,13 +3998,16 @@
       <c r="AF36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:32">
+      <c r="AG36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -3914,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J37" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R37">
         <v>36</v>
       </c>
       <c r="S37" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T37">
         <v>22</v>
@@ -3932,13 +4043,13 @@
         <v>37</v>
       </c>
       <c r="V37" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="W37" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z37" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC37">
         <v>0</v>
@@ -3952,13 +4063,16 @@
       <c r="AF37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:32">
+      <c r="AG37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -3976,16 +4090,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J38" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="R38">
         <v>37</v>
       </c>
       <c r="S38" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T38">
         <v>22</v>
@@ -3994,13 +4108,13 @@
         <v>37</v>
       </c>
       <c r="V38" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="W38" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z38" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC38">
         <v>0</v>
@@ -4014,13 +4128,16 @@
       <c r="AF38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:32">
+      <c r="AG38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -4038,16 +4155,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J39" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="R39">
         <v>38</v>
       </c>
       <c r="S39" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T39">
         <v>23</v>
@@ -4056,13 +4173,13 @@
         <v>38</v>
       </c>
       <c r="V39" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="W39" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z39" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC39">
         <v>0</v>
@@ -4076,13 +4193,16 @@
       <c r="AF39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:32">
+      <c r="AG39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -4100,16 +4220,16 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J40" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="R40">
         <v>39</v>
       </c>
       <c r="S40" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T40">
         <v>23</v>
@@ -4118,13 +4238,13 @@
         <v>38</v>
       </c>
       <c r="V40" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="W40" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z40" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC40">
         <v>0</v>
@@ -4138,13 +4258,16 @@
       <c r="AF40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:32">
+      <c r="AG40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -4162,16 +4285,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J41" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="R41">
         <v>40</v>
       </c>
       <c r="S41" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T41">
         <v>23</v>
@@ -4180,13 +4303,13 @@
         <v>38</v>
       </c>
       <c r="V41" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="W41" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z41" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC41">
         <v>0</v>
@@ -4200,13 +4323,16 @@
       <c r="AF41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:32">
+      <c r="AG41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -4224,16 +4350,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J42" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="R42">
         <v>41</v>
       </c>
       <c r="S42" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T42">
         <v>23</v>
@@ -4242,13 +4368,13 @@
         <v>38</v>
       </c>
       <c r="V42" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="W42" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z42" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC42">
         <v>0</v>
@@ -4262,13 +4388,16 @@
       <c r="AF42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:32">
+      <c r="AG42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -4286,16 +4415,16 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J43" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R43">
         <v>42</v>
       </c>
       <c r="S43" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T43">
         <v>23</v>
@@ -4304,13 +4433,13 @@
         <v>38</v>
       </c>
       <c r="V43" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="W43" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z43" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC43">
         <v>0</v>
@@ -4324,13 +4453,16 @@
       <c r="AF43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:32">
+      <c r="AG43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B44" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -4348,16 +4480,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R44">
         <v>43</v>
       </c>
       <c r="S44" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T44">
         <v>23</v>
@@ -4366,13 +4498,13 @@
         <v>38</v>
       </c>
       <c r="V44" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="W44" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z44" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC44">
         <v>0</v>
@@ -4386,13 +4518,16 @@
       <c r="AF44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:32">
+      <c r="AG44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -4410,16 +4545,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R45">
         <v>44</v>
       </c>
       <c r="S45" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T45">
         <v>23</v>
@@ -4428,13 +4563,13 @@
         <v>38</v>
       </c>
       <c r="V45" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="W45" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z45" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC45">
         <v>0</v>
@@ -4448,13 +4583,16 @@
       <c r="AF45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:32">
+      <c r="AG45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -4472,16 +4610,16 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J46" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R46">
         <v>45</v>
       </c>
       <c r="S46" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T46">
         <v>23</v>
@@ -4490,13 +4628,13 @@
         <v>38</v>
       </c>
       <c r="V46" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="W46" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z46" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC46">
         <v>0</v>
@@ -4510,13 +4648,16 @@
       <c r="AF46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:32">
+      <c r="AG46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B47" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -4534,16 +4675,16 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J47" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="R47">
         <v>46</v>
       </c>
       <c r="S47" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T47">
         <v>23</v>
@@ -4552,13 +4693,13 @@
         <v>38</v>
       </c>
       <c r="V47" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="W47" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z47" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC47">
         <v>0</v>
@@ -4572,13 +4713,16 @@
       <c r="AF47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:32">
+      <c r="AG47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B48" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -4596,16 +4740,16 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J48" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="R48">
         <v>47</v>
       </c>
       <c r="S48" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T48">
         <v>23</v>
@@ -4614,13 +4758,13 @@
         <v>38</v>
       </c>
       <c r="V48" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="W48" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z48" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC48">
         <v>0</v>
@@ -4634,13 +4778,16 @@
       <c r="AF48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:32">
+      <c r="AG48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -4658,16 +4805,16 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J49" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="R49">
         <v>48</v>
       </c>
       <c r="S49" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T49">
         <v>23</v>
@@ -4676,13 +4823,13 @@
         <v>38</v>
       </c>
       <c r="V49" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="W49" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z49" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC49">
         <v>0</v>
@@ -4696,13 +4843,16 @@
       <c r="AF49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:32">
+      <c r="AG49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33">
       <c r="A50" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B50" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -4720,19 +4870,19 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I50" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J50" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="R50">
         <v>49</v>
       </c>
       <c r="S50" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T50">
         <v>24</v>
@@ -4741,13 +4891,13 @@
         <v>51</v>
       </c>
       <c r="V50" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="W50" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z50" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AC50">
         <v>0</v>
@@ -4761,13 +4911,16 @@
       <c r="AF50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:32">
+      <c r="AG50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33">
       <c r="A51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B51" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -4785,19 +4938,19 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I51" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J51" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="R51">
         <v>50</v>
       </c>
       <c r="S51" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T51">
         <v>24</v>
@@ -4806,13 +4959,13 @@
         <v>51</v>
       </c>
       <c r="V51" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="W51" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z51" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AC51">
         <v>0</v>
@@ -4826,13 +4979,16 @@
       <c r="AF51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:32">
+      <c r="AG51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33">
       <c r="A52" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B52" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -4850,19 +5006,19 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I52" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J52" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="R52">
         <v>51</v>
       </c>
       <c r="S52" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T52">
         <v>24</v>
@@ -4871,13 +5027,13 @@
         <v>51</v>
       </c>
       <c r="V52" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="W52" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z52" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AC52">
         <v>0</v>
@@ -4891,13 +5047,16 @@
       <c r="AF52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:32">
+      <c r="AG52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33">
       <c r="A53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4915,16 +5074,16 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J53" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="R53">
         <v>52</v>
       </c>
       <c r="S53" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T53">
         <v>25</v>
@@ -4933,13 +5092,13 @@
         <v>52</v>
       </c>
       <c r="V53" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="W53" s="2">
         <v>45033.79946759259</v>
       </c>
       <c r="Z53" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC53">
         <v>0</v>
@@ -4953,13 +5112,16 @@
       <c r="AF53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:32">
+      <c r="AG53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33">
       <c r="A54" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B54" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -4977,16 +5139,16 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J54" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="R54">
         <v>53</v>
       </c>
       <c r="S54" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T54">
         <v>26</v>
@@ -4995,13 +5157,13 @@
         <v>55</v>
       </c>
       <c r="V54" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="W54" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="Z54" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC54">
         <v>0</v>
@@ -5015,13 +5177,16 @@
       <c r="AF54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:32">
+      <c r="AG54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33">
       <c r="A55" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B55" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -5039,19 +5204,19 @@
         <v>0</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I55" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J55" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="R55">
         <v>54</v>
       </c>
       <c r="S55" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T55">
         <v>27</v>
@@ -5060,13 +5225,13 @@
         <v>56</v>
       </c>
       <c r="V55" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="W55" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="Z55" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC55">
         <v>0</v>
@@ -5080,13 +5245,16 @@
       <c r="AF55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:32">
+      <c r="AG55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33">
       <c r="A56" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B56" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -5104,16 +5272,16 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J56" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="R56">
         <v>55</v>
       </c>
       <c r="S56" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T56">
         <v>28</v>
@@ -5122,13 +5290,13 @@
         <v>57</v>
       </c>
       <c r="V56" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="W56" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Z56" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC56">
         <v>0</v>
@@ -5142,13 +5310,16 @@
       <c r="AF56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:32">
+      <c r="AG56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33">
       <c r="A57" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B57" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -5166,16 +5337,16 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J57" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="R57">
         <v>56</v>
       </c>
       <c r="S57" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T57">
         <v>28</v>
@@ -5184,13 +5355,13 @@
         <v>57</v>
       </c>
       <c r="V57" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="W57" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Z57" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC57">
         <v>0</v>
@@ -5204,13 +5375,16 @@
       <c r="AF57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:32">
+      <c r="AG57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33">
       <c r="A58" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B58" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -5228,16 +5402,16 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J58" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="R58">
         <v>57</v>
       </c>
       <c r="S58" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T58">
         <v>28</v>
@@ -5246,13 +5420,13 @@
         <v>57</v>
       </c>
       <c r="V58" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="W58" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Z58" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC58">
         <v>0</v>
@@ -5266,13 +5440,16 @@
       <c r="AF58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:32">
+      <c r="AG58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33">
       <c r="A59" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B59" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -5290,16 +5467,16 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J59" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R59">
         <v>58</v>
       </c>
       <c r="S59" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T59">
         <v>28</v>
@@ -5308,13 +5485,13 @@
         <v>57</v>
       </c>
       <c r="V59" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="W59" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Z59" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC59">
         <v>0</v>
@@ -5328,13 +5505,16 @@
       <c r="AF59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:32">
+      <c r="AG59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33">
       <c r="A60" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B60" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -5352,16 +5532,16 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J60" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="R60">
         <v>59</v>
       </c>
       <c r="S60" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T60">
         <v>29</v>
@@ -5370,13 +5550,13 @@
         <v>58</v>
       </c>
       <c r="V60" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="W60" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="Z60" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC60">
         <v>0</v>
@@ -5390,13 +5570,16 @@
       <c r="AF60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:32">
+      <c r="AG60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33">
       <c r="A61" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B61" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -5414,16 +5597,16 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J61" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="R61">
         <v>60</v>
       </c>
       <c r="S61" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T61">
         <v>30</v>
@@ -5432,13 +5615,13 @@
         <v>59</v>
       </c>
       <c r="V61" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="W61" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z61" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC61">
         <v>0</v>
@@ -5452,13 +5635,16 @@
       <c r="AF61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:32">
+      <c r="AG61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33">
       <c r="A62" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B62" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -5476,16 +5662,16 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J62" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="R62">
         <v>61</v>
       </c>
       <c r="S62" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T62">
         <v>31</v>
@@ -5494,13 +5680,13 @@
         <v>60</v>
       </c>
       <c r="V62" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="W62" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="Z62" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC62">
         <v>0</v>
@@ -5514,13 +5700,16 @@
       <c r="AF62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:32">
+      <c r="AG62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33">
       <c r="A63" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B63" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -5538,16 +5727,16 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J63" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="R63">
         <v>62</v>
       </c>
       <c r="S63" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T63">
         <v>31</v>
@@ -5556,13 +5745,13 @@
         <v>60</v>
       </c>
       <c r="V63" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="W63" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="Z63" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC63">
         <v>0</v>
@@ -5576,13 +5765,16 @@
       <c r="AF63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:32">
+      <c r="AG63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33">
       <c r="A64" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B64" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -5600,16 +5792,16 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J64" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="R64">
         <v>63</v>
       </c>
       <c r="S64" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T64">
         <v>32</v>
@@ -5618,13 +5810,13 @@
         <v>61</v>
       </c>
       <c r="V64" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="W64" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Z64" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC64">
         <v>0</v>
@@ -5638,13 +5830,16 @@
       <c r="AF64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:32">
+      <c r="AG64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33">
       <c r="A65" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B65" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -5662,16 +5857,16 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J65" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R65">
         <v>64</v>
       </c>
       <c r="S65" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T65">
         <v>33</v>
@@ -5680,13 +5875,13 @@
         <v>63</v>
       </c>
       <c r="V65" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="W65" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z65" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC65">
         <v>0</v>
@@ -5700,13 +5895,16 @@
       <c r="AF65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:32">
+      <c r="AG65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33">
       <c r="A66" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B66" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -5724,16 +5922,16 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J66" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="R66">
         <v>65</v>
       </c>
       <c r="S66" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T66">
         <v>33</v>
@@ -5742,13 +5940,13 @@
         <v>63</v>
       </c>
       <c r="V66" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="W66" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z66" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC66">
         <v>0</v>
@@ -5762,13 +5960,16 @@
       <c r="AF66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:32">
+      <c r="AG66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33">
       <c r="A67" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B67" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -5786,16 +5987,16 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J67" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="R67">
         <v>66</v>
       </c>
       <c r="S67" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T67">
         <v>33</v>
@@ -5804,13 +6005,13 @@
         <v>63</v>
       </c>
       <c r="V67" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="W67" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z67" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC67">
         <v>0</v>
@@ -5824,13 +6025,16 @@
       <c r="AF67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:32">
+      <c r="AG67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33">
       <c r="A68" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B68" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -5848,16 +6052,16 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J68" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="R68">
         <v>67</v>
       </c>
       <c r="S68" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T68">
         <v>33</v>
@@ -5866,13 +6070,13 @@
         <v>63</v>
       </c>
       <c r="V68" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="W68" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z68" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC68">
         <v>0</v>
@@ -5886,13 +6090,16 @@
       <c r="AF68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:32">
+      <c r="AG68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33">
       <c r="A69" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B69" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -5910,16 +6117,16 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J69" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="R69">
         <v>68</v>
       </c>
       <c r="S69" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T69">
         <v>33</v>
@@ -5928,13 +6135,13 @@
         <v>63</v>
       </c>
       <c r="V69" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="W69" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z69" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC69">
         <v>0</v>
@@ -5948,13 +6155,16 @@
       <c r="AF69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:32">
+      <c r="AG69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33">
       <c r="A70" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B70" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -5972,16 +6182,16 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J70" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="R70">
         <v>69</v>
       </c>
       <c r="S70" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T70">
         <v>33</v>
@@ -5990,13 +6200,13 @@
         <v>63</v>
       </c>
       <c r="V70" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="W70" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z70" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC70">
         <v>0</v>
@@ -6010,13 +6220,16 @@
       <c r="AF70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:32">
+      <c r="AG70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33">
       <c r="A71" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B71" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -6034,16 +6247,16 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J71" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="R71">
         <v>70</v>
       </c>
       <c r="S71" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T71">
         <v>34</v>
@@ -6052,13 +6265,13 @@
         <v>64</v>
       </c>
       <c r="V71" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="W71" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="Z71" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC71">
         <v>0</v>
@@ -6072,13 +6285,16 @@
       <c r="AF71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:32">
+      <c r="AG71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33">
       <c r="A72" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B72" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -6096,19 +6312,19 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I72" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J72" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="R72">
         <v>71</v>
       </c>
       <c r="S72" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T72">
         <v>36</v>
@@ -6117,13 +6333,13 @@
         <v>77</v>
       </c>
       <c r="V72" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="W72" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z72" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC72">
         <v>0</v>
@@ -6137,13 +6353,16 @@
       <c r="AF72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:32">
+      <c r="AG72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33">
       <c r="A73" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B73" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -6161,16 +6380,16 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J73" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="R73">
         <v>72</v>
       </c>
       <c r="S73" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T73">
         <v>36</v>
@@ -6179,13 +6398,13 @@
         <v>77</v>
       </c>
       <c r="V73" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="W73" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z73" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC73">
         <v>0</v>
@@ -6199,13 +6418,16 @@
       <c r="AF73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:32">
+      <c r="AG73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33">
       <c r="A74" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B74" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -6223,16 +6445,16 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J74" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="R74">
         <v>73</v>
       </c>
       <c r="S74" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T74">
         <v>36</v>
@@ -6241,13 +6463,13 @@
         <v>77</v>
       </c>
       <c r="V74" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="W74" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z74" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC74">
         <v>0</v>
@@ -6261,13 +6483,16 @@
       <c r="AF74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:32">
+      <c r="AG74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33">
       <c r="A75" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B75" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -6285,19 +6510,19 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I75" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J75" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="R75">
         <v>74</v>
       </c>
       <c r="S75" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T75">
         <v>37</v>
@@ -6306,13 +6531,13 @@
         <v>78</v>
       </c>
       <c r="V75" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="W75" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="Z75" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC75">
         <v>0</v>
@@ -6326,13 +6551,16 @@
       <c r="AF75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:32">
+      <c r="AG75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33">
       <c r="A76" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B76" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -6350,16 +6578,16 @@
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J76" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="R76">
         <v>75</v>
       </c>
       <c r="S76" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T76">
         <v>38</v>
@@ -6368,13 +6596,13 @@
         <v>80</v>
       </c>
       <c r="V76" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="W76" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="Z76" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC76">
         <v>0</v>
@@ -6388,13 +6616,16 @@
       <c r="AF76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:32">
+      <c r="AG76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33">
       <c r="A77" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B77" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -6412,16 +6643,16 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J77" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="R77">
         <v>76</v>
       </c>
       <c r="S77" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T77">
         <v>39</v>
@@ -6430,13 +6661,13 @@
         <v>81</v>
       </c>
       <c r="V77" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="W77" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z77" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC77">
         <v>0</v>
@@ -6450,13 +6681,16 @@
       <c r="AF77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:32">
+      <c r="AG77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33">
       <c r="A78" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B78" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -6474,19 +6708,19 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I78" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J78" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="R78">
         <v>77</v>
       </c>
       <c r="S78" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T78">
         <v>40</v>
@@ -6495,13 +6729,13 @@
         <v>82</v>
       </c>
       <c r="V78" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="W78" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="Z78" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC78">
         <v>0</v>
@@ -6515,13 +6749,16 @@
       <c r="AF78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:32">
+      <c r="AG78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33">
       <c r="A79" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B79" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -6539,16 +6776,16 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J79" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="R79">
         <v>78</v>
       </c>
       <c r="S79" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T79">
         <v>42</v>
@@ -6557,13 +6794,13 @@
         <v>84</v>
       </c>
       <c r="V79" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="W79" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="Z79" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC79">
         <v>0</v>
@@ -6577,13 +6814,16 @@
       <c r="AF79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:32">
+      <c r="AG79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33">
       <c r="A80" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B80" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -6601,19 +6841,19 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I80" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J80" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="R80">
         <v>79</v>
       </c>
       <c r="S80" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T80">
         <v>44</v>
@@ -6622,13 +6862,13 @@
         <v>87</v>
       </c>
       <c r="V80" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="W80" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z80" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC80">
         <v>0</v>
@@ -6642,13 +6882,16 @@
       <c r="AF80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:32">
+      <c r="AG80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33">
       <c r="A81" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B81" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -6666,19 +6909,19 @@
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I81" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J81" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="R81">
         <v>80</v>
       </c>
       <c r="S81" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T81">
         <v>44</v>
@@ -6687,13 +6930,13 @@
         <v>87</v>
       </c>
       <c r="V81" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="W81" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z81" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC81">
         <v>0</v>
@@ -6707,13 +6950,16 @@
       <c r="AF81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:32">
+      <c r="AG81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33">
       <c r="A82" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B82" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -6731,19 +6977,19 @@
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I82" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J82" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="R82">
         <v>81</v>
       </c>
       <c r="S82" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T82">
         <v>44</v>
@@ -6752,13 +6998,13 @@
         <v>87</v>
       </c>
       <c r="V82" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="W82" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z82" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC82">
         <v>0</v>
@@ -6772,13 +7018,16 @@
       <c r="AF82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:32">
+      <c r="AG82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33">
       <c r="A83" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B83" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -6796,19 +7045,19 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I83" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J83" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="R83">
         <v>82</v>
       </c>
       <c r="S83" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T83">
         <v>44</v>
@@ -6817,13 +7066,13 @@
         <v>87</v>
       </c>
       <c r="V83" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="W83" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z83" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC83">
         <v>0</v>
@@ -6837,13 +7086,16 @@
       <c r="AF83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:32">
+      <c r="AG83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:33">
       <c r="A84" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B84" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -6861,19 +7113,19 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I84" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J84" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="R84">
         <v>83</v>
       </c>
       <c r="S84" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T84">
         <v>44</v>
@@ -6882,13 +7134,13 @@
         <v>87</v>
       </c>
       <c r="V84" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="W84" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z84" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC84">
         <v>0</v>
@@ -6902,13 +7154,16 @@
       <c r="AF84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:32">
+      <c r="AG84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:33">
       <c r="A85" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B85" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -6926,16 +7181,16 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J85" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="R85">
         <v>84</v>
       </c>
       <c r="S85" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T85">
         <v>44</v>
@@ -6944,13 +7199,13 @@
         <v>87</v>
       </c>
       <c r="V85" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="W85" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z85" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC85">
         <v>0</v>
@@ -6964,13 +7219,16 @@
       <c r="AF85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:32">
+      <c r="AG85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:33">
       <c r="A86" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B86" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -6988,16 +7246,16 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J86" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="R86">
         <v>85</v>
       </c>
       <c r="S86" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T86">
         <v>44</v>
@@ -7006,13 +7264,13 @@
         <v>87</v>
       </c>
       <c r="V86" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="W86" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z86" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC86">
         <v>0</v>
@@ -7026,13 +7284,16 @@
       <c r="AF86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:32">
+      <c r="AG86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:33">
       <c r="A87" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B87" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -7050,19 +7311,19 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I87" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J87" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R87">
         <v>86</v>
       </c>
       <c r="S87" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T87">
         <v>45</v>
@@ -7071,13 +7332,13 @@
         <v>88</v>
       </c>
       <c r="V87" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="W87" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Z87" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AC87">
         <v>0</v>
@@ -7091,13 +7352,16 @@
       <c r="AF87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:32">
+      <c r="AG87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:33">
       <c r="A88" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B88" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -7115,16 +7379,16 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J88" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="R88">
         <v>87</v>
       </c>
       <c r="S88" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T88">
         <v>45</v>
@@ -7133,13 +7397,13 @@
         <v>88</v>
       </c>
       <c r="V88" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="W88" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Z88" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AC88">
         <v>0</v>
@@ -7153,13 +7417,16 @@
       <c r="AF88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:32">
+      <c r="AG88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:33">
       <c r="A89" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B89" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -7177,16 +7444,16 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J89" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="R89">
         <v>88</v>
       </c>
       <c r="S89" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T89">
         <v>46</v>
@@ -7195,13 +7462,13 @@
         <v>90</v>
       </c>
       <c r="V89" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="W89" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z89" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC89">
         <v>0</v>
@@ -7215,13 +7482,16 @@
       <c r="AF89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:32">
+      <c r="AG89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:33">
       <c r="A90" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B90" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -7239,16 +7509,16 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J90" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="R90">
         <v>89</v>
       </c>
       <c r="S90" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T90">
         <v>46</v>
@@ -7257,13 +7527,13 @@
         <v>90</v>
       </c>
       <c r="V90" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="W90" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z90" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC90">
         <v>0</v>
@@ -7277,13 +7547,16 @@
       <c r="AF90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:32">
+      <c r="AG90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:33">
       <c r="A91" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B91" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -7301,16 +7574,16 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J91" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R91">
         <v>90</v>
       </c>
       <c r="S91" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T91">
         <v>46</v>
@@ -7319,13 +7592,13 @@
         <v>90</v>
       </c>
       <c r="V91" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="W91" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z91" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC91">
         <v>0</v>
@@ -7339,13 +7612,16 @@
       <c r="AF91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:32">
+      <c r="AG91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:33">
       <c r="A92" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B92" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -7363,16 +7639,16 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J92" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="R92">
         <v>91</v>
       </c>
       <c r="S92" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T92">
         <v>47</v>
@@ -7381,13 +7657,13 @@
         <v>91</v>
       </c>
       <c r="V92" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="W92" s="2">
         <v>45043.91625</v>
       </c>
       <c r="Z92" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC92">
         <v>0</v>
@@ -7401,13 +7677,16 @@
       <c r="AF92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:32">
+      <c r="AG92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:33">
       <c r="A93" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B93" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -7425,16 +7704,16 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J93" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="R93">
         <v>92</v>
       </c>
       <c r="S93" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T93">
         <v>48</v>
@@ -7443,13 +7722,13 @@
         <v>92</v>
       </c>
       <c r="V93" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="W93" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="Z93" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC93">
         <v>0</v>
@@ -7463,13 +7742,16 @@
       <c r="AF93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:32">
+      <c r="AG93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:33">
       <c r="A94" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B94" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -7487,16 +7769,16 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J94" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="R94">
         <v>93</v>
       </c>
       <c r="S94" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T94">
         <v>48</v>
@@ -7505,13 +7787,13 @@
         <v>92</v>
       </c>
       <c r="V94" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="W94" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="Z94" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC94">
         <v>0</v>
@@ -7525,13 +7807,16 @@
       <c r="AF94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:32">
+      <c r="AG94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:33">
       <c r="A95" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B95" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -7549,19 +7834,19 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I95" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J95" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="R95">
         <v>94</v>
       </c>
       <c r="S95" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T95">
         <v>49</v>
@@ -7570,13 +7855,13 @@
         <v>93</v>
       </c>
       <c r="V95" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="W95" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Z95" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC95">
         <v>0</v>
@@ -7590,13 +7875,16 @@
       <c r="AF95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:32">
+      <c r="AG95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:33">
       <c r="A96" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B96" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -7614,19 +7902,19 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I96" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J96" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="R96">
         <v>95</v>
       </c>
       <c r="S96" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T96">
         <v>49</v>
@@ -7635,13 +7923,13 @@
         <v>93</v>
       </c>
       <c r="V96" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="W96" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Z96" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC96">
         <v>0</v>
@@ -7655,13 +7943,16 @@
       <c r="AF96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:32">
+      <c r="AG96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33">
       <c r="A97" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B97" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -7679,19 +7970,19 @@
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I97" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J97" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="R97">
         <v>96</v>
       </c>
       <c r="S97" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T97">
         <v>50</v>
@@ -7700,13 +7991,13 @@
         <v>94</v>
       </c>
       <c r="V97" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="W97" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="Z97" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC97">
         <v>0</v>
@@ -7720,13 +8011,16 @@
       <c r="AF97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:32">
+      <c r="AG97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33">
       <c r="A98" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B98" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -7744,19 +8038,19 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I98" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J98" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="R98">
         <v>97</v>
       </c>
       <c r="S98" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T98">
         <v>51</v>
@@ -7765,13 +8059,13 @@
         <v>95</v>
       </c>
       <c r="V98" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="W98" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z98" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC98">
         <v>0</v>
@@ -7785,13 +8079,16 @@
       <c r="AF98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:32">
+      <c r="AG98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33">
       <c r="A99" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B99" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -7809,16 +8106,16 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J99" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="R99">
         <v>98</v>
       </c>
       <c r="S99" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T99">
         <v>53</v>
@@ -7827,13 +8124,13 @@
         <v>98</v>
       </c>
       <c r="V99" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="W99" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="Z99" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AC99">
         <v>0</v>
@@ -7847,13 +8144,16 @@
       <c r="AF99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:32">
+      <c r="AG99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33">
       <c r="A100" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B100" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -7871,16 +8171,16 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J100" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="R100">
         <v>99</v>
       </c>
       <c r="S100" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T100">
         <v>54</v>
@@ -7889,13 +8189,13 @@
         <v>99</v>
       </c>
       <c r="V100" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="W100" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z100" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC100">
         <v>0</v>
@@ -7909,13 +8209,16 @@
       <c r="AF100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:32">
+      <c r="AG100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33">
       <c r="A101" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B101" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -7933,16 +8236,16 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J101" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="R101">
         <v>100</v>
       </c>
       <c r="S101" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T101">
         <v>54</v>
@@ -7951,13 +8254,13 @@
         <v>99</v>
       </c>
       <c r="V101" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="W101" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z101" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC101">
         <v>0</v>
@@ -7971,13 +8274,16 @@
       <c r="AF101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:32">
+      <c r="AG101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33">
       <c r="A102" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B102" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -7995,16 +8301,16 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J102" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="R102">
         <v>101</v>
       </c>
       <c r="S102" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T102">
         <v>54</v>
@@ -8013,13 +8319,13 @@
         <v>99</v>
       </c>
       <c r="V102" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="W102" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z102" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC102">
         <v>0</v>
@@ -8033,13 +8339,16 @@
       <c r="AF102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:32">
+      <c r="AG102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33">
       <c r="A103" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B103" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8057,16 +8366,16 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J103" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="R103">
         <v>102</v>
       </c>
       <c r="S103" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T103">
         <v>54</v>
@@ -8075,13 +8384,13 @@
         <v>99</v>
       </c>
       <c r="V103" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="W103" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z103" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC103">
         <v>0</v>
@@ -8095,13 +8404,16 @@
       <c r="AF103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:32">
+      <c r="AG103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33">
       <c r="A104" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B104" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8119,16 +8431,16 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J104" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="R104">
         <v>103</v>
       </c>
       <c r="S104" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T104">
         <v>54</v>
@@ -8137,13 +8449,13 @@
         <v>99</v>
       </c>
       <c r="V104" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="W104" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z104" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC104">
         <v>0</v>
@@ -8157,13 +8469,16 @@
       <c r="AF104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:32">
+      <c r="AG104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33">
       <c r="A105" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B105" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8181,16 +8496,16 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J105" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="R105">
         <v>104</v>
       </c>
       <c r="S105" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T105">
         <v>54</v>
@@ -8199,13 +8514,13 @@
         <v>99</v>
       </c>
       <c r="V105" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="W105" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z105" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC105">
         <v>0</v>
@@ -8219,13 +8534,16 @@
       <c r="AF105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:32">
+      <c r="AG105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33">
       <c r="A106" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B106" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8243,16 +8561,16 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J106" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="R106">
         <v>105</v>
       </c>
       <c r="S106" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T106">
         <v>54</v>
@@ -8261,13 +8579,13 @@
         <v>99</v>
       </c>
       <c r="V106" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="W106" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z106" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC106">
         <v>0</v>
@@ -8281,13 +8599,16 @@
       <c r="AF106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:32">
+      <c r="AG106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33">
       <c r="A107" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B107" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8305,16 +8626,16 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J107" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="R107">
         <v>106</v>
       </c>
       <c r="S107" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T107">
         <v>54</v>
@@ -8323,13 +8644,13 @@
         <v>99</v>
       </c>
       <c r="V107" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="W107" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z107" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC107">
         <v>0</v>
@@ -8343,13 +8664,16 @@
       <c r="AF107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:32">
+      <c r="AG107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33">
       <c r="A108" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B108" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -8367,16 +8691,16 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J108" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="R108">
         <v>107</v>
       </c>
       <c r="S108" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T108">
         <v>55</v>
@@ -8385,13 +8709,13 @@
         <v>100</v>
       </c>
       <c r="V108" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="W108" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Z108" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC108">
         <v>0</v>
@@ -8405,13 +8729,16 @@
       <c r="AF108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:32">
+      <c r="AG108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:33">
       <c r="A109" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B109" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -8429,16 +8756,16 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J109" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R109">
         <v>108</v>
       </c>
       <c r="S109" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T109">
         <v>55</v>
@@ -8447,13 +8774,13 @@
         <v>100</v>
       </c>
       <c r="V109" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="W109" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Z109" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC109">
         <v>0</v>
@@ -8467,13 +8794,16 @@
       <c r="AF109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:32">
+      <c r="AG109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:33">
       <c r="A110" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B110" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -8491,16 +8821,16 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J110" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="R110">
         <v>109</v>
       </c>
       <c r="S110" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T110">
         <v>55</v>
@@ -8509,13 +8839,13 @@
         <v>100</v>
       </c>
       <c r="V110" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="W110" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Z110" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC110">
         <v>0</v>
@@ -8529,13 +8859,16 @@
       <c r="AF110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:32">
+      <c r="AG110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:33">
       <c r="A111" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B111" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -8553,16 +8886,16 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J111" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R111">
         <v>110</v>
       </c>
       <c r="S111" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T111">
         <v>56</v>
@@ -8571,13 +8904,13 @@
         <v>101</v>
       </c>
       <c r="V111" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="W111" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Z111" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC111">
         <v>0</v>
@@ -8591,13 +8924,16 @@
       <c r="AF111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:32">
+      <c r="AG111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:33">
       <c r="A112" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B112" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -8615,19 +8951,19 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I112" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J112" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="R112">
         <v>111</v>
       </c>
       <c r="S112" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T112">
         <v>57</v>
@@ -8636,13 +8972,13 @@
         <v>102</v>
       </c>
       <c r="V112" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="W112" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="Z112" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC112">
         <v>0</v>
@@ -8656,13 +8992,16 @@
       <c r="AF112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:32">
+      <c r="AG112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:33">
       <c r="A113" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B113" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -8680,16 +9019,16 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J113" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="R113">
         <v>112</v>
       </c>
       <c r="S113" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T113">
         <v>58</v>
@@ -8698,13 +9037,13 @@
         <v>103</v>
       </c>
       <c r="V113" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="W113" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="Z113" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC113">
         <v>0</v>
@@ -8718,13 +9057,16 @@
       <c r="AF113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:32">
+      <c r="AG113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:33">
       <c r="A114" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B114" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -8742,16 +9084,16 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J114" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="R114">
         <v>113</v>
       </c>
       <c r="S114" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T114">
         <v>59</v>
@@ -8760,13 +9102,13 @@
         <v>104</v>
       </c>
       <c r="V114" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W114" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z114" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC114">
         <v>0</v>
@@ -8780,13 +9122,16 @@
       <c r="AF114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:32">
+      <c r="AG114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:33">
       <c r="A115" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B115" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -8804,16 +9149,16 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J115" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="R115">
         <v>114</v>
       </c>
       <c r="S115" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T115">
         <v>59</v>
@@ -8822,13 +9167,13 @@
         <v>104</v>
       </c>
       <c r="V115" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W115" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z115" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC115">
         <v>0</v>
@@ -8842,13 +9187,16 @@
       <c r="AF115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:32">
+      <c r="AG115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:33">
       <c r="A116" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B116" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -8866,16 +9214,16 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J116" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="R116">
         <v>115</v>
       </c>
       <c r="S116" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T116">
         <v>59</v>
@@ -8884,13 +9232,13 @@
         <v>104</v>
       </c>
       <c r="V116" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W116" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z116" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC116">
         <v>0</v>
@@ -8904,13 +9252,16 @@
       <c r="AF116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:32">
+      <c r="AG116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:33">
       <c r="A117" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B117" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -8928,16 +9279,16 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J117" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="R117">
         <v>116</v>
       </c>
       <c r="S117" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T117">
         <v>59</v>
@@ -8946,13 +9297,13 @@
         <v>104</v>
       </c>
       <c r="V117" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W117" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z117" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC117">
         <v>0</v>
@@ -8966,13 +9317,16 @@
       <c r="AF117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:32">
+      <c r="AG117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:33">
       <c r="A118" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B118" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -8990,16 +9344,16 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J118" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="R118">
         <v>117</v>
       </c>
       <c r="S118" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T118">
         <v>59</v>
@@ -9008,13 +9362,13 @@
         <v>104</v>
       </c>
       <c r="V118" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W118" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z118" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC118">
         <v>0</v>
@@ -9028,13 +9382,16 @@
       <c r="AF118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:32">
+      <c r="AG118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:33">
       <c r="A119" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B119" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -9052,16 +9409,16 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J119" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="R119">
         <v>118</v>
       </c>
       <c r="S119" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T119">
         <v>61</v>
@@ -9070,13 +9427,13 @@
         <v>106</v>
       </c>
       <c r="V119" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="W119" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="Z119" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC119">
         <v>0</v>
@@ -9090,13 +9447,16 @@
       <c r="AF119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:32">
+      <c r="AG119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:33">
       <c r="A120" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B120" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -9114,16 +9474,16 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J120" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R120">
         <v>119</v>
       </c>
       <c r="S120" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T120">
         <v>64</v>
@@ -9132,13 +9492,13 @@
         <v>110</v>
       </c>
       <c r="V120" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="W120" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="Z120" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC120">
         <v>0</v>
@@ -9152,13 +9512,16 @@
       <c r="AF120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:32">
+      <c r="AG120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:33">
       <c r="A121" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B121" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -9176,16 +9539,16 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J121" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="R121">
         <v>120</v>
       </c>
       <c r="S121" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T121">
         <v>65</v>
@@ -9194,13 +9557,13 @@
         <v>111</v>
       </c>
       <c r="V121" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="W121" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="Z121" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC121">
         <v>0</v>
@@ -9214,13 +9577,16 @@
       <c r="AF121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:32">
+      <c r="AG121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:33">
       <c r="A122" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B122" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -9238,16 +9604,16 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J122" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="R122">
         <v>121</v>
       </c>
       <c r="S122" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T122">
         <v>66</v>
@@ -9256,13 +9622,13 @@
         <v>113</v>
       </c>
       <c r="V122" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="W122" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="Z122" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC122">
         <v>0</v>
@@ -9276,13 +9642,16 @@
       <c r="AF122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:32">
+      <c r="AG122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:33">
       <c r="A123" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B123" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9300,16 +9669,16 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J123" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="R123">
         <v>122</v>
       </c>
       <c r="S123" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T123">
         <v>68</v>
@@ -9318,13 +9687,13 @@
         <v>115</v>
       </c>
       <c r="V123" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="W123" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="Z123" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AC123">
         <v>0</v>
@@ -9338,13 +9707,16 @@
       <c r="AF123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:32">
+      <c r="AG123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:33">
       <c r="A124" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B124" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9362,16 +9734,16 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J124" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="R124">
         <v>123</v>
       </c>
       <c r="S124" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T124">
         <v>68</v>
@@ -9380,13 +9752,13 @@
         <v>115</v>
       </c>
       <c r="V124" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="W124" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="Z124" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AC124">
         <v>0</v>
@@ -9400,13 +9772,16 @@
       <c r="AF124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:32">
+      <c r="AG124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:33">
       <c r="A125" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B125" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9424,16 +9799,16 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J125" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="R125">
         <v>124</v>
       </c>
       <c r="S125" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T125">
         <v>71</v>
@@ -9442,13 +9817,13 @@
         <v>119</v>
       </c>
       <c r="V125" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="W125" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z125" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC125">
         <v>0</v>
@@ -9462,13 +9837,16 @@
       <c r="AF125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:32">
+      <c r="AG125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:33">
       <c r="A126" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B126" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9486,16 +9864,16 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J126" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="R126">
         <v>125</v>
       </c>
       <c r="S126" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T126">
         <v>71</v>
@@ -9504,13 +9882,13 @@
         <v>119</v>
       </c>
       <c r="V126" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="W126" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z126" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC126">
         <v>0</v>
@@ -9524,13 +9902,16 @@
       <c r="AF126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:32">
+      <c r="AG126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:33">
       <c r="A127" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B127" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -9548,16 +9929,16 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J127" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R127">
         <v>126</v>
       </c>
       <c r="S127" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T127">
         <v>71</v>
@@ -9566,13 +9947,13 @@
         <v>119</v>
       </c>
       <c r="V127" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="W127" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z127" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC127">
         <v>0</v>
@@ -9586,13 +9967,16 @@
       <c r="AF127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:32">
+      <c r="AG127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:33">
       <c r="A128" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B128" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -9610,16 +9994,16 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J128" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="R128">
         <v>127</v>
       </c>
       <c r="S128" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T128">
         <v>71</v>
@@ -9628,13 +10012,13 @@
         <v>119</v>
       </c>
       <c r="V128" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="W128" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z128" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC128">
         <v>0</v>
@@ -9648,13 +10032,16 @@
       <c r="AF128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:32">
+      <c r="AG128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:33">
       <c r="A129" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B129" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -9672,16 +10059,16 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J129" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="R129">
         <v>128</v>
       </c>
       <c r="S129" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T129">
         <v>71</v>
@@ -9690,13 +10077,13 @@
         <v>119</v>
       </c>
       <c r="V129" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="W129" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z129" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC129">
         <v>0</v>
@@ -9710,13 +10097,16 @@
       <c r="AF129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:32">
+      <c r="AG129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:33">
       <c r="A130" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B130" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -9734,16 +10124,16 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J130" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="R130">
         <v>129</v>
       </c>
       <c r="S130" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T130">
         <v>71</v>
@@ -9752,13 +10142,13 @@
         <v>119</v>
       </c>
       <c r="V130" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="W130" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z130" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC130">
         <v>0</v>
@@ -9772,13 +10162,16 @@
       <c r="AF130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:32">
+      <c r="AG130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:33">
       <c r="A131" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B131" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -9796,16 +10189,16 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J131" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="R131">
         <v>130</v>
       </c>
       <c r="S131" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T131">
         <v>71</v>
@@ -9814,13 +10207,13 @@
         <v>119</v>
       </c>
       <c r="V131" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="W131" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z131" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC131">
         <v>0</v>
@@ -9834,13 +10227,16 @@
       <c r="AF131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:32">
+      <c r="AG131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:33">
       <c r="A132" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B132" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -9858,16 +10254,16 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J132" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R132">
         <v>131</v>
       </c>
       <c r="S132" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T132">
         <v>71</v>
@@ -9876,13 +10272,13 @@
         <v>119</v>
       </c>
       <c r="V132" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="W132" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z132" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC132">
         <v>0</v>
@@ -9896,13 +10292,16 @@
       <c r="AF132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:32">
+      <c r="AG132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:33">
       <c r="A133" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B133" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -9920,16 +10319,16 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J133" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="R133">
         <v>132</v>
       </c>
       <c r="S133" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T133">
         <v>71</v>
@@ -9938,13 +10337,13 @@
         <v>119</v>
       </c>
       <c r="V133" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="W133" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z133" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC133">
         <v>0</v>
@@ -9958,13 +10357,16 @@
       <c r="AF133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:32">
+      <c r="AG133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:33">
       <c r="A134" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B134" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -9982,16 +10384,16 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J134" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="R134">
         <v>133</v>
       </c>
       <c r="S134" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T134">
         <v>71</v>
@@ -10000,13 +10402,13 @@
         <v>119</v>
       </c>
       <c r="V134" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="W134" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z134" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC134">
         <v>0</v>
@@ -10020,13 +10422,16 @@
       <c r="AF134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:32">
+      <c r="AG134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:33">
       <c r="A135" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B135" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -10044,19 +10449,19 @@
         <v>0</v>
       </c>
       <c r="H135" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I135" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J135" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="R135">
         <v>134</v>
       </c>
       <c r="S135" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T135">
         <v>71</v>
@@ -10065,13 +10470,13 @@
         <v>119</v>
       </c>
       <c r="V135" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="W135" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z135" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC135">
         <v>0</v>
@@ -10083,6 +10488,9 @@
         <v>0</v>
       </c>
       <c r="AF135">
+        <v>0</v>
+      </c>
+      <c r="AG135">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p15.xlsx
+++ b/files/separadas/repeat_p15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="399">
   <si>
     <t>p15_nom</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>c4</t>
+  </si>
+  <si>
+    <t>nota_iniciativa</t>
   </si>
   <si>
     <t>articular acciones interinstitucionales</t>
@@ -564,6 +567,9 @@
     <t>p15_act_1 p15_act_4</t>
   </si>
   <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>Estrategia: Mas cerca de los tuyos: Por medio del sistema de información: Si cuéntanos, Bogotá, la medición de la encuesta de satisfacción.</t>
   </si>
   <si>
@@ -645,10 +651,10 @@
     <t>Formato Integrado OPA</t>
   </si>
   <si>
-    <t>p15_post_bin_1</t>
-  </si>
-  <si>
-    <t>p15_post_bin_2</t>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>Sumapaz Talleres _ Sistematización  (1)-14_31_50.pdf</t>
@@ -1605,13 +1611,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG135"/>
+  <dimension ref="A1:AH135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:34">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1711,16 +1717,19 @@
       <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:33">
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="C2" t="s">
+        <v>179</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1735,16 +1744,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T2">
         <v>2</v>
@@ -1753,13 +1762,13 @@
         <v>6</v>
       </c>
       <c r="V2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="W2" s="2">
         <v>44998.82651620371</v>
       </c>
       <c r="Z2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -1776,22 +1785,25 @@
       <c r="AG2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:33">
+      <c r="AH2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" t="s">
+        <v>179</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1800,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="R3">
         <v>2</v>
       </c>
       <c r="S3" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T3">
         <v>3</v>
@@ -1818,13 +1830,13 @@
         <v>7</v>
       </c>
       <c r="V3" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="W3" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="Z3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -1841,13 +1853,16 @@
       <c r="AG3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:33">
+      <c r="AH3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1858,26 +1873,26 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>1</v>
+      <c r="F4" t="s">
+        <v>179</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="R4">
         <v>3</v>
       </c>
       <c r="S4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T4">
         <v>4</v>
@@ -1886,13 +1901,13 @@
         <v>9</v>
       </c>
       <c r="V4" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="W4" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="Z4" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -1909,22 +1924,25 @@
       <c r="AG4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:33">
+      <c r="AH4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
+      <c r="D5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" t="s">
+        <v>179</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1933,16 +1951,16 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="R5">
         <v>4</v>
       </c>
       <c r="S5" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T5">
         <v>5</v>
@@ -1951,13 +1969,13 @@
         <v>10</v>
       </c>
       <c r="V5" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="W5" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z5" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1974,19 +1992,22 @@
       <c r="AG5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:33">
+      <c r="AH5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>1</v>
+      <c r="D6" t="s">
+        <v>179</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1998,16 +2019,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="R6">
         <v>5</v>
       </c>
       <c r="S6" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T6">
         <v>5</v>
@@ -2016,13 +2037,13 @@
         <v>10</v>
       </c>
       <c r="V6" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="W6" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -2039,22 +2060,25 @@
       <c r="AG6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:33">
+      <c r="AH6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" t="s">
+        <v>179</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2063,16 +2087,16 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="R7">
         <v>6</v>
       </c>
       <c r="S7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T7">
         <v>5</v>
@@ -2081,13 +2105,13 @@
         <v>10</v>
       </c>
       <c r="V7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="W7" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -2104,16 +2128,19 @@
       <c r="AG7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:33">
+      <c r="AH7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="C8" t="s">
+        <v>179</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2128,16 +2155,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R8">
         <v>7</v>
       </c>
       <c r="S8" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T8">
         <v>6</v>
@@ -2146,13 +2173,13 @@
         <v>12</v>
       </c>
       <c r="V8" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="W8" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="Z8" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -2169,16 +2196,19 @@
       <c r="AG8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:33">
+      <c r="AH8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="C9" t="s">
+        <v>179</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2193,16 +2223,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="R9">
         <v>8</v>
       </c>
       <c r="S9" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T9">
         <v>7</v>
@@ -2211,13 +2241,13 @@
         <v>13</v>
       </c>
       <c r="V9" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="W9" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="Z9" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -2234,22 +2264,25 @@
       <c r="AG9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:33">
+      <c r="AH9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" t="s">
+        <v>179</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2258,16 +2291,16 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="R10">
         <v>9</v>
       </c>
       <c r="S10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T10">
         <v>9</v>
@@ -2276,13 +2309,13 @@
         <v>15</v>
       </c>
       <c r="V10" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="W10" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Z10" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -2299,13 +2332,16 @@
       <c r="AG10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:33">
+      <c r="AH10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2313,8 +2349,8 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11">
-        <v>1</v>
+      <c r="E11" t="s">
+        <v>179</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2323,16 +2359,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J11" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="R11">
         <v>10</v>
       </c>
       <c r="S11" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T11">
         <v>10</v>
@@ -2341,13 +2377,13 @@
         <v>16</v>
       </c>
       <c r="V11" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="W11" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="Z11" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -2364,16 +2400,19 @@
       <c r="AG11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:33">
+      <c r="AH11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="C12" t="s">
+        <v>179</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2388,16 +2427,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J12" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="R12">
         <v>11</v>
       </c>
       <c r="S12" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T12">
         <v>11</v>
@@ -2406,13 +2445,13 @@
         <v>17</v>
       </c>
       <c r="V12" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="W12" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z12" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -2429,16 +2468,19 @@
       <c r="AG12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:33">
+      <c r="AH12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="C13" t="s">
+        <v>179</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2453,16 +2495,16 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J13" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="R13">
         <v>12</v>
       </c>
       <c r="S13" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T13">
         <v>11</v>
@@ -2471,13 +2513,13 @@
         <v>17</v>
       </c>
       <c r="V13" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="W13" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z13" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -2494,16 +2536,19 @@
       <c r="AG13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:33">
+      <c r="AH13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="C14" t="s">
+        <v>179</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2518,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J14" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="R14">
         <v>13</v>
       </c>
       <c r="S14" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T14">
         <v>11</v>
@@ -2536,13 +2581,13 @@
         <v>17</v>
       </c>
       <c r="V14" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="W14" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z14" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -2559,16 +2604,19 @@
       <c r="AG14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:33">
+      <c r="AH14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>164</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="C15" t="s">
+        <v>179</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2583,16 +2631,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J15" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="R15">
         <v>14</v>
       </c>
       <c r="S15" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T15">
         <v>11</v>
@@ -2601,13 +2649,13 @@
         <v>17</v>
       </c>
       <c r="V15" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="W15" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z15" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -2624,16 +2672,19 @@
       <c r="AG15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:33">
+      <c r="AH15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>164</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="C16" t="s">
+        <v>179</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2648,16 +2699,16 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="R16">
         <v>15</v>
       </c>
       <c r="S16" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T16">
         <v>11</v>
@@ -2666,13 +2717,13 @@
         <v>17</v>
       </c>
       <c r="V16" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="W16" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z16" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC16">
         <v>0</v>
@@ -2689,16 +2740,19 @@
       <c r="AG16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:33">
+      <c r="AH16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>164</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="C17" t="s">
+        <v>179</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2713,16 +2767,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J17" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="R17">
         <v>16</v>
       </c>
       <c r="S17" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T17">
         <v>11</v>
@@ -2731,13 +2785,13 @@
         <v>17</v>
       </c>
       <c r="V17" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="W17" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z17" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC17">
         <v>0</v>
@@ -2754,16 +2808,19 @@
       <c r="AG17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:33">
+      <c r="AH17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>164</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="C18" t="s">
+        <v>179</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2778,16 +2835,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J18" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="R18">
         <v>17</v>
       </c>
       <c r="S18" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T18">
         <v>11</v>
@@ -2796,13 +2853,13 @@
         <v>17</v>
       </c>
       <c r="V18" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="W18" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z18" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC18">
         <v>0</v>
@@ -2819,19 +2876,22 @@
       <c r="AG18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:33">
+      <c r="AH18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="D19">
-        <v>1</v>
+      <c r="D19" t="s">
+        <v>179</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2843,16 +2903,16 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J19" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="R19">
         <v>18</v>
       </c>
       <c r="S19" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T19">
         <v>11</v>
@@ -2861,13 +2921,13 @@
         <v>17</v>
       </c>
       <c r="V19" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="W19" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z19" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC19">
         <v>0</v>
@@ -2884,16 +2944,19 @@
       <c r="AG19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:33">
+      <c r="AH19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="C20" t="s">
+        <v>179</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2908,16 +2971,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J20" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="R20">
         <v>19</v>
       </c>
       <c r="S20" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T20">
         <v>11</v>
@@ -2926,13 +2989,13 @@
         <v>17</v>
       </c>
       <c r="V20" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="W20" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z20" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC20">
         <v>0</v>
@@ -2949,16 +3012,19 @@
       <c r="AG20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:33">
+      <c r="AH20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>164</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="C21" t="s">
+        <v>179</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2973,16 +3039,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J21" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="R21">
         <v>20</v>
       </c>
       <c r="S21" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T21">
         <v>11</v>
@@ -2991,13 +3057,13 @@
         <v>17</v>
       </c>
       <c r="V21" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="W21" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z21" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC21">
         <v>0</v>
@@ -3014,16 +3080,19 @@
       <c r="AG21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:33">
+      <c r="AH21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>164</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="C22" t="s">
+        <v>179</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3038,16 +3107,16 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J22" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="R22">
         <v>21</v>
       </c>
       <c r="S22" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T22">
         <v>11</v>
@@ -3056,13 +3125,13 @@
         <v>17</v>
       </c>
       <c r="V22" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="W22" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z22" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC22">
         <v>0</v>
@@ -3079,19 +3148,22 @@
       <c r="AG22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:33">
+      <c r="AH22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
-      <c r="D23">
-        <v>1</v>
+      <c r="D23" t="s">
+        <v>179</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -3103,16 +3175,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J23" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="R23">
         <v>22</v>
       </c>
       <c r="S23" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T23">
         <v>11</v>
@@ -3121,13 +3193,13 @@
         <v>17</v>
       </c>
       <c r="V23" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="W23" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z23" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC23">
         <v>0</v>
@@ -3144,22 +3216,25 @@
       <c r="AG23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:33">
+      <c r="AH23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>165</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C24" t="s">
+        <v>179</v>
+      </c>
+      <c r="D24" t="s">
+        <v>179</v>
+      </c>
+      <c r="E24" t="s">
+        <v>179</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -3168,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J24" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="R24">
         <v>23</v>
       </c>
       <c r="S24" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T24">
         <v>12</v>
@@ -3186,13 +3261,13 @@
         <v>18</v>
       </c>
       <c r="V24" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="W24" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="Z24" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC24">
         <v>0</v>
@@ -3209,16 +3284,19 @@
       <c r="AG24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:33">
+      <c r="AH24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>164</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="C25" t="s">
+        <v>179</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -3233,16 +3311,16 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J25" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="R25">
         <v>24</v>
       </c>
       <c r="S25" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T25">
         <v>13</v>
@@ -3251,13 +3329,13 @@
         <v>20</v>
       </c>
       <c r="V25" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="W25" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="Z25" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AC25">
         <v>0</v>
@@ -3274,16 +3352,19 @@
       <c r="AG25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:33">
+      <c r="AH25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>164</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="C26" t="s">
+        <v>179</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -3298,16 +3379,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J26" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="R26">
         <v>25</v>
       </c>
       <c r="S26" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T26">
         <v>13</v>
@@ -3316,13 +3397,13 @@
         <v>20</v>
       </c>
       <c r="V26" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="W26" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="Z26" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -3339,16 +3420,19 @@
       <c r="AG26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:33">
+      <c r="AH26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>164</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="C27" t="s">
+        <v>179</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -3363,16 +3447,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J27" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="R27">
         <v>26</v>
       </c>
       <c r="S27" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T27">
         <v>15</v>
@@ -3381,13 +3465,13 @@
         <v>22</v>
       </c>
       <c r="V27" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="W27" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Z27" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -3404,19 +3488,22 @@
       <c r="AG27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:33">
+      <c r="AH27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>170</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
+        <v>171</v>
+      </c>
+      <c r="C28" t="s">
+        <v>179</v>
+      </c>
+      <c r="D28" t="s">
+        <v>179</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -3428,16 +3515,16 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J28" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="R28">
         <v>27</v>
       </c>
       <c r="S28" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T28">
         <v>16</v>
@@ -3446,13 +3533,13 @@
         <v>25</v>
       </c>
       <c r="V28" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="W28" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="Z28" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC28">
         <v>0</v>
@@ -3469,19 +3556,22 @@
       <c r="AG28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:33">
+      <c r="AH28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>170</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
+        <v>171</v>
+      </c>
+      <c r="C29" t="s">
+        <v>179</v>
+      </c>
+      <c r="D29" t="s">
+        <v>179</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -3493,16 +3583,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J29" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="R29">
         <v>28</v>
       </c>
       <c r="S29" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T29">
         <v>16</v>
@@ -3511,13 +3601,13 @@
         <v>25</v>
       </c>
       <c r="V29" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="W29" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="Z29" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC29">
         <v>0</v>
@@ -3534,22 +3624,25 @@
       <c r="AG29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:33">
+      <c r="AH29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>165</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C30" t="s">
+        <v>179</v>
+      </c>
+      <c r="D30" t="s">
+        <v>179</v>
+      </c>
+      <c r="E30" t="s">
+        <v>179</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -3558,16 +3651,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J30" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="R30">
         <v>29</v>
       </c>
       <c r="S30" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T30">
         <v>16</v>
@@ -3576,13 +3669,13 @@
         <v>25</v>
       </c>
       <c r="V30" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="W30" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="Z30" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC30">
         <v>0</v>
@@ -3599,43 +3692,46 @@
       <c r="AG30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:33">
+      <c r="AH30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>171</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
+        <v>172</v>
+      </c>
+      <c r="C31" t="s">
+        <v>179</v>
+      </c>
+      <c r="D31" t="s">
+        <v>179</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31">
-        <v>1</v>
+      <c r="F31" t="s">
+        <v>179</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I31" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J31" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="R31">
         <v>30</v>
       </c>
       <c r="S31" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T31">
         <v>17</v>
@@ -3644,13 +3740,13 @@
         <v>26</v>
       </c>
       <c r="V31" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="W31" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="Z31" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC31">
         <v>0</v>
@@ -3667,16 +3763,19 @@
       <c r="AG31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:33">
+      <c r="AH31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>164</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="C32" t="s">
+        <v>179</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -3691,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J32" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="R32">
         <v>31</v>
       </c>
       <c r="S32" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T32">
         <v>18</v>
@@ -3709,13 +3808,13 @@
         <v>27</v>
       </c>
       <c r="V32" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="W32" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="Z32" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC32">
         <v>0</v>
@@ -3732,13 +3831,16 @@
       <c r="AG32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:33">
+      <c r="AH32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -3746,8 +3848,8 @@
       <c r="D33">
         <v>0</v>
       </c>
-      <c r="E33">
-        <v>1</v>
+      <c r="E33" t="s">
+        <v>179</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -3756,16 +3858,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J33" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="R33">
         <v>32</v>
       </c>
       <c r="S33" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T33">
         <v>19</v>
@@ -3774,13 +3876,13 @@
         <v>30</v>
       </c>
       <c r="V33" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="W33" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z33" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC33">
         <v>0</v>
@@ -3797,13 +3899,16 @@
       <c r="AG33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:33">
+      <c r="AH33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -3814,26 +3919,26 @@
       <c r="E34">
         <v>0</v>
       </c>
-      <c r="F34">
-        <v>1</v>
+      <c r="F34" t="s">
+        <v>179</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I34" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J34" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="R34">
         <v>33</v>
       </c>
       <c r="S34" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T34">
         <v>19</v>
@@ -3842,13 +3947,13 @@
         <v>30</v>
       </c>
       <c r="V34" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="W34" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z34" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC34">
         <v>0</v>
@@ -3865,13 +3970,16 @@
       <c r="AG34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:33">
+      <c r="AH34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -3882,26 +3990,26 @@
       <c r="E35">
         <v>0</v>
       </c>
-      <c r="F35">
-        <v>1</v>
+      <c r="F35" t="s">
+        <v>179</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I35" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J35" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="R35">
         <v>34</v>
       </c>
       <c r="S35" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T35">
         <v>19</v>
@@ -3910,13 +4018,13 @@
         <v>30</v>
       </c>
       <c r="V35" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="W35" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z35" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC35">
         <v>0</v>
@@ -3933,43 +4041,46 @@
       <c r="AG35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:33">
+      <c r="AH35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
-      <c r="D36">
-        <v>1</v>
+      <c r="D36" t="s">
+        <v>179</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
-      <c r="F36">
-        <v>1</v>
+      <c r="F36" t="s">
+        <v>179</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I36" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J36" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="R36">
         <v>35</v>
       </c>
       <c r="S36" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T36">
         <v>21</v>
@@ -3978,13 +4089,13 @@
         <v>34</v>
       </c>
       <c r="V36" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="W36" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="Z36" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC36">
         <v>0</v>
@@ -4001,22 +4112,25 @@
       <c r="AG36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:33">
+      <c r="AH36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B37" t="s">
-        <v>173</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
+        <v>174</v>
+      </c>
+      <c r="C37" t="s">
+        <v>179</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
-      <c r="E37">
-        <v>1</v>
+      <c r="E37" t="s">
+        <v>179</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -4025,16 +4139,16 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J37" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="R37">
         <v>36</v>
       </c>
       <c r="S37" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T37">
         <v>22</v>
@@ -4043,13 +4157,13 @@
         <v>37</v>
       </c>
       <c r="V37" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="W37" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z37" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC37">
         <v>0</v>
@@ -4066,22 +4180,25 @@
       <c r="AG37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:33">
+      <c r="AH37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
-        <v>173</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
+        <v>174</v>
+      </c>
+      <c r="C38" t="s">
+        <v>179</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
-      <c r="E38">
-        <v>1</v>
+      <c r="E38" t="s">
+        <v>179</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -4090,16 +4207,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J38" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="R38">
         <v>37</v>
       </c>
       <c r="S38" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T38">
         <v>22</v>
@@ -4108,13 +4225,13 @@
         <v>37</v>
       </c>
       <c r="V38" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="W38" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z38" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC38">
         <v>0</v>
@@ -4131,22 +4248,25 @@
       <c r="AG38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:33">
+      <c r="AH38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34">
       <c r="A39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B39" t="s">
-        <v>165</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C39" t="s">
+        <v>179</v>
+      </c>
+      <c r="D39" t="s">
+        <v>179</v>
+      </c>
+      <c r="E39" t="s">
+        <v>179</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -4155,16 +4275,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J39" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="R39">
         <v>38</v>
       </c>
       <c r="S39" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T39">
         <v>23</v>
@@ -4173,13 +4293,13 @@
         <v>38</v>
       </c>
       <c r="V39" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="W39" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z39" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC39">
         <v>0</v>
@@ -4196,22 +4316,25 @@
       <c r="AG39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:33">
+      <c r="AH39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B40" t="s">
-        <v>165</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C40" t="s">
+        <v>179</v>
+      </c>
+      <c r="D40" t="s">
+        <v>179</v>
+      </c>
+      <c r="E40" t="s">
+        <v>179</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -4220,16 +4343,16 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J40" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="R40">
         <v>39</v>
       </c>
       <c r="S40" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T40">
         <v>23</v>
@@ -4238,13 +4361,13 @@
         <v>38</v>
       </c>
       <c r="V40" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="W40" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z40" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC40">
         <v>0</v>
@@ -4261,22 +4384,25 @@
       <c r="AG40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:33">
+      <c r="AH40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B41" t="s">
-        <v>165</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C41" t="s">
+        <v>179</v>
+      </c>
+      <c r="D41" t="s">
+        <v>179</v>
+      </c>
+      <c r="E41" t="s">
+        <v>179</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -4285,16 +4411,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J41" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="R41">
         <v>40</v>
       </c>
       <c r="S41" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T41">
         <v>23</v>
@@ -4303,13 +4429,13 @@
         <v>38</v>
       </c>
       <c r="V41" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="W41" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z41" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC41">
         <v>0</v>
@@ -4326,22 +4452,25 @@
       <c r="AG41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:33">
+      <c r="AH41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B42" t="s">
-        <v>165</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C42" t="s">
+        <v>179</v>
+      </c>
+      <c r="D42" t="s">
+        <v>179</v>
+      </c>
+      <c r="E42" t="s">
+        <v>179</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -4350,16 +4479,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J42" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="R42">
         <v>41</v>
       </c>
       <c r="S42" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T42">
         <v>23</v>
@@ -4368,13 +4497,13 @@
         <v>38</v>
       </c>
       <c r="V42" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="W42" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z42" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC42">
         <v>0</v>
@@ -4391,22 +4520,25 @@
       <c r="AG42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:33">
+      <c r="AH42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B43" t="s">
-        <v>165</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C43" t="s">
+        <v>179</v>
+      </c>
+      <c r="D43" t="s">
+        <v>179</v>
+      </c>
+      <c r="E43" t="s">
+        <v>179</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -4415,16 +4547,16 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J43" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="R43">
         <v>42</v>
       </c>
       <c r="S43" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T43">
         <v>23</v>
@@ -4433,13 +4565,13 @@
         <v>38</v>
       </c>
       <c r="V43" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="W43" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z43" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC43">
         <v>0</v>
@@ -4456,22 +4588,25 @@
       <c r="AG43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:33">
+      <c r="AH43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B44" t="s">
-        <v>165</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C44" t="s">
+        <v>179</v>
+      </c>
+      <c r="D44" t="s">
+        <v>179</v>
+      </c>
+      <c r="E44" t="s">
+        <v>179</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -4480,16 +4615,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J44" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="R44">
         <v>43</v>
       </c>
       <c r="S44" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T44">
         <v>23</v>
@@ -4498,13 +4633,13 @@
         <v>38</v>
       </c>
       <c r="V44" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="W44" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z44" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC44">
         <v>0</v>
@@ -4521,22 +4656,25 @@
       <c r="AG44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:33">
+      <c r="AH44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B45" t="s">
-        <v>165</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C45" t="s">
+        <v>179</v>
+      </c>
+      <c r="D45" t="s">
+        <v>179</v>
+      </c>
+      <c r="E45" t="s">
+        <v>179</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -4545,16 +4683,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J45" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="R45">
         <v>44</v>
       </c>
       <c r="S45" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T45">
         <v>23</v>
@@ -4563,13 +4701,13 @@
         <v>38</v>
       </c>
       <c r="V45" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="W45" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z45" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC45">
         <v>0</v>
@@ -4586,22 +4724,25 @@
       <c r="AG45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:33">
+      <c r="AH45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B46" t="s">
-        <v>165</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C46" t="s">
+        <v>179</v>
+      </c>
+      <c r="D46" t="s">
+        <v>179</v>
+      </c>
+      <c r="E46" t="s">
+        <v>179</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -4610,16 +4751,16 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J46" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="R46">
         <v>45</v>
       </c>
       <c r="S46" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T46">
         <v>23</v>
@@ -4628,13 +4769,13 @@
         <v>38</v>
       </c>
       <c r="V46" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="W46" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z46" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC46">
         <v>0</v>
@@ -4651,22 +4792,25 @@
       <c r="AG46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:33">
+      <c r="AH46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B47" t="s">
-        <v>165</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C47" t="s">
+        <v>179</v>
+      </c>
+      <c r="D47" t="s">
+        <v>179</v>
+      </c>
+      <c r="E47" t="s">
+        <v>179</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -4675,16 +4819,16 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J47" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="R47">
         <v>46</v>
       </c>
       <c r="S47" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T47">
         <v>23</v>
@@ -4693,13 +4837,13 @@
         <v>38</v>
       </c>
       <c r="V47" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="W47" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z47" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC47">
         <v>0</v>
@@ -4716,22 +4860,25 @@
       <c r="AG47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:33">
+      <c r="AH47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34">
       <c r="A48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B48" t="s">
-        <v>165</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C48" t="s">
+        <v>179</v>
+      </c>
+      <c r="D48" t="s">
+        <v>179</v>
+      </c>
+      <c r="E48" t="s">
+        <v>179</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -4740,16 +4887,16 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J48" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="R48">
         <v>47</v>
       </c>
       <c r="S48" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T48">
         <v>23</v>
@@ -4758,13 +4905,13 @@
         <v>38</v>
       </c>
       <c r="V48" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="W48" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z48" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC48">
         <v>0</v>
@@ -4781,22 +4928,25 @@
       <c r="AG48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:33">
+      <c r="AH48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34">
       <c r="A49" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B49" t="s">
-        <v>165</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C49" t="s">
+        <v>179</v>
+      </c>
+      <c r="D49" t="s">
+        <v>179</v>
+      </c>
+      <c r="E49" t="s">
+        <v>179</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -4805,16 +4955,16 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J49" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="R49">
         <v>48</v>
       </c>
       <c r="S49" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T49">
         <v>23</v>
@@ -4823,13 +4973,13 @@
         <v>38</v>
       </c>
       <c r="V49" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="W49" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z49" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC49">
         <v>0</v>
@@ -4846,43 +4996,46 @@
       <c r="AG49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:33">
+      <c r="AH49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34">
       <c r="A50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B50" t="s">
-        <v>174</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
+        <v>175</v>
+      </c>
+      <c r="C50" t="s">
+        <v>179</v>
+      </c>
+      <c r="D50" t="s">
+        <v>179</v>
+      </c>
+      <c r="E50" t="s">
+        <v>179</v>
+      </c>
+      <c r="F50" t="s">
+        <v>179</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I50" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J50" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="R50">
         <v>49</v>
       </c>
       <c r="S50" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T50">
         <v>24</v>
@@ -4891,13 +5044,13 @@
         <v>51</v>
       </c>
       <c r="V50" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="W50" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z50" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AC50">
         <v>0</v>
@@ -4914,43 +5067,46 @@
       <c r="AG50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:33">
+      <c r="AH50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34">
       <c r="A51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B51" t="s">
-        <v>174</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
+        <v>175</v>
+      </c>
+      <c r="C51" t="s">
+        <v>179</v>
+      </c>
+      <c r="D51" t="s">
+        <v>179</v>
+      </c>
+      <c r="E51" t="s">
+        <v>179</v>
+      </c>
+      <c r="F51" t="s">
+        <v>179</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I51" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J51" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="R51">
         <v>50</v>
       </c>
       <c r="S51" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T51">
         <v>24</v>
@@ -4959,13 +5115,13 @@
         <v>51</v>
       </c>
       <c r="V51" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="W51" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z51" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AC51">
         <v>0</v>
@@ -4982,43 +5138,46 @@
       <c r="AG51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:33">
+      <c r="AH51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34">
       <c r="A52" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B52" t="s">
-        <v>174</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
+        <v>175</v>
+      </c>
+      <c r="C52" t="s">
+        <v>179</v>
+      </c>
+      <c r="D52" t="s">
+        <v>179</v>
+      </c>
+      <c r="E52" t="s">
+        <v>179</v>
+      </c>
+      <c r="F52" t="s">
+        <v>179</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I52" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J52" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="R52">
         <v>51</v>
       </c>
       <c r="S52" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T52">
         <v>24</v>
@@ -5027,13 +5186,13 @@
         <v>51</v>
       </c>
       <c r="V52" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="W52" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z52" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AC52">
         <v>0</v>
@@ -5050,19 +5209,22 @@
       <c r="AG52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:33">
+      <c r="AH52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34">
       <c r="A53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B53" t="s">
-        <v>170</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
+        <v>171</v>
+      </c>
+      <c r="C53" t="s">
+        <v>179</v>
+      </c>
+      <c r="D53" t="s">
+        <v>179</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -5074,16 +5236,16 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J53" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="R53">
         <v>52</v>
       </c>
       <c r="S53" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T53">
         <v>25</v>
@@ -5092,13 +5254,13 @@
         <v>52</v>
       </c>
       <c r="V53" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="W53" s="2">
         <v>45033.79946759259</v>
       </c>
       <c r="Z53" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC53">
         <v>0</v>
@@ -5115,22 +5277,25 @@
       <c r="AG53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:33">
+      <c r="AH53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34">
       <c r="A54" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B54" t="s">
-        <v>165</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C54" t="s">
+        <v>179</v>
+      </c>
+      <c r="D54" t="s">
+        <v>179</v>
+      </c>
+      <c r="E54" t="s">
+        <v>179</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -5139,16 +5304,16 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J54" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="R54">
         <v>53</v>
       </c>
       <c r="S54" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T54">
         <v>26</v>
@@ -5157,13 +5322,13 @@
         <v>55</v>
       </c>
       <c r="V54" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="W54" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="Z54" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC54">
         <v>0</v>
@@ -5180,43 +5345,46 @@
       <c r="AG54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:33">
+      <c r="AH54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34">
       <c r="A55" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B55" t="s">
-        <v>174</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
+        <v>175</v>
+      </c>
+      <c r="C55" t="s">
+        <v>179</v>
+      </c>
+      <c r="D55" t="s">
+        <v>179</v>
+      </c>
+      <c r="E55" t="s">
+        <v>179</v>
+      </c>
+      <c r="F55" t="s">
+        <v>179</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I55" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J55" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="R55">
         <v>54</v>
       </c>
       <c r="S55" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T55">
         <v>27</v>
@@ -5225,13 +5393,13 @@
         <v>56</v>
       </c>
       <c r="V55" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="W55" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="Z55" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC55">
         <v>0</v>
@@ -5248,19 +5416,22 @@
       <c r="AG55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:33">
+      <c r="AH55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34">
       <c r="A56" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B56" t="s">
-        <v>170</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
+        <v>171</v>
+      </c>
+      <c r="C56" t="s">
+        <v>179</v>
+      </c>
+      <c r="D56" t="s">
+        <v>179</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -5272,16 +5443,16 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J56" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="R56">
         <v>55</v>
       </c>
       <c r="S56" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T56">
         <v>28</v>
@@ -5290,13 +5461,13 @@
         <v>57</v>
       </c>
       <c r="V56" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="W56" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Z56" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC56">
         <v>0</v>
@@ -5313,19 +5484,22 @@
       <c r="AG56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:33">
+      <c r="AH56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34">
       <c r="A57" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B57" t="s">
-        <v>170</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
+        <v>171</v>
+      </c>
+      <c r="C57" t="s">
+        <v>179</v>
+      </c>
+      <c r="D57" t="s">
+        <v>179</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -5337,16 +5511,16 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J57" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="R57">
         <v>56</v>
       </c>
       <c r="S57" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T57">
         <v>28</v>
@@ -5355,13 +5529,13 @@
         <v>57</v>
       </c>
       <c r="V57" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="W57" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Z57" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC57">
         <v>0</v>
@@ -5378,19 +5552,22 @@
       <c r="AG57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:33">
+      <c r="AH57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34">
       <c r="A58" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B58" t="s">
-        <v>170</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
+        <v>171</v>
+      </c>
+      <c r="C58" t="s">
+        <v>179</v>
+      </c>
+      <c r="D58" t="s">
+        <v>179</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -5402,16 +5579,16 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J58" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="R58">
         <v>57</v>
       </c>
       <c r="S58" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T58">
         <v>28</v>
@@ -5420,13 +5597,13 @@
         <v>57</v>
       </c>
       <c r="V58" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="W58" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Z58" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC58">
         <v>0</v>
@@ -5443,22 +5620,25 @@
       <c r="AG58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:33">
+      <c r="AH58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34">
       <c r="A59" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B59" t="s">
-        <v>165</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C59" t="s">
+        <v>179</v>
+      </c>
+      <c r="D59" t="s">
+        <v>179</v>
+      </c>
+      <c r="E59" t="s">
+        <v>179</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -5467,16 +5647,16 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J59" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="R59">
         <v>58</v>
       </c>
       <c r="S59" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T59">
         <v>28</v>
@@ -5485,13 +5665,13 @@
         <v>57</v>
       </c>
       <c r="V59" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="W59" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Z59" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC59">
         <v>0</v>
@@ -5508,22 +5688,25 @@
       <c r="AG59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:33">
+      <c r="AH59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34">
       <c r="A60" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B60" t="s">
-        <v>165</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C60" t="s">
+        <v>179</v>
+      </c>
+      <c r="D60" t="s">
+        <v>179</v>
+      </c>
+      <c r="E60" t="s">
+        <v>179</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -5532,16 +5715,16 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J60" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="R60">
         <v>59</v>
       </c>
       <c r="S60" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T60">
         <v>29</v>
@@ -5550,13 +5733,13 @@
         <v>58</v>
       </c>
       <c r="V60" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="W60" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="Z60" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC60">
         <v>0</v>
@@ -5573,22 +5756,25 @@
       <c r="AG60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:33">
+      <c r="AH60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34">
       <c r="A61" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B61" t="s">
-        <v>165</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C61" t="s">
+        <v>179</v>
+      </c>
+      <c r="D61" t="s">
+        <v>179</v>
+      </c>
+      <c r="E61" t="s">
+        <v>179</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -5597,16 +5783,16 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J61" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="R61">
         <v>60</v>
       </c>
       <c r="S61" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T61">
         <v>30</v>
@@ -5615,13 +5801,13 @@
         <v>59</v>
       </c>
       <c r="V61" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="W61" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z61" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC61">
         <v>0</v>
@@ -5638,22 +5824,25 @@
       <c r="AG61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:33">
+      <c r="AH61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34">
       <c r="A62" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B62" t="s">
-        <v>165</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C62" t="s">
+        <v>179</v>
+      </c>
+      <c r="D62" t="s">
+        <v>179</v>
+      </c>
+      <c r="E62" t="s">
+        <v>179</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -5662,16 +5851,16 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J62" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="R62">
         <v>61</v>
       </c>
       <c r="S62" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T62">
         <v>31</v>
@@ -5680,13 +5869,13 @@
         <v>60</v>
       </c>
       <c r="V62" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="W62" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="Z62" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC62">
         <v>0</v>
@@ -5703,22 +5892,25 @@
       <c r="AG62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:33">
+      <c r="AH62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34">
       <c r="A63" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B63" t="s">
-        <v>165</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C63" t="s">
+        <v>179</v>
+      </c>
+      <c r="D63" t="s">
+        <v>179</v>
+      </c>
+      <c r="E63" t="s">
+        <v>179</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -5727,16 +5919,16 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J63" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="R63">
         <v>62</v>
       </c>
       <c r="S63" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T63">
         <v>31</v>
@@ -5745,13 +5937,13 @@
         <v>60</v>
       </c>
       <c r="V63" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="W63" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="Z63" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC63">
         <v>0</v>
@@ -5768,22 +5960,25 @@
       <c r="AG63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:33">
+      <c r="AH63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34">
       <c r="A64" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B64" t="s">
-        <v>165</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C64" t="s">
+        <v>179</v>
+      </c>
+      <c r="D64" t="s">
+        <v>179</v>
+      </c>
+      <c r="E64" t="s">
+        <v>179</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -5792,16 +5987,16 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J64" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="R64">
         <v>63</v>
       </c>
       <c r="S64" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T64">
         <v>32</v>
@@ -5810,13 +6005,13 @@
         <v>61</v>
       </c>
       <c r="V64" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="W64" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Z64" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC64">
         <v>0</v>
@@ -5833,22 +6028,25 @@
       <c r="AG64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:33">
+      <c r="AH64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34">
       <c r="A65" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B65" t="s">
-        <v>165</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C65" t="s">
+        <v>179</v>
+      </c>
+      <c r="D65" t="s">
+        <v>179</v>
+      </c>
+      <c r="E65" t="s">
+        <v>179</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -5857,16 +6055,16 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J65" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="R65">
         <v>64</v>
       </c>
       <c r="S65" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T65">
         <v>33</v>
@@ -5875,13 +6073,13 @@
         <v>63</v>
       </c>
       <c r="V65" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="W65" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z65" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC65">
         <v>0</v>
@@ -5898,22 +6096,25 @@
       <c r="AG65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:33">
+      <c r="AH65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34">
       <c r="A66" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B66" t="s">
-        <v>165</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C66" t="s">
+        <v>179</v>
+      </c>
+      <c r="D66" t="s">
+        <v>179</v>
+      </c>
+      <c r="E66" t="s">
+        <v>179</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -5922,16 +6123,16 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J66" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="R66">
         <v>65</v>
       </c>
       <c r="S66" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T66">
         <v>33</v>
@@ -5940,13 +6141,13 @@
         <v>63</v>
       </c>
       <c r="V66" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="W66" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z66" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC66">
         <v>0</v>
@@ -5963,22 +6164,25 @@
       <c r="AG66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:33">
+      <c r="AH66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:34">
       <c r="A67" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B67" t="s">
-        <v>165</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C67" t="s">
+        <v>179</v>
+      </c>
+      <c r="D67" t="s">
+        <v>179</v>
+      </c>
+      <c r="E67" t="s">
+        <v>179</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -5987,16 +6191,16 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J67" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="R67">
         <v>66</v>
       </c>
       <c r="S67" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T67">
         <v>33</v>
@@ -6005,13 +6209,13 @@
         <v>63</v>
       </c>
       <c r="V67" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="W67" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z67" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC67">
         <v>0</v>
@@ -6028,22 +6232,25 @@
       <c r="AG67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:33">
+      <c r="AH67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34">
       <c r="A68" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B68" t="s">
-        <v>165</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C68" t="s">
+        <v>179</v>
+      </c>
+      <c r="D68" t="s">
+        <v>179</v>
+      </c>
+      <c r="E68" t="s">
+        <v>179</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -6052,16 +6259,16 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J68" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="R68">
         <v>67</v>
       </c>
       <c r="S68" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T68">
         <v>33</v>
@@ -6070,13 +6277,13 @@
         <v>63</v>
       </c>
       <c r="V68" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="W68" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z68" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC68">
         <v>0</v>
@@ -6093,22 +6300,25 @@
       <c r="AG68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:33">
+      <c r="AH68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34">
       <c r="A69" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B69" t="s">
-        <v>165</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C69" t="s">
+        <v>179</v>
+      </c>
+      <c r="D69" t="s">
+        <v>179</v>
+      </c>
+      <c r="E69" t="s">
+        <v>179</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -6117,16 +6327,16 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J69" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="R69">
         <v>68</v>
       </c>
       <c r="S69" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T69">
         <v>33</v>
@@ -6135,13 +6345,13 @@
         <v>63</v>
       </c>
       <c r="V69" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="W69" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z69" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC69">
         <v>0</v>
@@ -6158,22 +6368,25 @@
       <c r="AG69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:33">
+      <c r="AH69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34">
       <c r="A70" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B70" t="s">
-        <v>165</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C70" t="s">
+        <v>179</v>
+      </c>
+      <c r="D70" t="s">
+        <v>179</v>
+      </c>
+      <c r="E70" t="s">
+        <v>179</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -6182,16 +6395,16 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J70" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="R70">
         <v>69</v>
       </c>
       <c r="S70" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T70">
         <v>33</v>
@@ -6200,13 +6413,13 @@
         <v>63</v>
       </c>
       <c r="V70" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="W70" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z70" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC70">
         <v>0</v>
@@ -6223,22 +6436,25 @@
       <c r="AG70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:33">
+      <c r="AH70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34">
       <c r="A71" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B71" t="s">
-        <v>173</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
+        <v>174</v>
+      </c>
+      <c r="C71" t="s">
+        <v>179</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
-      <c r="E71">
-        <v>1</v>
+      <c r="E71" t="s">
+        <v>179</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -6247,16 +6463,16 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J71" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="R71">
         <v>70</v>
       </c>
       <c r="S71" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T71">
         <v>34</v>
@@ -6265,13 +6481,13 @@
         <v>64</v>
       </c>
       <c r="V71" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="W71" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="Z71" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC71">
         <v>0</v>
@@ -6288,13 +6504,16 @@
       <c r="AG71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:33">
+      <c r="AH71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:34">
       <c r="A72" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B72" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -6305,26 +6524,26 @@
       <c r="E72">
         <v>0</v>
       </c>
-      <c r="F72">
-        <v>1</v>
+      <c r="F72" t="s">
+        <v>179</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I72" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J72" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="R72">
         <v>71</v>
       </c>
       <c r="S72" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T72">
         <v>36</v>
@@ -6333,13 +6552,13 @@
         <v>77</v>
       </c>
       <c r="V72" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="W72" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z72" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC72">
         <v>0</v>
@@ -6356,13 +6575,16 @@
       <c r="AG72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:33">
+      <c r="AH72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:34">
       <c r="A73" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B73" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -6370,8 +6592,8 @@
       <c r="D73">
         <v>0</v>
       </c>
-      <c r="E73">
-        <v>1</v>
+      <c r="E73" t="s">
+        <v>179</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -6380,16 +6602,16 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J73" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="R73">
         <v>72</v>
       </c>
       <c r="S73" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T73">
         <v>36</v>
@@ -6398,13 +6620,13 @@
         <v>77</v>
       </c>
       <c r="V73" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="W73" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z73" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC73">
         <v>0</v>
@@ -6421,13 +6643,16 @@
       <c r="AG73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:33">
+      <c r="AH73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:34">
       <c r="A74" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B74" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -6435,8 +6660,8 @@
       <c r="D74">
         <v>0</v>
       </c>
-      <c r="E74">
-        <v>1</v>
+      <c r="E74" t="s">
+        <v>179</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -6445,16 +6670,16 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J74" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="R74">
         <v>73</v>
       </c>
       <c r="S74" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T74">
         <v>36</v>
@@ -6463,13 +6688,13 @@
         <v>77</v>
       </c>
       <c r="V74" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="W74" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z74" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC74">
         <v>0</v>
@@ -6486,13 +6711,16 @@
       <c r="AG74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:33">
+      <c r="AH74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:34">
       <c r="A75" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B75" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -6503,26 +6731,26 @@
       <c r="E75">
         <v>0</v>
       </c>
-      <c r="F75">
-        <v>1</v>
+      <c r="F75" t="s">
+        <v>179</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I75" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J75" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="R75">
         <v>74</v>
       </c>
       <c r="S75" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T75">
         <v>37</v>
@@ -6531,13 +6759,13 @@
         <v>78</v>
       </c>
       <c r="V75" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="W75" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="Z75" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC75">
         <v>0</v>
@@ -6554,16 +6782,19 @@
       <c r="AG75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:33">
+      <c r="AH75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:34">
       <c r="A76" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B76" t="s">
-        <v>164</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="C76" t="s">
+        <v>179</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -6578,16 +6809,16 @@
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J76" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="R76">
         <v>75</v>
       </c>
       <c r="S76" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T76">
         <v>38</v>
@@ -6596,13 +6827,13 @@
         <v>80</v>
       </c>
       <c r="V76" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="W76" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="Z76" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC76">
         <v>0</v>
@@ -6619,22 +6850,25 @@
       <c r="AG76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:33">
+      <c r="AH76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:34">
       <c r="A77" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B77" t="s">
-        <v>165</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="E77">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C77" t="s">
+        <v>179</v>
+      </c>
+      <c r="D77" t="s">
+        <v>179</v>
+      </c>
+      <c r="E77" t="s">
+        <v>179</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -6643,16 +6877,16 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J77" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="R77">
         <v>76</v>
       </c>
       <c r="S77" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T77">
         <v>39</v>
@@ -6661,13 +6895,13 @@
         <v>81</v>
       </c>
       <c r="V77" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="W77" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z77" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC77">
         <v>0</v>
@@ -6684,43 +6918,46 @@
       <c r="AG77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:33">
+      <c r="AH77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:34">
       <c r="A78" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B78" t="s">
-        <v>174</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="F78">
-        <v>1</v>
+        <v>175</v>
+      </c>
+      <c r="C78" t="s">
+        <v>179</v>
+      </c>
+      <c r="D78" t="s">
+        <v>179</v>
+      </c>
+      <c r="E78" t="s">
+        <v>179</v>
+      </c>
+      <c r="F78" t="s">
+        <v>179</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I78" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J78" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="R78">
         <v>77</v>
       </c>
       <c r="S78" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T78">
         <v>40</v>
@@ -6729,13 +6966,13 @@
         <v>82</v>
       </c>
       <c r="V78" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="W78" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="Z78" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC78">
         <v>0</v>
@@ -6752,22 +6989,25 @@
       <c r="AG78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:33">
+      <c r="AH78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:34">
       <c r="A79" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B79" t="s">
-        <v>165</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-      <c r="E79">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C79" t="s">
+        <v>179</v>
+      </c>
+      <c r="D79" t="s">
+        <v>179</v>
+      </c>
+      <c r="E79" t="s">
+        <v>179</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -6776,16 +7016,16 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J79" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="R79">
         <v>78</v>
       </c>
       <c r="S79" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T79">
         <v>42</v>
@@ -6794,13 +7034,13 @@
         <v>84</v>
       </c>
       <c r="V79" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="W79" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="Z79" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC79">
         <v>0</v>
@@ -6817,43 +7057,46 @@
       <c r="AG79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:33">
+      <c r="AH79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:34">
       <c r="A80" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B80" t="s">
-        <v>174</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="F80">
-        <v>1</v>
+        <v>175</v>
+      </c>
+      <c r="C80" t="s">
+        <v>179</v>
+      </c>
+      <c r="D80" t="s">
+        <v>179</v>
+      </c>
+      <c r="E80" t="s">
+        <v>179</v>
+      </c>
+      <c r="F80" t="s">
+        <v>179</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I80" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J80" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="R80">
         <v>79</v>
       </c>
       <c r="S80" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T80">
         <v>44</v>
@@ -6862,13 +7105,13 @@
         <v>87</v>
       </c>
       <c r="V80" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="W80" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z80" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC80">
         <v>0</v>
@@ -6885,43 +7128,46 @@
       <c r="AG80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:33">
+      <c r="AH80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:34">
       <c r="A81" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B81" t="s">
-        <v>174</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81">
-        <v>1</v>
+        <v>175</v>
+      </c>
+      <c r="C81" t="s">
+        <v>179</v>
+      </c>
+      <c r="D81" t="s">
+        <v>179</v>
+      </c>
+      <c r="E81" t="s">
+        <v>179</v>
+      </c>
+      <c r="F81" t="s">
+        <v>179</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I81" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J81" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="R81">
         <v>80</v>
       </c>
       <c r="S81" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T81">
         <v>44</v>
@@ -6930,13 +7176,13 @@
         <v>87</v>
       </c>
       <c r="V81" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="W81" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z81" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC81">
         <v>0</v>
@@ -6953,43 +7199,46 @@
       <c r="AG81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:33">
+      <c r="AH81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:34">
       <c r="A82" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B82" t="s">
-        <v>174</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-      <c r="F82">
-        <v>1</v>
+        <v>175</v>
+      </c>
+      <c r="C82" t="s">
+        <v>179</v>
+      </c>
+      <c r="D82" t="s">
+        <v>179</v>
+      </c>
+      <c r="E82" t="s">
+        <v>179</v>
+      </c>
+      <c r="F82" t="s">
+        <v>179</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I82" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J82" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="R82">
         <v>81</v>
       </c>
       <c r="S82" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T82">
         <v>44</v>
@@ -6998,13 +7247,13 @@
         <v>87</v>
       </c>
       <c r="V82" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="W82" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z82" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC82">
         <v>0</v>
@@ -7021,43 +7270,46 @@
       <c r="AG82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:33">
+      <c r="AH82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:34">
       <c r="A83" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B83" t="s">
-        <v>174</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83">
-        <v>1</v>
-      </c>
-      <c r="F83">
-        <v>1</v>
+        <v>175</v>
+      </c>
+      <c r="C83" t="s">
+        <v>179</v>
+      </c>
+      <c r="D83" t="s">
+        <v>179</v>
+      </c>
+      <c r="E83" t="s">
+        <v>179</v>
+      </c>
+      <c r="F83" t="s">
+        <v>179</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I83" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J83" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="R83">
         <v>82</v>
       </c>
       <c r="S83" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T83">
         <v>44</v>
@@ -7066,13 +7318,13 @@
         <v>87</v>
       </c>
       <c r="V83" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="W83" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z83" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC83">
         <v>0</v>
@@ -7089,43 +7341,46 @@
       <c r="AG83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:33">
+      <c r="AH83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:34">
       <c r="A84" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B84" t="s">
-        <v>174</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84">
-        <v>1</v>
-      </c>
-      <c r="F84">
-        <v>1</v>
+        <v>175</v>
+      </c>
+      <c r="C84" t="s">
+        <v>179</v>
+      </c>
+      <c r="D84" t="s">
+        <v>179</v>
+      </c>
+      <c r="E84" t="s">
+        <v>179</v>
+      </c>
+      <c r="F84" t="s">
+        <v>179</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I84" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J84" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="R84">
         <v>83</v>
       </c>
       <c r="S84" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T84">
         <v>44</v>
@@ -7134,13 +7389,13 @@
         <v>87</v>
       </c>
       <c r="V84" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="W84" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z84" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC84">
         <v>0</v>
@@ -7157,19 +7412,22 @@
       <c r="AG84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:33">
+      <c r="AH84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:34">
       <c r="A85" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B85" t="s">
-        <v>170</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85">
-        <v>1</v>
+        <v>171</v>
+      </c>
+      <c r="C85" t="s">
+        <v>179</v>
+      </c>
+      <c r="D85" t="s">
+        <v>179</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -7181,16 +7439,16 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J85" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="R85">
         <v>84</v>
       </c>
       <c r="S85" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T85">
         <v>44</v>
@@ -7199,13 +7457,13 @@
         <v>87</v>
       </c>
       <c r="V85" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="W85" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z85" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC85">
         <v>0</v>
@@ -7222,19 +7480,22 @@
       <c r="AG85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:33">
+      <c r="AH85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:34">
       <c r="A86" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B86" t="s">
-        <v>170</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86">
-        <v>1</v>
+        <v>171</v>
+      </c>
+      <c r="C86" t="s">
+        <v>179</v>
+      </c>
+      <c r="D86" t="s">
+        <v>179</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -7246,16 +7507,16 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J86" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="R86">
         <v>85</v>
       </c>
       <c r="S86" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T86">
         <v>44</v>
@@ -7264,13 +7525,13 @@
         <v>87</v>
       </c>
       <c r="V86" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="W86" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z86" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC86">
         <v>0</v>
@@ -7287,13 +7548,16 @@
       <c r="AG86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:33">
+      <c r="AH86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:34">
       <c r="A87" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B87" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -7304,26 +7568,26 @@
       <c r="E87">
         <v>0</v>
       </c>
-      <c r="F87">
-        <v>1</v>
+      <c r="F87" t="s">
+        <v>179</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I87" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J87" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="R87">
         <v>86</v>
       </c>
       <c r="S87" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T87">
         <v>45</v>
@@ -7332,13 +7596,13 @@
         <v>88</v>
       </c>
       <c r="V87" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="W87" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Z87" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AC87">
         <v>0</v>
@@ -7355,13 +7619,16 @@
       <c r="AG87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:33">
+      <c r="AH87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:34">
       <c r="A88" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B88" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -7375,20 +7642,20 @@
       <c r="F88">
         <v>0</v>
       </c>
-      <c r="G88">
-        <v>1</v>
+      <c r="G88" t="s">
+        <v>179</v>
       </c>
       <c r="I88" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J88" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="R88">
         <v>87</v>
       </c>
       <c r="S88" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T88">
         <v>45</v>
@@ -7397,13 +7664,13 @@
         <v>88</v>
       </c>
       <c r="V88" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="W88" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Z88" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AC88">
         <v>0</v>
@@ -7420,19 +7687,22 @@
       <c r="AG88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:33">
+      <c r="AH88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:34">
       <c r="A89" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B89" t="s">
-        <v>170</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89">
-        <v>1</v>
+        <v>171</v>
+      </c>
+      <c r="C89" t="s">
+        <v>179</v>
+      </c>
+      <c r="D89" t="s">
+        <v>179</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -7444,16 +7714,16 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J89" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="R89">
         <v>88</v>
       </c>
       <c r="S89" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T89">
         <v>46</v>
@@ -7462,13 +7732,13 @@
         <v>90</v>
       </c>
       <c r="V89" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="W89" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z89" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC89">
         <v>0</v>
@@ -7485,22 +7755,25 @@
       <c r="AG89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:33">
+      <c r="AH89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:34">
       <c r="A90" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B90" t="s">
-        <v>165</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
-      <c r="E90">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C90" t="s">
+        <v>179</v>
+      </c>
+      <c r="D90" t="s">
+        <v>179</v>
+      </c>
+      <c r="E90" t="s">
+        <v>179</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -7509,16 +7782,16 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J90" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="R90">
         <v>89</v>
       </c>
       <c r="S90" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T90">
         <v>46</v>
@@ -7527,13 +7800,13 @@
         <v>90</v>
       </c>
       <c r="V90" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="W90" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z90" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC90">
         <v>0</v>
@@ -7550,22 +7823,25 @@
       <c r="AG90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:33">
+      <c r="AH90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:34">
       <c r="A91" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B91" t="s">
-        <v>165</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91">
-        <v>1</v>
-      </c>
-      <c r="E91">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C91" t="s">
+        <v>179</v>
+      </c>
+      <c r="D91" t="s">
+        <v>179</v>
+      </c>
+      <c r="E91" t="s">
+        <v>179</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -7574,16 +7850,16 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J91" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="R91">
         <v>90</v>
       </c>
       <c r="S91" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T91">
         <v>46</v>
@@ -7592,13 +7868,13 @@
         <v>90</v>
       </c>
       <c r="V91" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="W91" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z91" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC91">
         <v>0</v>
@@ -7615,22 +7891,25 @@
       <c r="AG91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:33">
+      <c r="AH91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:34">
       <c r="A92" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B92" t="s">
-        <v>165</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
-      <c r="E92">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C92" t="s">
+        <v>179</v>
+      </c>
+      <c r="D92" t="s">
+        <v>179</v>
+      </c>
+      <c r="E92" t="s">
+        <v>179</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -7639,16 +7918,16 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J92" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="R92">
         <v>91</v>
       </c>
       <c r="S92" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T92">
         <v>47</v>
@@ -7657,13 +7936,13 @@
         <v>91</v>
       </c>
       <c r="V92" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="W92" s="2">
         <v>45043.91625</v>
       </c>
       <c r="Z92" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC92">
         <v>0</v>
@@ -7680,22 +7959,25 @@
       <c r="AG92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:33">
+      <c r="AH92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:34">
       <c r="A93" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B93" t="s">
-        <v>165</v>
-      </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-      <c r="E93">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C93" t="s">
+        <v>179</v>
+      </c>
+      <c r="D93" t="s">
+        <v>179</v>
+      </c>
+      <c r="E93" t="s">
+        <v>179</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -7704,16 +7986,16 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J93" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="R93">
         <v>92</v>
       </c>
       <c r="S93" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T93">
         <v>48</v>
@@ -7722,13 +8004,13 @@
         <v>92</v>
       </c>
       <c r="V93" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="W93" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="Z93" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC93">
         <v>0</v>
@@ -7745,22 +8027,25 @@
       <c r="AG93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:33">
+      <c r="AH93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:34">
       <c r="A94" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B94" t="s">
-        <v>165</v>
-      </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
-      <c r="E94">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C94" t="s">
+        <v>179</v>
+      </c>
+      <c r="D94" t="s">
+        <v>179</v>
+      </c>
+      <c r="E94" t="s">
+        <v>179</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -7769,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J94" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="R94">
         <v>93</v>
       </c>
       <c r="S94" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T94">
         <v>48</v>
@@ -7787,13 +8072,13 @@
         <v>92</v>
       </c>
       <c r="V94" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="W94" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="Z94" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC94">
         <v>0</v>
@@ -7810,13 +8095,16 @@
       <c r="AG94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:33">
+      <c r="AH94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:34">
       <c r="A95" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B95" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -7827,26 +8115,26 @@
       <c r="E95">
         <v>0</v>
       </c>
-      <c r="F95">
-        <v>1</v>
+      <c r="F95" t="s">
+        <v>179</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I95" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J95" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="R95">
         <v>94</v>
       </c>
       <c r="S95" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T95">
         <v>49</v>
@@ -7855,13 +8143,13 @@
         <v>93</v>
       </c>
       <c r="V95" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="W95" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Z95" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC95">
         <v>0</v>
@@ -7878,13 +8166,16 @@
       <c r="AG95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:33">
+      <c r="AH95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:34">
       <c r="A96" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B96" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -7895,26 +8186,26 @@
       <c r="E96">
         <v>0</v>
       </c>
-      <c r="F96">
-        <v>1</v>
+      <c r="F96" t="s">
+        <v>179</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I96" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J96" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="R96">
         <v>95</v>
       </c>
       <c r="S96" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T96">
         <v>49</v>
@@ -7923,13 +8214,13 @@
         <v>93</v>
       </c>
       <c r="V96" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="W96" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Z96" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC96">
         <v>0</v>
@@ -7946,13 +8237,16 @@
       <c r="AG96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:33">
+      <c r="AH96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:34">
       <c r="A97" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B97" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -7960,29 +8254,29 @@
       <c r="D97">
         <v>0</v>
       </c>
-      <c r="E97">
-        <v>1</v>
-      </c>
-      <c r="F97">
-        <v>1</v>
+      <c r="E97" t="s">
+        <v>179</v>
+      </c>
+      <c r="F97" t="s">
+        <v>179</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I97" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J97" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="R97">
         <v>96</v>
       </c>
       <c r="S97" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T97">
         <v>50</v>
@@ -7991,13 +8285,13 @@
         <v>94</v>
       </c>
       <c r="V97" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="W97" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="Z97" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC97">
         <v>0</v>
@@ -8014,43 +8308,46 @@
       <c r="AG97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:33">
+      <c r="AH97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:34">
       <c r="A98" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B98" t="s">
-        <v>174</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-      <c r="E98">
-        <v>1</v>
-      </c>
-      <c r="F98">
-        <v>1</v>
+        <v>175</v>
+      </c>
+      <c r="C98" t="s">
+        <v>179</v>
+      </c>
+      <c r="D98" t="s">
+        <v>179</v>
+      </c>
+      <c r="E98" t="s">
+        <v>179</v>
+      </c>
+      <c r="F98" t="s">
+        <v>179</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I98" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J98" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="R98">
         <v>97</v>
       </c>
       <c r="S98" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T98">
         <v>51</v>
@@ -8059,13 +8356,13 @@
         <v>95</v>
       </c>
       <c r="V98" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="W98" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z98" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC98">
         <v>0</v>
@@ -8082,19 +8379,22 @@
       <c r="AG98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:33">
+      <c r="AH98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:34">
       <c r="A99" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B99" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
-      <c r="D99">
-        <v>1</v>
+      <c r="D99" t="s">
+        <v>179</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -8106,16 +8406,16 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J99" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="R99">
         <v>98</v>
       </c>
       <c r="S99" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T99">
         <v>53</v>
@@ -8124,13 +8424,13 @@
         <v>98</v>
       </c>
       <c r="V99" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="W99" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="Z99" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AC99">
         <v>0</v>
@@ -8147,22 +8447,25 @@
       <c r="AG99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:33">
+      <c r="AH99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:34">
       <c r="A100" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B100" t="s">
-        <v>165</v>
-      </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
-      <c r="E100">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C100" t="s">
+        <v>179</v>
+      </c>
+      <c r="D100" t="s">
+        <v>179</v>
+      </c>
+      <c r="E100" t="s">
+        <v>179</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -8171,16 +8474,16 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J100" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="R100">
         <v>99</v>
       </c>
       <c r="S100" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T100">
         <v>54</v>
@@ -8189,13 +8492,13 @@
         <v>99</v>
       </c>
       <c r="V100" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="W100" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z100" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC100">
         <v>0</v>
@@ -8212,22 +8515,25 @@
       <c r="AG100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:33">
+      <c r="AH100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:34">
       <c r="A101" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B101" t="s">
-        <v>165</v>
-      </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-      <c r="E101">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C101" t="s">
+        <v>179</v>
+      </c>
+      <c r="D101" t="s">
+        <v>179</v>
+      </c>
+      <c r="E101" t="s">
+        <v>179</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -8236,16 +8542,16 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J101" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="R101">
         <v>100</v>
       </c>
       <c r="S101" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T101">
         <v>54</v>
@@ -8254,13 +8560,13 @@
         <v>99</v>
       </c>
       <c r="V101" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="W101" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z101" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC101">
         <v>0</v>
@@ -8277,22 +8583,25 @@
       <c r="AG101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:33">
+      <c r="AH101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:34">
       <c r="A102" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B102" t="s">
-        <v>173</v>
-      </c>
-      <c r="C102">
-        <v>1</v>
+        <v>174</v>
+      </c>
+      <c r="C102" t="s">
+        <v>179</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
-      <c r="E102">
-        <v>1</v>
+      <c r="E102" t="s">
+        <v>179</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -8301,16 +8610,16 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J102" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="R102">
         <v>101</v>
       </c>
       <c r="S102" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T102">
         <v>54</v>
@@ -8319,13 +8628,13 @@
         <v>99</v>
       </c>
       <c r="V102" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="W102" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z102" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC102">
         <v>0</v>
@@ -8342,22 +8651,25 @@
       <c r="AG102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:33">
+      <c r="AH102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:34">
       <c r="A103" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B103" t="s">
-        <v>165</v>
-      </c>
-      <c r="C103">
-        <v>1</v>
-      </c>
-      <c r="D103">
-        <v>1</v>
-      </c>
-      <c r="E103">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C103" t="s">
+        <v>179</v>
+      </c>
+      <c r="D103" t="s">
+        <v>179</v>
+      </c>
+      <c r="E103" t="s">
+        <v>179</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -8366,16 +8678,16 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J103" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="R103">
         <v>102</v>
       </c>
       <c r="S103" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T103">
         <v>54</v>
@@ -8384,13 +8696,13 @@
         <v>99</v>
       </c>
       <c r="V103" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="W103" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z103" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC103">
         <v>0</v>
@@ -8407,22 +8719,25 @@
       <c r="AG103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:33">
+      <c r="AH103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:34">
       <c r="A104" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B104" t="s">
-        <v>165</v>
-      </c>
-      <c r="C104">
-        <v>1</v>
-      </c>
-      <c r="D104">
-        <v>1</v>
-      </c>
-      <c r="E104">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C104" t="s">
+        <v>179</v>
+      </c>
+      <c r="D104" t="s">
+        <v>179</v>
+      </c>
+      <c r="E104" t="s">
+        <v>179</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -8431,16 +8746,16 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J104" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="R104">
         <v>103</v>
       </c>
       <c r="S104" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T104">
         <v>54</v>
@@ -8449,13 +8764,13 @@
         <v>99</v>
       </c>
       <c r="V104" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="W104" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z104" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC104">
         <v>0</v>
@@ -8472,22 +8787,25 @@
       <c r="AG104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:33">
+      <c r="AH104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:34">
       <c r="A105" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B105" t="s">
-        <v>165</v>
-      </c>
-      <c r="C105">
-        <v>1</v>
-      </c>
-      <c r="D105">
-        <v>1</v>
-      </c>
-      <c r="E105">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C105" t="s">
+        <v>179</v>
+      </c>
+      <c r="D105" t="s">
+        <v>179</v>
+      </c>
+      <c r="E105" t="s">
+        <v>179</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -8496,16 +8814,16 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J105" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="R105">
         <v>104</v>
       </c>
       <c r="S105" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T105">
         <v>54</v>
@@ -8514,13 +8832,13 @@
         <v>99</v>
       </c>
       <c r="V105" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="W105" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z105" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC105">
         <v>0</v>
@@ -8537,22 +8855,25 @@
       <c r="AG105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:33">
+      <c r="AH105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:34">
       <c r="A106" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B106" t="s">
-        <v>165</v>
-      </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-      <c r="D106">
-        <v>1</v>
-      </c>
-      <c r="E106">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C106" t="s">
+        <v>179</v>
+      </c>
+      <c r="D106" t="s">
+        <v>179</v>
+      </c>
+      <c r="E106" t="s">
+        <v>179</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -8561,16 +8882,16 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J106" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="R106">
         <v>105</v>
       </c>
       <c r="S106" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T106">
         <v>54</v>
@@ -8579,13 +8900,13 @@
         <v>99</v>
       </c>
       <c r="V106" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="W106" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z106" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC106">
         <v>0</v>
@@ -8602,22 +8923,25 @@
       <c r="AG106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:33">
+      <c r="AH106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:34">
       <c r="A107" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B107" t="s">
-        <v>165</v>
-      </c>
-      <c r="C107">
-        <v>1</v>
-      </c>
-      <c r="D107">
-        <v>1</v>
-      </c>
-      <c r="E107">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C107" t="s">
+        <v>179</v>
+      </c>
+      <c r="D107" t="s">
+        <v>179</v>
+      </c>
+      <c r="E107" t="s">
+        <v>179</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -8626,16 +8950,16 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J107" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="R107">
         <v>106</v>
       </c>
       <c r="S107" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T107">
         <v>54</v>
@@ -8644,13 +8968,13 @@
         <v>99</v>
       </c>
       <c r="V107" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="W107" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z107" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC107">
         <v>0</v>
@@ -8667,22 +8991,25 @@
       <c r="AG107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:33">
+      <c r="AH107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:34">
       <c r="A108" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B108" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C108">
         <v>0</v>
       </c>
-      <c r="D108">
-        <v>1</v>
-      </c>
-      <c r="E108">
-        <v>1</v>
+      <c r="D108" t="s">
+        <v>179</v>
+      </c>
+      <c r="E108" t="s">
+        <v>179</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -8691,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J108" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="R108">
         <v>107</v>
       </c>
       <c r="S108" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T108">
         <v>55</v>
@@ -8709,13 +9036,13 @@
         <v>100</v>
       </c>
       <c r="V108" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="W108" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Z108" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC108">
         <v>0</v>
@@ -8732,22 +9059,25 @@
       <c r="AG108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:33">
+      <c r="AH108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:34">
       <c r="A109" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B109" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
-      <c r="D109">
-        <v>1</v>
-      </c>
-      <c r="E109">
-        <v>1</v>
+      <c r="D109" t="s">
+        <v>179</v>
+      </c>
+      <c r="E109" t="s">
+        <v>179</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -8756,16 +9086,16 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J109" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="R109">
         <v>108</v>
       </c>
       <c r="S109" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T109">
         <v>55</v>
@@ -8774,13 +9104,13 @@
         <v>100</v>
       </c>
       <c r="V109" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="W109" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Z109" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC109">
         <v>0</v>
@@ -8797,13 +9127,16 @@
       <c r="AG109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:33">
+      <c r="AH109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:34">
       <c r="A110" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B110" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -8811,8 +9144,8 @@
       <c r="D110">
         <v>0</v>
       </c>
-      <c r="E110">
-        <v>1</v>
+      <c r="E110" t="s">
+        <v>179</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -8821,16 +9154,16 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J110" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="R110">
         <v>109</v>
       </c>
       <c r="S110" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T110">
         <v>55</v>
@@ -8839,13 +9172,13 @@
         <v>100</v>
       </c>
       <c r="V110" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="W110" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Z110" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC110">
         <v>0</v>
@@ -8862,16 +9195,19 @@
       <c r="AG110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:33">
+      <c r="AH110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:34">
       <c r="A111" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B111" t="s">
-        <v>164</v>
-      </c>
-      <c r="C111">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="C111" t="s">
+        <v>179</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -8886,16 +9222,16 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J111" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="R111">
         <v>110</v>
       </c>
       <c r="S111" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T111">
         <v>56</v>
@@ -8904,13 +9240,13 @@
         <v>101</v>
       </c>
       <c r="V111" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="W111" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Z111" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC111">
         <v>0</v>
@@ -8927,43 +9263,46 @@
       <c r="AG111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:33">
+      <c r="AH111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:34">
       <c r="A112" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B112" t="s">
-        <v>171</v>
-      </c>
-      <c r="C112">
-        <v>1</v>
-      </c>
-      <c r="D112">
-        <v>1</v>
+        <v>172</v>
+      </c>
+      <c r="C112" t="s">
+        <v>179</v>
+      </c>
+      <c r="D112" t="s">
+        <v>179</v>
       </c>
       <c r="E112">
         <v>0</v>
       </c>
-      <c r="F112">
-        <v>1</v>
+      <c r="F112" t="s">
+        <v>179</v>
       </c>
       <c r="G112">
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I112" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J112" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="R112">
         <v>111</v>
       </c>
       <c r="S112" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T112">
         <v>57</v>
@@ -8972,13 +9311,13 @@
         <v>102</v>
       </c>
       <c r="V112" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="W112" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="Z112" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC112">
         <v>0</v>
@@ -8995,22 +9334,25 @@
       <c r="AG112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:33">
+      <c r="AH112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:34">
       <c r="A113" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B113" t="s">
-        <v>165</v>
-      </c>
-      <c r="C113">
-        <v>1</v>
-      </c>
-      <c r="D113">
-        <v>1</v>
-      </c>
-      <c r="E113">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C113" t="s">
+        <v>179</v>
+      </c>
+      <c r="D113" t="s">
+        <v>179</v>
+      </c>
+      <c r="E113" t="s">
+        <v>179</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -9019,16 +9361,16 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J113" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="R113">
         <v>112</v>
       </c>
       <c r="S113" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T113">
         <v>58</v>
@@ -9037,13 +9379,13 @@
         <v>103</v>
       </c>
       <c r="V113" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="W113" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="Z113" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC113">
         <v>0</v>
@@ -9060,22 +9402,25 @@
       <c r="AG113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:33">
+      <c r="AH113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:34">
       <c r="A114" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B114" t="s">
-        <v>165</v>
-      </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-      <c r="D114">
-        <v>1</v>
-      </c>
-      <c r="E114">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C114" t="s">
+        <v>179</v>
+      </c>
+      <c r="D114" t="s">
+        <v>179</v>
+      </c>
+      <c r="E114" t="s">
+        <v>179</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -9084,16 +9429,16 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J114" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="R114">
         <v>113</v>
       </c>
       <c r="S114" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T114">
         <v>59</v>
@@ -9102,13 +9447,13 @@
         <v>104</v>
       </c>
       <c r="V114" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="W114" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z114" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC114">
         <v>0</v>
@@ -9125,22 +9470,25 @@
       <c r="AG114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:33">
+      <c r="AH114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:34">
       <c r="A115" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B115" t="s">
-        <v>165</v>
-      </c>
-      <c r="C115">
-        <v>1</v>
-      </c>
-      <c r="D115">
-        <v>1</v>
-      </c>
-      <c r="E115">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C115" t="s">
+        <v>179</v>
+      </c>
+      <c r="D115" t="s">
+        <v>179</v>
+      </c>
+      <c r="E115" t="s">
+        <v>179</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -9149,16 +9497,16 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J115" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="R115">
         <v>114</v>
       </c>
       <c r="S115" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T115">
         <v>59</v>
@@ -9167,13 +9515,13 @@
         <v>104</v>
       </c>
       <c r="V115" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="W115" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z115" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC115">
         <v>0</v>
@@ -9190,22 +9538,25 @@
       <c r="AG115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:33">
+      <c r="AH115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:34">
       <c r="A116" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B116" t="s">
-        <v>165</v>
-      </c>
-      <c r="C116">
-        <v>1</v>
-      </c>
-      <c r="D116">
-        <v>1</v>
-      </c>
-      <c r="E116">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C116" t="s">
+        <v>179</v>
+      </c>
+      <c r="D116" t="s">
+        <v>179</v>
+      </c>
+      <c r="E116" t="s">
+        <v>179</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -9214,16 +9565,16 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J116" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="R116">
         <v>115</v>
       </c>
       <c r="S116" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T116">
         <v>59</v>
@@ -9232,13 +9583,13 @@
         <v>104</v>
       </c>
       <c r="V116" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="W116" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z116" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC116">
         <v>0</v>
@@ -9255,22 +9606,25 @@
       <c r="AG116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:33">
+      <c r="AH116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:34">
       <c r="A117" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B117" t="s">
-        <v>165</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117">
-        <v>1</v>
-      </c>
-      <c r="E117">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C117" t="s">
+        <v>179</v>
+      </c>
+      <c r="D117" t="s">
+        <v>179</v>
+      </c>
+      <c r="E117" t="s">
+        <v>179</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -9279,16 +9633,16 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J117" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="R117">
         <v>116</v>
       </c>
       <c r="S117" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T117">
         <v>59</v>
@@ -9297,13 +9651,13 @@
         <v>104</v>
       </c>
       <c r="V117" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="W117" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z117" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC117">
         <v>0</v>
@@ -9320,22 +9674,25 @@
       <c r="AG117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:33">
+      <c r="AH117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:34">
       <c r="A118" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B118" t="s">
-        <v>165</v>
-      </c>
-      <c r="C118">
-        <v>1</v>
-      </c>
-      <c r="D118">
-        <v>1</v>
-      </c>
-      <c r="E118">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C118" t="s">
+        <v>179</v>
+      </c>
+      <c r="D118" t="s">
+        <v>179</v>
+      </c>
+      <c r="E118" t="s">
+        <v>179</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -9344,16 +9701,16 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J118" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="R118">
         <v>117</v>
       </c>
       <c r="S118" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T118">
         <v>59</v>
@@ -9362,13 +9719,13 @@
         <v>104</v>
       </c>
       <c r="V118" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="W118" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z118" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC118">
         <v>0</v>
@@ -9385,22 +9742,25 @@
       <c r="AG118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:33">
+      <c r="AH118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:34">
       <c r="A119" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B119" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C119">
         <v>0</v>
       </c>
-      <c r="D119">
-        <v>1</v>
-      </c>
-      <c r="E119">
-        <v>1</v>
+      <c r="D119" t="s">
+        <v>179</v>
+      </c>
+      <c r="E119" t="s">
+        <v>179</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -9409,16 +9769,16 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J119" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="R119">
         <v>118</v>
       </c>
       <c r="S119" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T119">
         <v>61</v>
@@ -9427,13 +9787,13 @@
         <v>106</v>
       </c>
       <c r="V119" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="W119" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="Z119" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC119">
         <v>0</v>
@@ -9450,22 +9810,25 @@
       <c r="AG119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:33">
+      <c r="AH119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:34">
       <c r="A120" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B120" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C120">
         <v>0</v>
       </c>
-      <c r="D120">
-        <v>1</v>
-      </c>
-      <c r="E120">
-        <v>1</v>
+      <c r="D120" t="s">
+        <v>179</v>
+      </c>
+      <c r="E120" t="s">
+        <v>179</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -9474,16 +9837,16 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J120" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="R120">
         <v>119</v>
       </c>
       <c r="S120" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T120">
         <v>64</v>
@@ -9492,13 +9855,13 @@
         <v>110</v>
       </c>
       <c r="V120" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="W120" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="Z120" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC120">
         <v>0</v>
@@ -9515,19 +9878,22 @@
       <c r="AG120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:33">
+      <c r="AH120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:34">
       <c r="A121" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B121" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C121">
         <v>0</v>
       </c>
-      <c r="D121">
-        <v>1</v>
+      <c r="D121" t="s">
+        <v>179</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -9539,16 +9905,16 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J121" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="R121">
         <v>120</v>
       </c>
       <c r="S121" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T121">
         <v>65</v>
@@ -9557,13 +9923,13 @@
         <v>111</v>
       </c>
       <c r="V121" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="W121" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="Z121" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC121">
         <v>0</v>
@@ -9580,13 +9946,16 @@
       <c r="AG121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:33">
+      <c r="AH121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:34">
       <c r="A122" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B122" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -9600,20 +9969,20 @@
       <c r="F122">
         <v>0</v>
       </c>
-      <c r="G122">
-        <v>1</v>
+      <c r="G122" t="s">
+        <v>179</v>
       </c>
       <c r="I122" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J122" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="R122">
         <v>121</v>
       </c>
       <c r="S122" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T122">
         <v>66</v>
@@ -9622,13 +9991,13 @@
         <v>113</v>
       </c>
       <c r="V122" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="W122" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="Z122" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC122">
         <v>0</v>
@@ -9645,22 +10014,25 @@
       <c r="AG122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:33">
+      <c r="AH122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:34">
       <c r="A123" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B123" t="s">
-        <v>165</v>
-      </c>
-      <c r="C123">
-        <v>1</v>
-      </c>
-      <c r="D123">
-        <v>1</v>
-      </c>
-      <c r="E123">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C123" t="s">
+        <v>179</v>
+      </c>
+      <c r="D123" t="s">
+        <v>179</v>
+      </c>
+      <c r="E123" t="s">
+        <v>179</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -9669,16 +10041,16 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J123" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="R123">
         <v>122</v>
       </c>
       <c r="S123" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T123">
         <v>68</v>
@@ -9687,13 +10059,13 @@
         <v>115</v>
       </c>
       <c r="V123" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="W123" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="Z123" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AC123">
         <v>0</v>
@@ -9710,22 +10082,25 @@
       <c r="AG123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:33">
+      <c r="AH123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:34">
       <c r="A124" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B124" t="s">
-        <v>165</v>
-      </c>
-      <c r="C124">
-        <v>1</v>
-      </c>
-      <c r="D124">
-        <v>1</v>
-      </c>
-      <c r="E124">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C124" t="s">
+        <v>179</v>
+      </c>
+      <c r="D124" t="s">
+        <v>179</v>
+      </c>
+      <c r="E124" t="s">
+        <v>179</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -9734,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J124" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="R124">
         <v>123</v>
       </c>
       <c r="S124" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T124">
         <v>68</v>
@@ -9752,13 +10127,13 @@
         <v>115</v>
       </c>
       <c r="V124" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="W124" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="Z124" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AC124">
         <v>0</v>
@@ -9775,16 +10150,19 @@
       <c r="AG124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:33">
+      <c r="AH124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:34">
       <c r="A125" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B125" t="s">
-        <v>164</v>
-      </c>
-      <c r="C125">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="C125" t="s">
+        <v>179</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -9799,16 +10177,16 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J125" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="R125">
         <v>124</v>
       </c>
       <c r="S125" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T125">
         <v>71</v>
@@ -9817,13 +10195,13 @@
         <v>119</v>
       </c>
       <c r="V125" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="W125" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z125" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC125">
         <v>0</v>
@@ -9840,16 +10218,19 @@
       <c r="AG125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:33">
+      <c r="AH125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:34">
       <c r="A126" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B126" t="s">
-        <v>164</v>
-      </c>
-      <c r="C126">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="C126" t="s">
+        <v>179</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -9864,16 +10245,16 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J126" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="R126">
         <v>125</v>
       </c>
       <c r="S126" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T126">
         <v>71</v>
@@ -9882,13 +10263,13 @@
         <v>119</v>
       </c>
       <c r="V126" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="W126" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z126" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC126">
         <v>0</v>
@@ -9905,16 +10286,19 @@
       <c r="AG126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:33">
+      <c r="AH126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:34">
       <c r="A127" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B127" t="s">
-        <v>164</v>
-      </c>
-      <c r="C127">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="C127" t="s">
+        <v>179</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -9929,16 +10313,16 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J127" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="R127">
         <v>126</v>
       </c>
       <c r="S127" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T127">
         <v>71</v>
@@ -9947,13 +10331,13 @@
         <v>119</v>
       </c>
       <c r="V127" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="W127" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z127" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC127">
         <v>0</v>
@@ -9970,16 +10354,19 @@
       <c r="AG127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:33">
+      <c r="AH127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:34">
       <c r="A128" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B128" t="s">
-        <v>164</v>
-      </c>
-      <c r="C128">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="C128" t="s">
+        <v>179</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -9994,16 +10381,16 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J128" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R128">
         <v>127</v>
       </c>
       <c r="S128" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T128">
         <v>71</v>
@@ -10012,13 +10399,13 @@
         <v>119</v>
       </c>
       <c r="V128" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="W128" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z128" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC128">
         <v>0</v>
@@ -10035,16 +10422,19 @@
       <c r="AG128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:33">
+      <c r="AH128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:34">
       <c r="A129" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B129" t="s">
-        <v>164</v>
-      </c>
-      <c r="C129">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="C129" t="s">
+        <v>179</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -10059,16 +10449,16 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J129" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="R129">
         <v>128</v>
       </c>
       <c r="S129" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T129">
         <v>71</v>
@@ -10077,13 +10467,13 @@
         <v>119</v>
       </c>
       <c r="V129" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="W129" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z129" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC129">
         <v>0</v>
@@ -10100,16 +10490,19 @@
       <c r="AG129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:33">
+      <c r="AH129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:34">
       <c r="A130" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B130" t="s">
-        <v>164</v>
-      </c>
-      <c r="C130">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="C130" t="s">
+        <v>179</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -10124,16 +10517,16 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J130" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="R130">
         <v>129</v>
       </c>
       <c r="S130" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T130">
         <v>71</v>
@@ -10142,13 +10535,13 @@
         <v>119</v>
       </c>
       <c r="V130" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="W130" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z130" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC130">
         <v>0</v>
@@ -10165,16 +10558,19 @@
       <c r="AG130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:33">
+      <c r="AH130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:34">
       <c r="A131" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B131" t="s">
-        <v>164</v>
-      </c>
-      <c r="C131">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="C131" t="s">
+        <v>179</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -10189,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J131" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="R131">
         <v>130</v>
       </c>
       <c r="S131" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T131">
         <v>71</v>
@@ -10207,13 +10603,13 @@
         <v>119</v>
       </c>
       <c r="V131" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="W131" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z131" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC131">
         <v>0</v>
@@ -10230,16 +10626,19 @@
       <c r="AG131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:33">
+      <c r="AH131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:34">
       <c r="A132" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B132" t="s">
-        <v>164</v>
-      </c>
-      <c r="C132">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="C132" t="s">
+        <v>179</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -10254,16 +10653,16 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J132" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="R132">
         <v>131</v>
       </c>
       <c r="S132" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T132">
         <v>71</v>
@@ -10272,13 +10671,13 @@
         <v>119</v>
       </c>
       <c r="V132" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="W132" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z132" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC132">
         <v>0</v>
@@ -10295,16 +10694,19 @@
       <c r="AG132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:33">
+      <c r="AH132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:34">
       <c r="A133" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B133" t="s">
-        <v>164</v>
-      </c>
-      <c r="C133">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="C133" t="s">
+        <v>179</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -10319,16 +10721,16 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J133" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="R133">
         <v>132</v>
       </c>
       <c r="S133" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T133">
         <v>71</v>
@@ -10337,13 +10739,13 @@
         <v>119</v>
       </c>
       <c r="V133" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="W133" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z133" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC133">
         <v>0</v>
@@ -10360,16 +10762,19 @@
       <c r="AG133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:33">
+      <c r="AH133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:34">
       <c r="A134" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B134" t="s">
-        <v>164</v>
-      </c>
-      <c r="C134">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="C134" t="s">
+        <v>179</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -10384,16 +10789,16 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J134" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="R134">
         <v>133</v>
       </c>
       <c r="S134" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T134">
         <v>71</v>
@@ -10402,13 +10807,13 @@
         <v>119</v>
       </c>
       <c r="V134" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="W134" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z134" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC134">
         <v>0</v>
@@ -10425,16 +10830,19 @@
       <c r="AG134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:33">
+      <c r="AH134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:34">
       <c r="A135" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B135" t="s">
-        <v>177</v>
-      </c>
-      <c r="C135">
-        <v>1</v>
+        <v>178</v>
+      </c>
+      <c r="C135" t="s">
+        <v>179</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -10442,26 +10850,26 @@
       <c r="E135">
         <v>0</v>
       </c>
-      <c r="F135">
-        <v>1</v>
+      <c r="F135" t="s">
+        <v>179</v>
       </c>
       <c r="G135">
         <v>0</v>
       </c>
       <c r="H135" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I135" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J135" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="R135">
         <v>134</v>
       </c>
       <c r="S135" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T135">
         <v>71</v>
@@ -10470,13 +10878,13 @@
         <v>119</v>
       </c>
       <c r="V135" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="W135" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z135" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AC135">
         <v>0</v>
@@ -10491,6 +10899,9 @@
         <v>0</v>
       </c>
       <c r="AG135">
+        <v>0</v>
+      </c>
+      <c r="AH135">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p15.xlsx
+++ b/files/separadas/repeat_p15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="396">
   <si>
     <t>p15_nom</t>
   </si>
@@ -107,12 +107,6 @@
   </si>
   <si>
     <t>c3</t>
-  </si>
-  <si>
-    <t>s_i</t>
-  </si>
-  <si>
-    <t>c4</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -1608,13 +1602,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH135"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1711,19 +1705,13 @@
       <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:32">
+      <c r="A2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1741,16 +1729,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J2" t="s">
         <v>202</v>
       </c>
-      <c r="J2" t="s">
-        <v>204</v>
-      </c>
       <c r="R2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T2">
         <v>2</v>
@@ -1759,13 +1747,13 @@
         <v>6</v>
       </c>
       <c r="V2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="W2" s="2">
         <v>44998.82651620371</v>
       </c>
       <c r="Z2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -1779,19 +1767,13 @@
       <c r="AF2">
         <v>0</v>
       </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34">
+    </row>
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1809,16 +1791,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="R3">
         <v>2</v>
       </c>
       <c r="S3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T3">
         <v>3</v>
@@ -1827,13 +1809,13 @@
         <v>7</v>
       </c>
       <c r="V3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="W3" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="Z3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -1847,19 +1829,13 @@
       <c r="AF3">
         <v>0</v>
       </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34">
+    </row>
+    <row r="4" spans="1:32">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1877,19 +1853,19 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="R4">
         <v>3</v>
       </c>
       <c r="S4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T4">
         <v>4</v>
@@ -1898,13 +1874,13 @@
         <v>9</v>
       </c>
       <c r="V4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="W4" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="Z4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -1918,19 +1894,13 @@
       <c r="AF4">
         <v>0</v>
       </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34">
+    </row>
+    <row r="5" spans="1:32">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1948,16 +1918,16 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="R5">
         <v>4</v>
       </c>
       <c r="S5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T5">
         <v>5</v>
@@ -1966,13 +1936,13 @@
         <v>10</v>
       </c>
       <c r="V5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="W5" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1986,19 +1956,13 @@
       <c r="AF5">
         <v>0</v>
       </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34">
+    </row>
+    <row r="6" spans="1:32">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2016,16 +1980,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="R6">
         <v>5</v>
       </c>
       <c r="S6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T6">
         <v>5</v>
@@ -2034,13 +1998,13 @@
         <v>10</v>
       </c>
       <c r="V6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="W6" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -2054,19 +2018,13 @@
       <c r="AF6">
         <v>0</v>
       </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34">
+    </row>
+    <row r="7" spans="1:32">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2084,16 +2042,16 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="R7">
         <v>6</v>
       </c>
       <c r="S7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T7">
         <v>5</v>
@@ -2102,13 +2060,13 @@
         <v>10</v>
       </c>
       <c r="V7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="W7" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -2122,19 +2080,13 @@
       <c r="AF7">
         <v>0</v>
       </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34">
+    </row>
+    <row r="8" spans="1:32">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2152,16 +2104,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="R8">
         <v>7</v>
       </c>
       <c r="S8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T8">
         <v>6</v>
@@ -2170,13 +2122,13 @@
         <v>12</v>
       </c>
       <c r="V8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="W8" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="Z8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -2190,19 +2142,13 @@
       <c r="AF8">
         <v>0</v>
       </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34">
+    </row>
+    <row r="9" spans="1:32">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2220,16 +2166,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R9">
         <v>8</v>
       </c>
       <c r="S9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T9">
         <v>7</v>
@@ -2238,13 +2184,13 @@
         <v>13</v>
       </c>
       <c r="V9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="W9" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="Z9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -2258,19 +2204,13 @@
       <c r="AF9">
         <v>0</v>
       </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34">
+    </row>
+    <row r="10" spans="1:32">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2288,16 +2228,16 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="R10">
         <v>9</v>
       </c>
       <c r="S10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T10">
         <v>9</v>
@@ -2306,13 +2246,13 @@
         <v>15</v>
       </c>
       <c r="V10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="W10" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Z10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -2326,19 +2266,13 @@
       <c r="AF10">
         <v>0</v>
       </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34">
+    </row>
+    <row r="11" spans="1:32">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2356,16 +2290,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="R11">
         <v>10</v>
       </c>
       <c r="S11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T11">
         <v>10</v>
@@ -2374,13 +2308,13 @@
         <v>16</v>
       </c>
       <c r="V11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="W11" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="Z11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -2394,19 +2328,13 @@
       <c r="AF11">
         <v>0</v>
       </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34">
+    </row>
+    <row r="12" spans="1:32">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2424,16 +2352,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="R12">
         <v>11</v>
       </c>
       <c r="S12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T12">
         <v>11</v>
@@ -2442,13 +2370,13 @@
         <v>17</v>
       </c>
       <c r="V12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="W12" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -2462,19 +2390,13 @@
       <c r="AF12">
         <v>0</v>
       </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34">
+    </row>
+    <row r="13" spans="1:32">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2492,16 +2414,16 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="R13">
         <v>12</v>
       </c>
       <c r="S13" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T13">
         <v>11</v>
@@ -2510,13 +2432,13 @@
         <v>17</v>
       </c>
       <c r="V13" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="W13" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z13" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -2530,19 +2452,13 @@
       <c r="AF13">
         <v>0</v>
       </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34">
+    </row>
+    <row r="14" spans="1:32">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2560,16 +2476,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="R14">
         <v>13</v>
       </c>
       <c r="S14" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T14">
         <v>11</v>
@@ -2578,13 +2494,13 @@
         <v>17</v>
       </c>
       <c r="V14" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="W14" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z14" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -2598,19 +2514,13 @@
       <c r="AF14">
         <v>0</v>
       </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34">
+    </row>
+    <row r="15" spans="1:32">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2628,16 +2538,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="R15">
         <v>14</v>
       </c>
       <c r="S15" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T15">
         <v>11</v>
@@ -2646,13 +2556,13 @@
         <v>17</v>
       </c>
       <c r="V15" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="W15" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z15" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -2666,19 +2576,13 @@
       <c r="AF15">
         <v>0</v>
       </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34">
+    </row>
+    <row r="16" spans="1:32">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2696,16 +2600,16 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="R16">
         <v>15</v>
       </c>
       <c r="S16" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T16">
         <v>11</v>
@@ -2714,13 +2618,13 @@
         <v>17</v>
       </c>
       <c r="V16" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="W16" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z16" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC16">
         <v>0</v>
@@ -2734,19 +2638,13 @@
       <c r="AF16">
         <v>0</v>
       </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34">
+    </row>
+    <row r="17" spans="1:32">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2764,16 +2662,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="R17">
         <v>16</v>
       </c>
       <c r="S17" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T17">
         <v>11</v>
@@ -2782,13 +2680,13 @@
         <v>17</v>
       </c>
       <c r="V17" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="W17" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z17" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC17">
         <v>0</v>
@@ -2802,19 +2700,13 @@
       <c r="AF17">
         <v>0</v>
       </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34">
+    </row>
+    <row r="18" spans="1:32">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2832,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="R18">
         <v>17</v>
       </c>
       <c r="S18" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T18">
         <v>11</v>
@@ -2850,13 +2742,13 @@
         <v>17</v>
       </c>
       <c r="V18" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="W18" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z18" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC18">
         <v>0</v>
@@ -2870,19 +2762,13 @@
       <c r="AF18">
         <v>0</v>
       </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34">
+    </row>
+    <row r="19" spans="1:32">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2900,16 +2786,16 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="R19">
         <v>18</v>
       </c>
       <c r="S19" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T19">
         <v>11</v>
@@ -2918,13 +2804,13 @@
         <v>17</v>
       </c>
       <c r="V19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="W19" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z19" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC19">
         <v>0</v>
@@ -2938,19 +2824,13 @@
       <c r="AF19">
         <v>0</v>
       </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34">
+    </row>
+    <row r="20" spans="1:32">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2968,16 +2848,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="R20">
         <v>19</v>
       </c>
       <c r="S20" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T20">
         <v>11</v>
@@ -2986,13 +2866,13 @@
         <v>17</v>
       </c>
       <c r="V20" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="W20" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z20" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC20">
         <v>0</v>
@@ -3006,19 +2886,13 @@
       <c r="AF20">
         <v>0</v>
       </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34">
+    </row>
+    <row r="21" spans="1:32">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -3036,16 +2910,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="R21">
         <v>20</v>
       </c>
       <c r="S21" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T21">
         <v>11</v>
@@ -3054,13 +2928,13 @@
         <v>17</v>
       </c>
       <c r="V21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="W21" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z21" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC21">
         <v>0</v>
@@ -3074,19 +2948,13 @@
       <c r="AF21">
         <v>0</v>
       </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34">
+    </row>
+    <row r="22" spans="1:32">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -3104,16 +2972,16 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J22" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="R22">
         <v>21</v>
       </c>
       <c r="S22" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T22">
         <v>11</v>
@@ -3122,13 +2990,13 @@
         <v>17</v>
       </c>
       <c r="V22" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="W22" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z22" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC22">
         <v>0</v>
@@ -3142,19 +3010,13 @@
       <c r="AF22">
         <v>0</v>
       </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
-      <c r="AH22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34">
+    </row>
+    <row r="23" spans="1:32">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -3172,16 +3034,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J23" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="R23">
         <v>22</v>
       </c>
       <c r="S23" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T23">
         <v>11</v>
@@ -3190,13 +3052,13 @@
         <v>17</v>
       </c>
       <c r="V23" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="W23" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z23" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC23">
         <v>0</v>
@@ -3210,19 +3072,13 @@
       <c r="AF23">
         <v>0</v>
       </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34">
+    </row>
+    <row r="24" spans="1:32">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -3240,16 +3096,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J24" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="R24">
         <v>23</v>
       </c>
       <c r="S24" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T24">
         <v>12</v>
@@ -3258,13 +3114,13 @@
         <v>18</v>
       </c>
       <c r="V24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="W24" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="Z24" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC24">
         <v>0</v>
@@ -3278,19 +3134,13 @@
       <c r="AF24">
         <v>0</v>
       </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34">
+    </row>
+    <row r="25" spans="1:32">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -3308,16 +3158,16 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="R25">
         <v>24</v>
       </c>
       <c r="S25" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T25">
         <v>13</v>
@@ -3326,13 +3176,13 @@
         <v>20</v>
       </c>
       <c r="V25" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="W25" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="Z25" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AC25">
         <v>0</v>
@@ -3346,19 +3196,13 @@
       <c r="AF25">
         <v>0</v>
       </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
-      <c r="AH25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34">
+    </row>
+    <row r="26" spans="1:32">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -3376,16 +3220,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J26" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="R26">
         <v>25</v>
       </c>
       <c r="S26" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T26">
         <v>13</v>
@@ -3394,13 +3238,13 @@
         <v>20</v>
       </c>
       <c r="V26" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="W26" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="Z26" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -3414,19 +3258,13 @@
       <c r="AF26">
         <v>0</v>
       </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
-      <c r="AH26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34">
+    </row>
+    <row r="27" spans="1:32">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -3444,16 +3282,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J27" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="R27">
         <v>26</v>
       </c>
       <c r="S27" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T27">
         <v>15</v>
@@ -3462,13 +3300,13 @@
         <v>22</v>
       </c>
       <c r="V27" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="W27" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Z27" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -3482,19 +3320,13 @@
       <c r="AF27">
         <v>0</v>
       </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34">
+    </row>
+    <row r="28" spans="1:32">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -3512,16 +3344,16 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J28" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="R28">
         <v>27</v>
       </c>
       <c r="S28" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T28">
         <v>16</v>
@@ -3530,13 +3362,13 @@
         <v>25</v>
       </c>
       <c r="V28" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="W28" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="Z28" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC28">
         <v>0</v>
@@ -3550,19 +3382,13 @@
       <c r="AF28">
         <v>0</v>
       </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
-      <c r="AH28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34">
+    </row>
+    <row r="29" spans="1:32">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -3580,16 +3406,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J29" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="R29">
         <v>28</v>
       </c>
       <c r="S29" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T29">
         <v>16</v>
@@ -3598,13 +3424,13 @@
         <v>25</v>
       </c>
       <c r="V29" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="W29" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="Z29" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC29">
         <v>0</v>
@@ -3618,19 +3444,13 @@
       <c r="AF29">
         <v>0</v>
       </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
-      <c r="AH29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:34">
+    </row>
+    <row r="30" spans="1:32">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -3648,16 +3468,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J30" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="R30">
         <v>29</v>
       </c>
       <c r="S30" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T30">
         <v>16</v>
@@ -3666,13 +3486,13 @@
         <v>25</v>
       </c>
       <c r="V30" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="W30" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="Z30" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC30">
         <v>0</v>
@@ -3686,19 +3506,13 @@
       <c r="AF30">
         <v>0</v>
       </c>
-      <c r="AG30">
-        <v>0</v>
-      </c>
-      <c r="AH30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:34">
+    </row>
+    <row r="31" spans="1:32">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -3716,19 +3530,19 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I31" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J31" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="R31">
         <v>30</v>
       </c>
       <c r="S31" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T31">
         <v>17</v>
@@ -3737,13 +3551,13 @@
         <v>26</v>
       </c>
       <c r="V31" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="W31" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="Z31" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC31">
         <v>0</v>
@@ -3757,19 +3571,13 @@
       <c r="AF31">
         <v>0</v>
       </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
-      <c r="AH31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34">
+    </row>
+    <row r="32" spans="1:32">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -3787,16 +3595,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J32" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R32">
         <v>31</v>
       </c>
       <c r="S32" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T32">
         <v>18</v>
@@ -3805,13 +3613,13 @@
         <v>27</v>
       </c>
       <c r="V32" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="W32" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="Z32" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC32">
         <v>0</v>
@@ -3825,19 +3633,13 @@
       <c r="AF32">
         <v>0</v>
       </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-      <c r="AH32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:34">
+    </row>
+    <row r="33" spans="1:32">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -3855,16 +3657,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J33" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="R33">
         <v>32</v>
       </c>
       <c r="S33" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T33">
         <v>19</v>
@@ -3873,13 +3675,13 @@
         <v>30</v>
       </c>
       <c r="V33" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="W33" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z33" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC33">
         <v>0</v>
@@ -3893,19 +3695,13 @@
       <c r="AF33">
         <v>0</v>
       </c>
-      <c r="AG33">
-        <v>0</v>
-      </c>
-      <c r="AH33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:34">
+    </row>
+    <row r="34" spans="1:32">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -3923,19 +3719,19 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I34" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J34" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="R34">
         <v>33</v>
       </c>
       <c r="S34" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T34">
         <v>19</v>
@@ -3944,13 +3740,13 @@
         <v>30</v>
       </c>
       <c r="V34" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="W34" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z34" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC34">
         <v>0</v>
@@ -3964,19 +3760,13 @@
       <c r="AF34">
         <v>0</v>
       </c>
-      <c r="AG34">
-        <v>0</v>
-      </c>
-      <c r="AH34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:34">
+    </row>
+    <row r="35" spans="1:32">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -3994,19 +3784,19 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I35" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J35" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="R35">
         <v>34</v>
       </c>
       <c r="S35" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T35">
         <v>19</v>
@@ -4015,13 +3805,13 @@
         <v>30</v>
       </c>
       <c r="V35" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="W35" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z35" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC35">
         <v>0</v>
@@ -4035,19 +3825,13 @@
       <c r="AF35">
         <v>0</v>
       </c>
-      <c r="AG35">
-        <v>0</v>
-      </c>
-      <c r="AH35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:34">
+    </row>
+    <row r="36" spans="1:32">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -4065,19 +3849,19 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I36" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J36" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="R36">
         <v>35</v>
       </c>
       <c r="S36" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T36">
         <v>21</v>
@@ -4086,13 +3870,13 @@
         <v>34</v>
       </c>
       <c r="V36" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="W36" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="Z36" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC36">
         <v>0</v>
@@ -4106,19 +3890,13 @@
       <c r="AF36">
         <v>0</v>
       </c>
-      <c r="AG36">
-        <v>0</v>
-      </c>
-      <c r="AH36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:34">
+    </row>
+    <row r="37" spans="1:32">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -4136,16 +3914,16 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J37" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="R37">
         <v>36</v>
       </c>
       <c r="S37" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T37">
         <v>22</v>
@@ -4154,13 +3932,13 @@
         <v>37</v>
       </c>
       <c r="V37" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="W37" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z37" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC37">
         <v>0</v>
@@ -4174,19 +3952,13 @@
       <c r="AF37">
         <v>0</v>
       </c>
-      <c r="AG37">
-        <v>0</v>
-      </c>
-      <c r="AH37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:34">
+    </row>
+    <row r="38" spans="1:32">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -4204,16 +3976,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J38" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="R38">
         <v>37</v>
       </c>
       <c r="S38" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T38">
         <v>22</v>
@@ -4222,13 +3994,13 @@
         <v>37</v>
       </c>
       <c r="V38" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="W38" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z38" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC38">
         <v>0</v>
@@ -4242,19 +4014,13 @@
       <c r="AF38">
         <v>0</v>
       </c>
-      <c r="AG38">
-        <v>0</v>
-      </c>
-      <c r="AH38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:34">
+    </row>
+    <row r="39" spans="1:32">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -4272,16 +4038,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J39" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="R39">
         <v>38</v>
       </c>
       <c r="S39" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T39">
         <v>23</v>
@@ -4290,13 +4056,13 @@
         <v>38</v>
       </c>
       <c r="V39" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="W39" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z39" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC39">
         <v>0</v>
@@ -4310,19 +4076,13 @@
       <c r="AF39">
         <v>0</v>
       </c>
-      <c r="AG39">
-        <v>0</v>
-      </c>
-      <c r="AH39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:34">
+    </row>
+    <row r="40" spans="1:32">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B40" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -4340,16 +4100,16 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J40" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="R40">
         <v>39</v>
       </c>
       <c r="S40" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T40">
         <v>23</v>
@@ -4358,13 +4118,13 @@
         <v>38</v>
       </c>
       <c r="V40" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="W40" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z40" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC40">
         <v>0</v>
@@ -4378,19 +4138,13 @@
       <c r="AF40">
         <v>0</v>
       </c>
-      <c r="AG40">
-        <v>0</v>
-      </c>
-      <c r="AH40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:34">
+    </row>
+    <row r="41" spans="1:32">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -4408,16 +4162,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J41" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="R41">
         <v>40</v>
       </c>
       <c r="S41" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T41">
         <v>23</v>
@@ -4426,13 +4180,13 @@
         <v>38</v>
       </c>
       <c r="V41" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="W41" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z41" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC41">
         <v>0</v>
@@ -4446,19 +4200,13 @@
       <c r="AF41">
         <v>0</v>
       </c>
-      <c r="AG41">
-        <v>0</v>
-      </c>
-      <c r="AH41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:34">
+    </row>
+    <row r="42" spans="1:32">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -4476,16 +4224,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J42" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="R42">
         <v>41</v>
       </c>
       <c r="S42" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T42">
         <v>23</v>
@@ -4494,13 +4242,13 @@
         <v>38</v>
       </c>
       <c r="V42" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="W42" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z42" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC42">
         <v>0</v>
@@ -4514,19 +4262,13 @@
       <c r="AF42">
         <v>0</v>
       </c>
-      <c r="AG42">
-        <v>0</v>
-      </c>
-      <c r="AH42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:34">
+    </row>
+    <row r="43" spans="1:32">
       <c r="A43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B43" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -4544,16 +4286,16 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J43" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="R43">
         <v>42</v>
       </c>
       <c r="S43" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T43">
         <v>23</v>
@@ -4562,13 +4304,13 @@
         <v>38</v>
       </c>
       <c r="V43" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="W43" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z43" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC43">
         <v>0</v>
@@ -4582,19 +4324,13 @@
       <c r="AF43">
         <v>0</v>
       </c>
-      <c r="AG43">
-        <v>0</v>
-      </c>
-      <c r="AH43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:34">
+    </row>
+    <row r="44" spans="1:32">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -4612,16 +4348,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J44" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="R44">
         <v>43</v>
       </c>
       <c r="S44" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T44">
         <v>23</v>
@@ -4630,13 +4366,13 @@
         <v>38</v>
       </c>
       <c r="V44" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="W44" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z44" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC44">
         <v>0</v>
@@ -4650,19 +4386,13 @@
       <c r="AF44">
         <v>0</v>
       </c>
-      <c r="AG44">
-        <v>0</v>
-      </c>
-      <c r="AH44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:34">
+    </row>
+    <row r="45" spans="1:32">
       <c r="A45" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -4680,16 +4410,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J45" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="R45">
         <v>44</v>
       </c>
       <c r="S45" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T45">
         <v>23</v>
@@ -4698,13 +4428,13 @@
         <v>38</v>
       </c>
       <c r="V45" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="W45" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z45" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC45">
         <v>0</v>
@@ -4718,19 +4448,13 @@
       <c r="AF45">
         <v>0</v>
       </c>
-      <c r="AG45">
-        <v>0</v>
-      </c>
-      <c r="AH45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:34">
+    </row>
+    <row r="46" spans="1:32">
       <c r="A46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B46" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -4748,16 +4472,16 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J46" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="R46">
         <v>45</v>
       </c>
       <c r="S46" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T46">
         <v>23</v>
@@ -4766,13 +4490,13 @@
         <v>38</v>
       </c>
       <c r="V46" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="W46" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z46" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC46">
         <v>0</v>
@@ -4786,19 +4510,13 @@
       <c r="AF46">
         <v>0</v>
       </c>
-      <c r="AG46">
-        <v>0</v>
-      </c>
-      <c r="AH46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:34">
+    </row>
+    <row r="47" spans="1:32">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B47" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -4816,16 +4534,16 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J47" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="R47">
         <v>46</v>
       </c>
       <c r="S47" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T47">
         <v>23</v>
@@ -4834,13 +4552,13 @@
         <v>38</v>
       </c>
       <c r="V47" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="W47" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z47" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC47">
         <v>0</v>
@@ -4854,19 +4572,13 @@
       <c r="AF47">
         <v>0</v>
       </c>
-      <c r="AG47">
-        <v>0</v>
-      </c>
-      <c r="AH47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:34">
+    </row>
+    <row r="48" spans="1:32">
       <c r="A48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B48" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -4884,16 +4596,16 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J48" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="R48">
         <v>47</v>
       </c>
       <c r="S48" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T48">
         <v>23</v>
@@ -4902,13 +4614,13 @@
         <v>38</v>
       </c>
       <c r="V48" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="W48" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z48" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC48">
         <v>0</v>
@@ -4922,19 +4634,13 @@
       <c r="AF48">
         <v>0</v>
       </c>
-      <c r="AG48">
-        <v>0</v>
-      </c>
-      <c r="AH48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:34">
+    </row>
+    <row r="49" spans="1:32">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B49" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -4952,16 +4658,16 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J49" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="R49">
         <v>48</v>
       </c>
       <c r="S49" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T49">
         <v>23</v>
@@ -4970,13 +4676,13 @@
         <v>38</v>
       </c>
       <c r="V49" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="W49" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z49" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC49">
         <v>0</v>
@@ -4990,19 +4696,13 @@
       <c r="AF49">
         <v>0</v>
       </c>
-      <c r="AG49">
-        <v>0</v>
-      </c>
-      <c r="AH49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:34">
+    </row>
+    <row r="50" spans="1:32">
       <c r="A50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B50" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -5020,19 +4720,19 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I50" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J50" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="R50">
         <v>49</v>
       </c>
       <c r="S50" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T50">
         <v>24</v>
@@ -5041,13 +4741,13 @@
         <v>51</v>
       </c>
       <c r="V50" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="W50" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z50" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AC50">
         <v>0</v>
@@ -5061,19 +4761,13 @@
       <c r="AF50">
         <v>0</v>
       </c>
-      <c r="AG50">
-        <v>0</v>
-      </c>
-      <c r="AH50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:34">
+    </row>
+    <row r="51" spans="1:32">
       <c r="A51" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B51" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -5091,19 +4785,19 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I51" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J51" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="R51">
         <v>50</v>
       </c>
       <c r="S51" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T51">
         <v>24</v>
@@ -5112,13 +4806,13 @@
         <v>51</v>
       </c>
       <c r="V51" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="W51" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z51" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AC51">
         <v>0</v>
@@ -5132,19 +4826,13 @@
       <c r="AF51">
         <v>0</v>
       </c>
-      <c r="AG51">
-        <v>0</v>
-      </c>
-      <c r="AH51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:34">
+    </row>
+    <row r="52" spans="1:32">
       <c r="A52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B52" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -5162,19 +4850,19 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I52" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J52" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="R52">
         <v>51</v>
       </c>
       <c r="S52" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T52">
         <v>24</v>
@@ -5183,13 +4871,13 @@
         <v>51</v>
       </c>
       <c r="V52" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="W52" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z52" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AC52">
         <v>0</v>
@@ -5203,19 +4891,13 @@
       <c r="AF52">
         <v>0</v>
       </c>
-      <c r="AG52">
-        <v>0</v>
-      </c>
-      <c r="AH52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:34">
+    </row>
+    <row r="53" spans="1:32">
       <c r="A53" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B53" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -5233,16 +4915,16 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J53" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="R53">
         <v>52</v>
       </c>
       <c r="S53" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T53">
         <v>25</v>
@@ -5251,13 +4933,13 @@
         <v>52</v>
       </c>
       <c r="V53" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="W53" s="2">
         <v>45033.79946759259</v>
       </c>
       <c r="Z53" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC53">
         <v>0</v>
@@ -5271,19 +4953,13 @@
       <c r="AF53">
         <v>0</v>
       </c>
-      <c r="AG53">
-        <v>0</v>
-      </c>
-      <c r="AH53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:34">
+    </row>
+    <row r="54" spans="1:32">
       <c r="A54" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B54" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -5301,16 +4977,16 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J54" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="R54">
         <v>53</v>
       </c>
       <c r="S54" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T54">
         <v>26</v>
@@ -5319,13 +4995,13 @@
         <v>55</v>
       </c>
       <c r="V54" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="W54" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="Z54" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC54">
         <v>0</v>
@@ -5339,19 +5015,13 @@
       <c r="AF54">
         <v>0</v>
       </c>
-      <c r="AG54">
-        <v>0</v>
-      </c>
-      <c r="AH54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:34">
+    </row>
+    <row r="55" spans="1:32">
       <c r="A55" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B55" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -5369,19 +5039,19 @@
         <v>0</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I55" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J55" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="R55">
         <v>54</v>
       </c>
       <c r="S55" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T55">
         <v>27</v>
@@ -5390,13 +5060,13 @@
         <v>56</v>
       </c>
       <c r="V55" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="W55" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="Z55" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC55">
         <v>0</v>
@@ -5410,19 +5080,13 @@
       <c r="AF55">
         <v>0</v>
       </c>
-      <c r="AG55">
-        <v>0</v>
-      </c>
-      <c r="AH55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:34">
+    </row>
+    <row r="56" spans="1:32">
       <c r="A56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B56" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -5440,16 +5104,16 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J56" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="R56">
         <v>55</v>
       </c>
       <c r="S56" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T56">
         <v>28</v>
@@ -5458,13 +5122,13 @@
         <v>57</v>
       </c>
       <c r="V56" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="W56" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Z56" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC56">
         <v>0</v>
@@ -5478,19 +5142,13 @@
       <c r="AF56">
         <v>0</v>
       </c>
-      <c r="AG56">
-        <v>0</v>
-      </c>
-      <c r="AH56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:34">
+    </row>
+    <row r="57" spans="1:32">
       <c r="A57" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B57" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -5508,16 +5166,16 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J57" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="R57">
         <v>56</v>
       </c>
       <c r="S57" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T57">
         <v>28</v>
@@ -5526,13 +5184,13 @@
         <v>57</v>
       </c>
       <c r="V57" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="W57" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Z57" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC57">
         <v>0</v>
@@ -5546,19 +5204,13 @@
       <c r="AF57">
         <v>0</v>
       </c>
-      <c r="AG57">
-        <v>0</v>
-      </c>
-      <c r="AH57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:34">
+    </row>
+    <row r="58" spans="1:32">
       <c r="A58" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B58" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -5576,16 +5228,16 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J58" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="R58">
         <v>57</v>
       </c>
       <c r="S58" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T58">
         <v>28</v>
@@ -5594,13 +5246,13 @@
         <v>57</v>
       </c>
       <c r="V58" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="W58" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Z58" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC58">
         <v>0</v>
@@ -5614,19 +5266,13 @@
       <c r="AF58">
         <v>0</v>
       </c>
-      <c r="AG58">
-        <v>0</v>
-      </c>
-      <c r="AH58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:34">
+    </row>
+    <row r="59" spans="1:32">
       <c r="A59" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B59" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -5644,16 +5290,16 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J59" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="R59">
         <v>58</v>
       </c>
       <c r="S59" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T59">
         <v>28</v>
@@ -5662,13 +5308,13 @@
         <v>57</v>
       </c>
       <c r="V59" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="W59" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Z59" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC59">
         <v>0</v>
@@ -5682,19 +5328,13 @@
       <c r="AF59">
         <v>0</v>
       </c>
-      <c r="AG59">
-        <v>0</v>
-      </c>
-      <c r="AH59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:34">
+    </row>
+    <row r="60" spans="1:32">
       <c r="A60" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B60" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -5712,16 +5352,16 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J60" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="R60">
         <v>59</v>
       </c>
       <c r="S60" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T60">
         <v>29</v>
@@ -5730,13 +5370,13 @@
         <v>58</v>
       </c>
       <c r="V60" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="W60" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="Z60" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC60">
         <v>0</v>
@@ -5750,19 +5390,13 @@
       <c r="AF60">
         <v>0</v>
       </c>
-      <c r="AG60">
-        <v>0</v>
-      </c>
-      <c r="AH60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:34">
+    </row>
+    <row r="61" spans="1:32">
       <c r="A61" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B61" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -5780,16 +5414,16 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J61" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="R61">
         <v>60</v>
       </c>
       <c r="S61" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T61">
         <v>30</v>
@@ -5798,13 +5432,13 @@
         <v>59</v>
       </c>
       <c r="V61" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="W61" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z61" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC61">
         <v>0</v>
@@ -5818,19 +5452,13 @@
       <c r="AF61">
         <v>0</v>
       </c>
-      <c r="AG61">
-        <v>0</v>
-      </c>
-      <c r="AH61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:34">
+    </row>
+    <row r="62" spans="1:32">
       <c r="A62" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B62" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -5848,16 +5476,16 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J62" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="R62">
         <v>61</v>
       </c>
       <c r="S62" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T62">
         <v>31</v>
@@ -5866,13 +5494,13 @@
         <v>60</v>
       </c>
       <c r="V62" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="W62" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="Z62" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC62">
         <v>0</v>
@@ -5886,19 +5514,13 @@
       <c r="AF62">
         <v>0</v>
       </c>
-      <c r="AG62">
-        <v>0</v>
-      </c>
-      <c r="AH62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:34">
+    </row>
+    <row r="63" spans="1:32">
       <c r="A63" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B63" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -5916,16 +5538,16 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J63" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="R63">
         <v>62</v>
       </c>
       <c r="S63" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T63">
         <v>31</v>
@@ -5934,13 +5556,13 @@
         <v>60</v>
       </c>
       <c r="V63" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="W63" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="Z63" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC63">
         <v>0</v>
@@ -5954,19 +5576,13 @@
       <c r="AF63">
         <v>0</v>
       </c>
-      <c r="AG63">
-        <v>0</v>
-      </c>
-      <c r="AH63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:34">
+    </row>
+    <row r="64" spans="1:32">
       <c r="A64" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B64" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -5984,16 +5600,16 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J64" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="R64">
         <v>63</v>
       </c>
       <c r="S64" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T64">
         <v>32</v>
@@ -6002,13 +5618,13 @@
         <v>61</v>
       </c>
       <c r="V64" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="W64" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Z64" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC64">
         <v>0</v>
@@ -6022,19 +5638,13 @@
       <c r="AF64">
         <v>0</v>
       </c>
-      <c r="AG64">
-        <v>0</v>
-      </c>
-      <c r="AH64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:34">
+    </row>
+    <row r="65" spans="1:32">
       <c r="A65" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B65" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -6052,16 +5662,16 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J65" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="R65">
         <v>64</v>
       </c>
       <c r="S65" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T65">
         <v>33</v>
@@ -6070,13 +5680,13 @@
         <v>63</v>
       </c>
       <c r="V65" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="W65" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z65" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC65">
         <v>0</v>
@@ -6090,19 +5700,13 @@
       <c r="AF65">
         <v>0</v>
       </c>
-      <c r="AG65">
-        <v>0</v>
-      </c>
-      <c r="AH65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:34">
+    </row>
+    <row r="66" spans="1:32">
       <c r="A66" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B66" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -6120,16 +5724,16 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J66" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="R66">
         <v>65</v>
       </c>
       <c r="S66" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T66">
         <v>33</v>
@@ -6138,13 +5742,13 @@
         <v>63</v>
       </c>
       <c r="V66" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="W66" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z66" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC66">
         <v>0</v>
@@ -6158,19 +5762,13 @@
       <c r="AF66">
         <v>0</v>
       </c>
-      <c r="AG66">
-        <v>0</v>
-      </c>
-      <c r="AH66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:34">
+    </row>
+    <row r="67" spans="1:32">
       <c r="A67" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B67" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -6188,16 +5786,16 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J67" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="R67">
         <v>66</v>
       </c>
       <c r="S67" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T67">
         <v>33</v>
@@ -6206,13 +5804,13 @@
         <v>63</v>
       </c>
       <c r="V67" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="W67" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z67" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC67">
         <v>0</v>
@@ -6226,19 +5824,13 @@
       <c r="AF67">
         <v>0</v>
       </c>
-      <c r="AG67">
-        <v>0</v>
-      </c>
-      <c r="AH67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:34">
+    </row>
+    <row r="68" spans="1:32">
       <c r="A68" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B68" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -6256,16 +5848,16 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J68" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="R68">
         <v>67</v>
       </c>
       <c r="S68" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T68">
         <v>33</v>
@@ -6274,13 +5866,13 @@
         <v>63</v>
       </c>
       <c r="V68" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="W68" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z68" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC68">
         <v>0</v>
@@ -6294,19 +5886,13 @@
       <c r="AF68">
         <v>0</v>
       </c>
-      <c r="AG68">
-        <v>0</v>
-      </c>
-      <c r="AH68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:34">
+    </row>
+    <row r="69" spans="1:32">
       <c r="A69" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B69" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -6324,16 +5910,16 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J69" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="R69">
         <v>68</v>
       </c>
       <c r="S69" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T69">
         <v>33</v>
@@ -6342,13 +5928,13 @@
         <v>63</v>
       </c>
       <c r="V69" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="W69" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z69" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC69">
         <v>0</v>
@@ -6362,19 +5948,13 @@
       <c r="AF69">
         <v>0</v>
       </c>
-      <c r="AG69">
-        <v>0</v>
-      </c>
-      <c r="AH69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:34">
+    </row>
+    <row r="70" spans="1:32">
       <c r="A70" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B70" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -6392,16 +5972,16 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J70" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="R70">
         <v>69</v>
       </c>
       <c r="S70" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T70">
         <v>33</v>
@@ -6410,13 +5990,13 @@
         <v>63</v>
       </c>
       <c r="V70" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="W70" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z70" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC70">
         <v>0</v>
@@ -6430,19 +6010,13 @@
       <c r="AF70">
         <v>0</v>
       </c>
-      <c r="AG70">
-        <v>0</v>
-      </c>
-      <c r="AH70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:34">
+    </row>
+    <row r="71" spans="1:32">
       <c r="A71" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B71" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -6460,16 +6034,16 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J71" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="R71">
         <v>70</v>
       </c>
       <c r="S71" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T71">
         <v>34</v>
@@ -6478,13 +6052,13 @@
         <v>64</v>
       </c>
       <c r="V71" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="W71" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="Z71" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC71">
         <v>0</v>
@@ -6498,19 +6072,13 @@
       <c r="AF71">
         <v>0</v>
       </c>
-      <c r="AG71">
-        <v>0</v>
-      </c>
-      <c r="AH71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:34">
+    </row>
+    <row r="72" spans="1:32">
       <c r="A72" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B72" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -6528,19 +6096,19 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I72" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J72" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="R72">
         <v>71</v>
       </c>
       <c r="S72" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T72">
         <v>36</v>
@@ -6549,13 +6117,13 @@
         <v>77</v>
       </c>
       <c r="V72" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="W72" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z72" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC72">
         <v>0</v>
@@ -6569,19 +6137,13 @@
       <c r="AF72">
         <v>0</v>
       </c>
-      <c r="AG72">
-        <v>0</v>
-      </c>
-      <c r="AH72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:34">
+    </row>
+    <row r="73" spans="1:32">
       <c r="A73" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B73" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -6599,16 +6161,16 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J73" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="R73">
         <v>72</v>
       </c>
       <c r="S73" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T73">
         <v>36</v>
@@ -6617,13 +6179,13 @@
         <v>77</v>
       </c>
       <c r="V73" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="W73" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z73" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC73">
         <v>0</v>
@@ -6637,19 +6199,13 @@
       <c r="AF73">
         <v>0</v>
       </c>
-      <c r="AG73">
-        <v>0</v>
-      </c>
-      <c r="AH73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:34">
+    </row>
+    <row r="74" spans="1:32">
       <c r="A74" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B74" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -6667,16 +6223,16 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J74" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="R74">
         <v>73</v>
       </c>
       <c r="S74" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T74">
         <v>36</v>
@@ -6685,13 +6241,13 @@
         <v>77</v>
       </c>
       <c r="V74" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="W74" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z74" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC74">
         <v>0</v>
@@ -6705,19 +6261,13 @@
       <c r="AF74">
         <v>0</v>
       </c>
-      <c r="AG74">
-        <v>0</v>
-      </c>
-      <c r="AH74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:34">
+    </row>
+    <row r="75" spans="1:32">
       <c r="A75" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B75" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -6735,19 +6285,19 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I75" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J75" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="R75">
         <v>74</v>
       </c>
       <c r="S75" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T75">
         <v>37</v>
@@ -6756,13 +6306,13 @@
         <v>78</v>
       </c>
       <c r="V75" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="W75" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="Z75" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC75">
         <v>0</v>
@@ -6776,19 +6326,13 @@
       <c r="AF75">
         <v>0</v>
       </c>
-      <c r="AG75">
-        <v>0</v>
-      </c>
-      <c r="AH75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:34">
+    </row>
+    <row r="76" spans="1:32">
       <c r="A76" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B76" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -6806,16 +6350,16 @@
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="R76">
         <v>75</v>
       </c>
       <c r="S76" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T76">
         <v>38</v>
@@ -6824,13 +6368,13 @@
         <v>80</v>
       </c>
       <c r="V76" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="W76" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="Z76" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC76">
         <v>0</v>
@@ -6844,19 +6388,13 @@
       <c r="AF76">
         <v>0</v>
       </c>
-      <c r="AG76">
-        <v>0</v>
-      </c>
-      <c r="AH76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:34">
+    </row>
+    <row r="77" spans="1:32">
       <c r="A77" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B77" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -6874,16 +6412,16 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J77" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="R77">
         <v>76</v>
       </c>
       <c r="S77" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T77">
         <v>39</v>
@@ -6892,13 +6430,13 @@
         <v>81</v>
       </c>
       <c r="V77" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="W77" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z77" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC77">
         <v>0</v>
@@ -6912,19 +6450,13 @@
       <c r="AF77">
         <v>0</v>
       </c>
-      <c r="AG77">
-        <v>0</v>
-      </c>
-      <c r="AH77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:34">
+    </row>
+    <row r="78" spans="1:32">
       <c r="A78" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B78" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -6942,19 +6474,19 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I78" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J78" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="R78">
         <v>77</v>
       </c>
       <c r="S78" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T78">
         <v>40</v>
@@ -6963,13 +6495,13 @@
         <v>82</v>
       </c>
       <c r="V78" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="W78" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="Z78" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC78">
         <v>0</v>
@@ -6983,19 +6515,13 @@
       <c r="AF78">
         <v>0</v>
       </c>
-      <c r="AG78">
-        <v>0</v>
-      </c>
-      <c r="AH78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:34">
+    </row>
+    <row r="79" spans="1:32">
       <c r="A79" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B79" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -7013,16 +6539,16 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J79" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="R79">
         <v>78</v>
       </c>
       <c r="S79" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T79">
         <v>42</v>
@@ -7031,13 +6557,13 @@
         <v>84</v>
       </c>
       <c r="V79" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="W79" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="Z79" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC79">
         <v>0</v>
@@ -7051,19 +6577,13 @@
       <c r="AF79">
         <v>0</v>
       </c>
-      <c r="AG79">
-        <v>0</v>
-      </c>
-      <c r="AH79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:34">
+    </row>
+    <row r="80" spans="1:32">
       <c r="A80" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B80" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -7081,19 +6601,19 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I80" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J80" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="R80">
         <v>79</v>
       </c>
       <c r="S80" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T80">
         <v>44</v>
@@ -7102,13 +6622,13 @@
         <v>87</v>
       </c>
       <c r="V80" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="W80" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z80" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC80">
         <v>0</v>
@@ -7122,19 +6642,13 @@
       <c r="AF80">
         <v>0</v>
       </c>
-      <c r="AG80">
-        <v>0</v>
-      </c>
-      <c r="AH80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:34">
+    </row>
+    <row r="81" spans="1:32">
       <c r="A81" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B81" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -7152,19 +6666,19 @@
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I81" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J81" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="R81">
         <v>80</v>
       </c>
       <c r="S81" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T81">
         <v>44</v>
@@ -7173,13 +6687,13 @@
         <v>87</v>
       </c>
       <c r="V81" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="W81" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z81" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC81">
         <v>0</v>
@@ -7193,19 +6707,13 @@
       <c r="AF81">
         <v>0</v>
       </c>
-      <c r="AG81">
-        <v>0</v>
-      </c>
-      <c r="AH81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:34">
+    </row>
+    <row r="82" spans="1:32">
       <c r="A82" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B82" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -7223,19 +6731,19 @@
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I82" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J82" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R82">
         <v>81</v>
       </c>
       <c r="S82" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T82">
         <v>44</v>
@@ -7244,13 +6752,13 @@
         <v>87</v>
       </c>
       <c r="V82" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="W82" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z82" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC82">
         <v>0</v>
@@ -7264,19 +6772,13 @@
       <c r="AF82">
         <v>0</v>
       </c>
-      <c r="AG82">
-        <v>0</v>
-      </c>
-      <c r="AH82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:34">
+    </row>
+    <row r="83" spans="1:32">
       <c r="A83" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B83" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -7294,19 +6796,19 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I83" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J83" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="R83">
         <v>82</v>
       </c>
       <c r="S83" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T83">
         <v>44</v>
@@ -7315,13 +6817,13 @@
         <v>87</v>
       </c>
       <c r="V83" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="W83" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z83" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC83">
         <v>0</v>
@@ -7335,19 +6837,13 @@
       <c r="AF83">
         <v>0</v>
       </c>
-      <c r="AG83">
-        <v>0</v>
-      </c>
-      <c r="AH83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:34">
+    </row>
+    <row r="84" spans="1:32">
       <c r="A84" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B84" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -7365,19 +6861,19 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I84" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J84" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="R84">
         <v>83</v>
       </c>
       <c r="S84" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T84">
         <v>44</v>
@@ -7386,13 +6882,13 @@
         <v>87</v>
       </c>
       <c r="V84" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="W84" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z84" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC84">
         <v>0</v>
@@ -7406,19 +6902,13 @@
       <c r="AF84">
         <v>0</v>
       </c>
-      <c r="AG84">
-        <v>0</v>
-      </c>
-      <c r="AH84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:34">
+    </row>
+    <row r="85" spans="1:32">
       <c r="A85" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B85" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -7436,16 +6926,16 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J85" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="R85">
         <v>84</v>
       </c>
       <c r="S85" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T85">
         <v>44</v>
@@ -7454,13 +6944,13 @@
         <v>87</v>
       </c>
       <c r="V85" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="W85" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z85" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC85">
         <v>0</v>
@@ -7474,19 +6964,13 @@
       <c r="AF85">
         <v>0</v>
       </c>
-      <c r="AG85">
-        <v>0</v>
-      </c>
-      <c r="AH85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:34">
+    </row>
+    <row r="86" spans="1:32">
       <c r="A86" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B86" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -7504,16 +6988,16 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J86" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="R86">
         <v>85</v>
       </c>
       <c r="S86" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T86">
         <v>44</v>
@@ -7522,13 +7006,13 @@
         <v>87</v>
       </c>
       <c r="V86" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="W86" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z86" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC86">
         <v>0</v>
@@ -7542,19 +7026,13 @@
       <c r="AF86">
         <v>0</v>
       </c>
-      <c r="AG86">
-        <v>0</v>
-      </c>
-      <c r="AH86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:34">
+    </row>
+    <row r="87" spans="1:32">
       <c r="A87" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B87" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -7572,19 +7050,19 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I87" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J87" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="R87">
         <v>86</v>
       </c>
       <c r="S87" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T87">
         <v>45</v>
@@ -7593,13 +7071,13 @@
         <v>88</v>
       </c>
       <c r="V87" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="W87" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Z87" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AC87">
         <v>0</v>
@@ -7613,19 +7091,13 @@
       <c r="AF87">
         <v>0</v>
       </c>
-      <c r="AG87">
-        <v>0</v>
-      </c>
-      <c r="AH87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:34">
+    </row>
+    <row r="88" spans="1:32">
       <c r="A88" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B88" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -7643,16 +7115,16 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J88" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="R88">
         <v>87</v>
       </c>
       <c r="S88" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T88">
         <v>45</v>
@@ -7661,13 +7133,13 @@
         <v>88</v>
       </c>
       <c r="V88" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="W88" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Z88" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AC88">
         <v>0</v>
@@ -7681,19 +7153,13 @@
       <c r="AF88">
         <v>0</v>
       </c>
-      <c r="AG88">
-        <v>0</v>
-      </c>
-      <c r="AH88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:34">
+    </row>
+    <row r="89" spans="1:32">
       <c r="A89" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B89" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -7711,16 +7177,16 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J89" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="R89">
         <v>88</v>
       </c>
       <c r="S89" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T89">
         <v>46</v>
@@ -7729,13 +7195,13 @@
         <v>90</v>
       </c>
       <c r="V89" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="W89" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z89" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC89">
         <v>0</v>
@@ -7749,19 +7215,13 @@
       <c r="AF89">
         <v>0</v>
       </c>
-      <c r="AG89">
-        <v>0</v>
-      </c>
-      <c r="AH89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:34">
+    </row>
+    <row r="90" spans="1:32">
       <c r="A90" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B90" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -7779,16 +7239,16 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J90" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="R90">
         <v>89</v>
       </c>
       <c r="S90" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T90">
         <v>46</v>
@@ -7797,13 +7257,13 @@
         <v>90</v>
       </c>
       <c r="V90" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="W90" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z90" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC90">
         <v>0</v>
@@ -7817,19 +7277,13 @@
       <c r="AF90">
         <v>0</v>
       </c>
-      <c r="AG90">
-        <v>0</v>
-      </c>
-      <c r="AH90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:34">
+    </row>
+    <row r="91" spans="1:32">
       <c r="A91" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B91" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -7847,16 +7301,16 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J91" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="R91">
         <v>90</v>
       </c>
       <c r="S91" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T91">
         <v>46</v>
@@ -7865,13 +7319,13 @@
         <v>90</v>
       </c>
       <c r="V91" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="W91" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z91" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC91">
         <v>0</v>
@@ -7885,19 +7339,13 @@
       <c r="AF91">
         <v>0</v>
       </c>
-      <c r="AG91">
-        <v>0</v>
-      </c>
-      <c r="AH91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:34">
+    </row>
+    <row r="92" spans="1:32">
       <c r="A92" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B92" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -7915,16 +7363,16 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J92" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="R92">
         <v>91</v>
       </c>
       <c r="S92" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T92">
         <v>47</v>
@@ -7933,13 +7381,13 @@
         <v>91</v>
       </c>
       <c r="V92" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="W92" s="2">
         <v>45043.91625</v>
       </c>
       <c r="Z92" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC92">
         <v>0</v>
@@ -7953,19 +7401,13 @@
       <c r="AF92">
         <v>0</v>
       </c>
-      <c r="AG92">
-        <v>0</v>
-      </c>
-      <c r="AH92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:34">
+    </row>
+    <row r="93" spans="1:32">
       <c r="A93" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B93" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -7983,16 +7425,16 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J93" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R93">
         <v>92</v>
       </c>
       <c r="S93" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T93">
         <v>48</v>
@@ -8001,13 +7443,13 @@
         <v>92</v>
       </c>
       <c r="V93" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="W93" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="Z93" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC93">
         <v>0</v>
@@ -8021,19 +7463,13 @@
       <c r="AF93">
         <v>0</v>
       </c>
-      <c r="AG93">
-        <v>0</v>
-      </c>
-      <c r="AH93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:34">
+    </row>
+    <row r="94" spans="1:32">
       <c r="A94" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B94" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -8051,16 +7487,16 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J94" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="R94">
         <v>93</v>
       </c>
       <c r="S94" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T94">
         <v>48</v>
@@ -8069,13 +7505,13 @@
         <v>92</v>
       </c>
       <c r="V94" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="W94" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="Z94" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC94">
         <v>0</v>
@@ -8089,19 +7525,13 @@
       <c r="AF94">
         <v>0</v>
       </c>
-      <c r="AG94">
-        <v>0</v>
-      </c>
-      <c r="AH94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:34">
+    </row>
+    <row r="95" spans="1:32">
       <c r="A95" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B95" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -8119,19 +7549,19 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I95" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J95" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="R95">
         <v>94</v>
       </c>
       <c r="S95" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T95">
         <v>49</v>
@@ -8140,13 +7570,13 @@
         <v>93</v>
       </c>
       <c r="V95" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="W95" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Z95" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC95">
         <v>0</v>
@@ -8160,19 +7590,13 @@
       <c r="AF95">
         <v>0</v>
       </c>
-      <c r="AG95">
-        <v>0</v>
-      </c>
-      <c r="AH95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:34">
+    </row>
+    <row r="96" spans="1:32">
       <c r="A96" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B96" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -8190,19 +7614,19 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I96" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J96" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="R96">
         <v>95</v>
       </c>
       <c r="S96" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T96">
         <v>49</v>
@@ -8211,13 +7635,13 @@
         <v>93</v>
       </c>
       <c r="V96" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="W96" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Z96" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC96">
         <v>0</v>
@@ -8231,19 +7655,13 @@
       <c r="AF96">
         <v>0</v>
       </c>
-      <c r="AG96">
-        <v>0</v>
-      </c>
-      <c r="AH96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:34">
+    </row>
+    <row r="97" spans="1:32">
       <c r="A97" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B97" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -8261,19 +7679,19 @@
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I97" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J97" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="R97">
         <v>96</v>
       </c>
       <c r="S97" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T97">
         <v>50</v>
@@ -8282,13 +7700,13 @@
         <v>94</v>
       </c>
       <c r="V97" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="W97" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="Z97" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC97">
         <v>0</v>
@@ -8302,19 +7720,13 @@
       <c r="AF97">
         <v>0</v>
       </c>
-      <c r="AG97">
-        <v>0</v>
-      </c>
-      <c r="AH97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:34">
+    </row>
+    <row r="98" spans="1:32">
       <c r="A98" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B98" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -8332,19 +7744,19 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I98" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J98" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="R98">
         <v>97</v>
       </c>
       <c r="S98" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T98">
         <v>51</v>
@@ -8353,13 +7765,13 @@
         <v>95</v>
       </c>
       <c r="V98" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="W98" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z98" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC98">
         <v>0</v>
@@ -8373,19 +7785,13 @@
       <c r="AF98">
         <v>0</v>
       </c>
-      <c r="AG98">
-        <v>0</v>
-      </c>
-      <c r="AH98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:34">
+    </row>
+    <row r="99" spans="1:32">
       <c r="A99" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B99" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -8403,16 +7809,16 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J99" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="R99">
         <v>98</v>
       </c>
       <c r="S99" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T99">
         <v>53</v>
@@ -8421,13 +7827,13 @@
         <v>98</v>
       </c>
       <c r="V99" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="W99" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="Z99" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AC99">
         <v>0</v>
@@ -8441,19 +7847,13 @@
       <c r="AF99">
         <v>0</v>
       </c>
-      <c r="AG99">
-        <v>0</v>
-      </c>
-      <c r="AH99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:34">
+    </row>
+    <row r="100" spans="1:32">
       <c r="A100" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B100" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -8471,16 +7871,16 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J100" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="R100">
         <v>99</v>
       </c>
       <c r="S100" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T100">
         <v>54</v>
@@ -8489,13 +7889,13 @@
         <v>99</v>
       </c>
       <c r="V100" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W100" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z100" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC100">
         <v>0</v>
@@ -8509,19 +7909,13 @@
       <c r="AF100">
         <v>0</v>
       </c>
-      <c r="AG100">
-        <v>0</v>
-      </c>
-      <c r="AH100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:34">
+    </row>
+    <row r="101" spans="1:32">
       <c r="A101" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B101" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -8539,16 +7933,16 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J101" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="R101">
         <v>100</v>
       </c>
       <c r="S101" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T101">
         <v>54</v>
@@ -8557,13 +7951,13 @@
         <v>99</v>
       </c>
       <c r="V101" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W101" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z101" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC101">
         <v>0</v>
@@ -8577,19 +7971,13 @@
       <c r="AF101">
         <v>0</v>
       </c>
-      <c r="AG101">
-        <v>0</v>
-      </c>
-      <c r="AH101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:34">
+    </row>
+    <row r="102" spans="1:32">
       <c r="A102" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B102" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8607,16 +7995,16 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J102" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="R102">
         <v>101</v>
       </c>
       <c r="S102" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T102">
         <v>54</v>
@@ -8625,13 +8013,13 @@
         <v>99</v>
       </c>
       <c r="V102" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W102" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z102" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC102">
         <v>0</v>
@@ -8645,19 +8033,13 @@
       <c r="AF102">
         <v>0</v>
       </c>
-      <c r="AG102">
-        <v>0</v>
-      </c>
-      <c r="AH102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:34">
+    </row>
+    <row r="103" spans="1:32">
       <c r="A103" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B103" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8675,16 +8057,16 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J103" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="R103">
         <v>102</v>
       </c>
       <c r="S103" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T103">
         <v>54</v>
@@ -8693,13 +8075,13 @@
         <v>99</v>
       </c>
       <c r="V103" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W103" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z103" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC103">
         <v>0</v>
@@ -8713,19 +8095,13 @@
       <c r="AF103">
         <v>0</v>
       </c>
-      <c r="AG103">
-        <v>0</v>
-      </c>
-      <c r="AH103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:34">
+    </row>
+    <row r="104" spans="1:32">
       <c r="A104" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B104" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8743,16 +8119,16 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J104" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="R104">
         <v>103</v>
       </c>
       <c r="S104" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T104">
         <v>54</v>
@@ -8761,13 +8137,13 @@
         <v>99</v>
       </c>
       <c r="V104" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W104" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z104" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC104">
         <v>0</v>
@@ -8781,19 +8157,13 @@
       <c r="AF104">
         <v>0</v>
       </c>
-      <c r="AG104">
-        <v>0</v>
-      </c>
-      <c r="AH104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:34">
+    </row>
+    <row r="105" spans="1:32">
       <c r="A105" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B105" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8811,16 +8181,16 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J105" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="R105">
         <v>104</v>
       </c>
       <c r="S105" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T105">
         <v>54</v>
@@ -8829,13 +8199,13 @@
         <v>99</v>
       </c>
       <c r="V105" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W105" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z105" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC105">
         <v>0</v>
@@ -8849,19 +8219,13 @@
       <c r="AF105">
         <v>0</v>
       </c>
-      <c r="AG105">
-        <v>0</v>
-      </c>
-      <c r="AH105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:34">
+    </row>
+    <row r="106" spans="1:32">
       <c r="A106" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B106" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8879,16 +8243,16 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J106" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="R106">
         <v>105</v>
       </c>
       <c r="S106" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T106">
         <v>54</v>
@@ -8897,13 +8261,13 @@
         <v>99</v>
       </c>
       <c r="V106" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W106" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z106" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC106">
         <v>0</v>
@@ -8917,19 +8281,13 @@
       <c r="AF106">
         <v>0</v>
       </c>
-      <c r="AG106">
-        <v>0</v>
-      </c>
-      <c r="AH106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:34">
+    </row>
+    <row r="107" spans="1:32">
       <c r="A107" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B107" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8947,16 +8305,16 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J107" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="R107">
         <v>106</v>
       </c>
       <c r="S107" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T107">
         <v>54</v>
@@ -8965,13 +8323,13 @@
         <v>99</v>
       </c>
       <c r="V107" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W107" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z107" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC107">
         <v>0</v>
@@ -8985,19 +8343,13 @@
       <c r="AF107">
         <v>0</v>
       </c>
-      <c r="AG107">
-        <v>0</v>
-      </c>
-      <c r="AH107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:34">
+    </row>
+    <row r="108" spans="1:32">
       <c r="A108" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B108" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -9015,16 +8367,16 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J108" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="R108">
         <v>107</v>
       </c>
       <c r="S108" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T108">
         <v>55</v>
@@ -9033,13 +8385,13 @@
         <v>100</v>
       </c>
       <c r="V108" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="W108" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Z108" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC108">
         <v>0</v>
@@ -9053,19 +8405,13 @@
       <c r="AF108">
         <v>0</v>
       </c>
-      <c r="AG108">
-        <v>0</v>
-      </c>
-      <c r="AH108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:34">
+    </row>
+    <row r="109" spans="1:32">
       <c r="A109" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B109" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -9083,16 +8429,16 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J109" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="R109">
         <v>108</v>
       </c>
       <c r="S109" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T109">
         <v>55</v>
@@ -9101,13 +8447,13 @@
         <v>100</v>
       </c>
       <c r="V109" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="W109" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Z109" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC109">
         <v>0</v>
@@ -9121,19 +8467,13 @@
       <c r="AF109">
         <v>0</v>
       </c>
-      <c r="AG109">
-        <v>0</v>
-      </c>
-      <c r="AH109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:34">
+    </row>
+    <row r="110" spans="1:32">
       <c r="A110" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B110" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -9151,16 +8491,16 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J110" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="R110">
         <v>109</v>
       </c>
       <c r="S110" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T110">
         <v>55</v>
@@ -9169,13 +8509,13 @@
         <v>100</v>
       </c>
       <c r="V110" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="W110" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Z110" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC110">
         <v>0</v>
@@ -9189,19 +8529,13 @@
       <c r="AF110">
         <v>0</v>
       </c>
-      <c r="AG110">
-        <v>0</v>
-      </c>
-      <c r="AH110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:34">
+    </row>
+    <row r="111" spans="1:32">
       <c r="A111" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B111" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -9219,16 +8553,16 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J111" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="R111">
         <v>110</v>
       </c>
       <c r="S111" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T111">
         <v>56</v>
@@ -9237,13 +8571,13 @@
         <v>101</v>
       </c>
       <c r="V111" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="W111" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Z111" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC111">
         <v>0</v>
@@ -9257,19 +8591,13 @@
       <c r="AF111">
         <v>0</v>
       </c>
-      <c r="AG111">
-        <v>0</v>
-      </c>
-      <c r="AH111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:34">
+    </row>
+    <row r="112" spans="1:32">
       <c r="A112" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B112" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -9287,19 +8615,19 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I112" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J112" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="R112">
         <v>111</v>
       </c>
       <c r="S112" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T112">
         <v>57</v>
@@ -9308,13 +8636,13 @@
         <v>102</v>
       </c>
       <c r="V112" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="W112" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="Z112" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC112">
         <v>0</v>
@@ -9328,19 +8656,13 @@
       <c r="AF112">
         <v>0</v>
       </c>
-      <c r="AG112">
-        <v>0</v>
-      </c>
-      <c r="AH112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:34">
+    </row>
+    <row r="113" spans="1:32">
       <c r="A113" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B113" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -9358,16 +8680,16 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J113" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="R113">
         <v>112</v>
       </c>
       <c r="S113" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T113">
         <v>58</v>
@@ -9376,13 +8698,13 @@
         <v>103</v>
       </c>
       <c r="V113" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="W113" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="Z113" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC113">
         <v>0</v>
@@ -9396,19 +8718,13 @@
       <c r="AF113">
         <v>0</v>
       </c>
-      <c r="AG113">
-        <v>0</v>
-      </c>
-      <c r="AH113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:34">
+    </row>
+    <row r="114" spans="1:32">
       <c r="A114" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B114" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -9426,16 +8742,16 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J114" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="R114">
         <v>113</v>
       </c>
       <c r="S114" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T114">
         <v>59</v>
@@ -9444,13 +8760,13 @@
         <v>104</v>
       </c>
       <c r="V114" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="W114" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z114" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC114">
         <v>0</v>
@@ -9464,19 +8780,13 @@
       <c r="AF114">
         <v>0</v>
       </c>
-      <c r="AG114">
-        <v>0</v>
-      </c>
-      <c r="AH114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:34">
+    </row>
+    <row r="115" spans="1:32">
       <c r="A115" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B115" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -9494,16 +8804,16 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J115" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="R115">
         <v>114</v>
       </c>
       <c r="S115" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T115">
         <v>59</v>
@@ -9512,13 +8822,13 @@
         <v>104</v>
       </c>
       <c r="V115" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="W115" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z115" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC115">
         <v>0</v>
@@ -9532,19 +8842,13 @@
       <c r="AF115">
         <v>0</v>
       </c>
-      <c r="AG115">
-        <v>0</v>
-      </c>
-      <c r="AH115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:34">
+    </row>
+    <row r="116" spans="1:32">
       <c r="A116" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B116" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -9562,16 +8866,16 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J116" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="R116">
         <v>115</v>
       </c>
       <c r="S116" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T116">
         <v>59</v>
@@ -9580,13 +8884,13 @@
         <v>104</v>
       </c>
       <c r="V116" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="W116" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z116" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC116">
         <v>0</v>
@@ -9600,19 +8904,13 @@
       <c r="AF116">
         <v>0</v>
       </c>
-      <c r="AG116">
-        <v>0</v>
-      </c>
-      <c r="AH116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:34">
+    </row>
+    <row r="117" spans="1:32">
       <c r="A117" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B117" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -9630,16 +8928,16 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J117" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="R117">
         <v>116</v>
       </c>
       <c r="S117" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T117">
         <v>59</v>
@@ -9648,13 +8946,13 @@
         <v>104</v>
       </c>
       <c r="V117" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="W117" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z117" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC117">
         <v>0</v>
@@ -9668,19 +8966,13 @@
       <c r="AF117">
         <v>0</v>
       </c>
-      <c r="AG117">
-        <v>0</v>
-      </c>
-      <c r="AH117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:34">
+    </row>
+    <row r="118" spans="1:32">
       <c r="A118" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B118" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9698,16 +8990,16 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J118" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="R118">
         <v>117</v>
       </c>
       <c r="S118" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T118">
         <v>59</v>
@@ -9716,13 +9008,13 @@
         <v>104</v>
       </c>
       <c r="V118" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="W118" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z118" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC118">
         <v>0</v>
@@ -9736,19 +9028,13 @@
       <c r="AF118">
         <v>0</v>
       </c>
-      <c r="AG118">
-        <v>0</v>
-      </c>
-      <c r="AH118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:34">
+    </row>
+    <row r="119" spans="1:32">
       <c r="A119" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B119" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -9766,16 +9052,16 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J119" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="R119">
         <v>118</v>
       </c>
       <c r="S119" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T119">
         <v>61</v>
@@ -9784,13 +9070,13 @@
         <v>106</v>
       </c>
       <c r="V119" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="W119" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="Z119" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC119">
         <v>0</v>
@@ -9804,19 +9090,13 @@
       <c r="AF119">
         <v>0</v>
       </c>
-      <c r="AG119">
-        <v>0</v>
-      </c>
-      <c r="AH119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:34">
+    </row>
+    <row r="120" spans="1:32">
       <c r="A120" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B120" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -9834,16 +9114,16 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J120" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="R120">
         <v>119</v>
       </c>
       <c r="S120" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T120">
         <v>63</v>
@@ -9852,13 +9132,13 @@
         <v>110</v>
       </c>
       <c r="V120" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="W120" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="Z120" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC120">
         <v>0</v>
@@ -9872,19 +9152,13 @@
       <c r="AF120">
         <v>0</v>
       </c>
-      <c r="AG120">
-        <v>0</v>
-      </c>
-      <c r="AH120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:34">
+    </row>
+    <row r="121" spans="1:32">
       <c r="A121" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B121" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -9902,16 +9176,16 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J121" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="R121">
         <v>120</v>
       </c>
       <c r="S121" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T121">
         <v>64</v>
@@ -9920,13 +9194,13 @@
         <v>111</v>
       </c>
       <c r="V121" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="W121" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="Z121" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC121">
         <v>0</v>
@@ -9940,19 +9214,13 @@
       <c r="AF121">
         <v>0</v>
       </c>
-      <c r="AG121">
-        <v>0</v>
-      </c>
-      <c r="AH121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:34">
+    </row>
+    <row r="122" spans="1:32">
       <c r="A122" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B122" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -9970,16 +9238,16 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J122" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="R122">
         <v>121</v>
       </c>
       <c r="S122" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T122">
         <v>65</v>
@@ -9988,13 +9256,13 @@
         <v>113</v>
       </c>
       <c r="V122" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="W122" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="Z122" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC122">
         <v>0</v>
@@ -10008,19 +9276,13 @@
       <c r="AF122">
         <v>0</v>
       </c>
-      <c r="AG122">
-        <v>0</v>
-      </c>
-      <c r="AH122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:34">
+    </row>
+    <row r="123" spans="1:32">
       <c r="A123" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B123" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -10038,16 +9300,16 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J123" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="R123">
         <v>122</v>
       </c>
       <c r="S123" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T123">
         <v>67</v>
@@ -10056,13 +9318,13 @@
         <v>115</v>
       </c>
       <c r="V123" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="W123" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="Z123" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AC123">
         <v>0</v>
@@ -10076,19 +9338,13 @@
       <c r="AF123">
         <v>0</v>
       </c>
-      <c r="AG123">
-        <v>0</v>
-      </c>
-      <c r="AH123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:34">
+    </row>
+    <row r="124" spans="1:32">
       <c r="A124" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B124" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -10106,16 +9362,16 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J124" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="R124">
         <v>123</v>
       </c>
       <c r="S124" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T124">
         <v>67</v>
@@ -10124,13 +9380,13 @@
         <v>115</v>
       </c>
       <c r="V124" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="W124" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="Z124" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AC124">
         <v>0</v>
@@ -10144,19 +9400,13 @@
       <c r="AF124">
         <v>0</v>
       </c>
-      <c r="AG124">
-        <v>0</v>
-      </c>
-      <c r="AH124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:34">
+    </row>
+    <row r="125" spans="1:32">
       <c r="A125" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B125" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -10174,16 +9424,16 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J125" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="R125">
         <v>124</v>
       </c>
       <c r="S125" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T125">
         <v>70</v>
@@ -10192,13 +9442,13 @@
         <v>119</v>
       </c>
       <c r="V125" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="W125" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z125" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC125">
         <v>0</v>
@@ -10212,19 +9462,13 @@
       <c r="AF125">
         <v>0</v>
       </c>
-      <c r="AG125">
-        <v>0</v>
-      </c>
-      <c r="AH125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:34">
+    </row>
+    <row r="126" spans="1:32">
       <c r="A126" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B126" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -10242,16 +9486,16 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J126" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="R126">
         <v>125</v>
       </c>
       <c r="S126" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T126">
         <v>70</v>
@@ -10260,13 +9504,13 @@
         <v>119</v>
       </c>
       <c r="V126" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="W126" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z126" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC126">
         <v>0</v>
@@ -10280,19 +9524,13 @@
       <c r="AF126">
         <v>0</v>
       </c>
-      <c r="AG126">
-        <v>0</v>
-      </c>
-      <c r="AH126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:34">
+    </row>
+    <row r="127" spans="1:32">
       <c r="A127" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B127" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -10310,16 +9548,16 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J127" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="R127">
         <v>126</v>
       </c>
       <c r="S127" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T127">
         <v>70</v>
@@ -10328,13 +9566,13 @@
         <v>119</v>
       </c>
       <c r="V127" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="W127" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z127" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC127">
         <v>0</v>
@@ -10348,19 +9586,13 @@
       <c r="AF127">
         <v>0</v>
       </c>
-      <c r="AG127">
-        <v>0</v>
-      </c>
-      <c r="AH127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:34">
+    </row>
+    <row r="128" spans="1:32">
       <c r="A128" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B128" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -10378,16 +9610,16 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J128" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="R128">
         <v>127</v>
       </c>
       <c r="S128" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T128">
         <v>70</v>
@@ -10396,13 +9628,13 @@
         <v>119</v>
       </c>
       <c r="V128" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="W128" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z128" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC128">
         <v>0</v>
@@ -10416,19 +9648,13 @@
       <c r="AF128">
         <v>0</v>
       </c>
-      <c r="AG128">
-        <v>0</v>
-      </c>
-      <c r="AH128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:34">
+    </row>
+    <row r="129" spans="1:32">
       <c r="A129" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B129" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -10446,16 +9672,16 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J129" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="R129">
         <v>128</v>
       </c>
       <c r="S129" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T129">
         <v>70</v>
@@ -10464,13 +9690,13 @@
         <v>119</v>
       </c>
       <c r="V129" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="W129" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z129" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC129">
         <v>0</v>
@@ -10484,19 +9710,13 @@
       <c r="AF129">
         <v>0</v>
       </c>
-      <c r="AG129">
-        <v>0</v>
-      </c>
-      <c r="AH129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:34">
+    </row>
+    <row r="130" spans="1:32">
       <c r="A130" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B130" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -10514,16 +9734,16 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J130" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="R130">
         <v>129</v>
       </c>
       <c r="S130" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T130">
         <v>70</v>
@@ -10532,13 +9752,13 @@
         <v>119</v>
       </c>
       <c r="V130" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="W130" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z130" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC130">
         <v>0</v>
@@ -10552,19 +9772,13 @@
       <c r="AF130">
         <v>0</v>
       </c>
-      <c r="AG130">
-        <v>0</v>
-      </c>
-      <c r="AH130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:34">
+    </row>
+    <row r="131" spans="1:32">
       <c r="A131" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B131" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -10582,16 +9796,16 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J131" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="R131">
         <v>130</v>
       </c>
       <c r="S131" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T131">
         <v>70</v>
@@ -10600,13 +9814,13 @@
         <v>119</v>
       </c>
       <c r="V131" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="W131" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z131" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC131">
         <v>0</v>
@@ -10620,19 +9834,13 @@
       <c r="AF131">
         <v>0</v>
       </c>
-      <c r="AG131">
-        <v>0</v>
-      </c>
-      <c r="AH131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:34">
+    </row>
+    <row r="132" spans="1:32">
       <c r="A132" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B132" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -10650,16 +9858,16 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J132" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="R132">
         <v>131</v>
       </c>
       <c r="S132" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T132">
         <v>70</v>
@@ -10668,13 +9876,13 @@
         <v>119</v>
       </c>
       <c r="V132" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="W132" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z132" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC132">
         <v>0</v>
@@ -10688,19 +9896,13 @@
       <c r="AF132">
         <v>0</v>
       </c>
-      <c r="AG132">
-        <v>0</v>
-      </c>
-      <c r="AH132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:34">
+    </row>
+    <row r="133" spans="1:32">
       <c r="A133" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B133" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -10718,16 +9920,16 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J133" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="R133">
         <v>132</v>
       </c>
       <c r="S133" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T133">
         <v>70</v>
@@ -10736,13 +9938,13 @@
         <v>119</v>
       </c>
       <c r="V133" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="W133" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z133" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC133">
         <v>0</v>
@@ -10756,20 +9958,14 @@
       <c r="AF133">
         <v>0</v>
       </c>
-      <c r="AG133">
-        <v>0</v>
-      </c>
-      <c r="AH133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:34">
+    </row>
+    <row r="134" spans="1:32">
       <c r="A134" t="s">
+        <v>161</v>
+      </c>
+      <c r="B134" t="s">
         <v>163</v>
       </c>
-      <c r="B134" t="s">
-        <v>165</v>
-      </c>
       <c r="C134">
         <v>1</v>
       </c>
@@ -10786,16 +9982,16 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J134" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="R134">
         <v>133</v>
       </c>
       <c r="S134" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T134">
         <v>70</v>
@@ -10804,13 +10000,13 @@
         <v>119</v>
       </c>
       <c r="V134" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="W134" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z134" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC134">
         <v>0</v>
@@ -10824,19 +10020,13 @@
       <c r="AF134">
         <v>0</v>
       </c>
-      <c r="AG134">
-        <v>0</v>
-      </c>
-      <c r="AH134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:34">
+    </row>
+    <row r="135" spans="1:32">
       <c r="A135" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B135" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -10854,19 +10044,19 @@
         <v>0</v>
       </c>
       <c r="H135" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I135" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J135" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="R135">
         <v>134</v>
       </c>
       <c r="S135" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T135">
         <v>70</v>
@@ -10875,13 +10065,13 @@
         <v>119</v>
       </c>
       <c r="V135" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="W135" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z135" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC135">
         <v>0</v>
@@ -10893,12 +10083,6 @@
         <v>0</v>
       </c>
       <c r="AF135">
-        <v>0</v>
-      </c>
-      <c r="AG135">
-        <v>0</v>
-      </c>
-      <c r="AH135">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p15.xlsx
+++ b/files/separadas/repeat_p15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="397">
   <si>
     <t>p15_nom</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>c3</t>
+  </si>
+  <si>
+    <t>l1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -1602,13 +1605,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AG135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1705,13 +1708,16 @@
       <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:32">
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1729,16 +1735,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T2">
         <v>2</v>
@@ -1747,13 +1753,13 @@
         <v>6</v>
       </c>
       <c r="V2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="W2" s="2">
         <v>44998.82651620371</v>
       </c>
       <c r="Z2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -1767,13 +1773,16 @@
       <c r="AF2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:32">
+      <c r="AG2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1791,16 +1800,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="R3">
         <v>2</v>
       </c>
       <c r="S3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T3">
         <v>3</v>
@@ -1809,13 +1818,13 @@
         <v>7</v>
       </c>
       <c r="V3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="W3" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="Z3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -1829,13 +1838,16 @@
       <c r="AF3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:32">
+      <c r="AG3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1853,19 +1865,19 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="R4">
         <v>3</v>
       </c>
       <c r="S4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T4">
         <v>4</v>
@@ -1874,13 +1886,13 @@
         <v>9</v>
       </c>
       <c r="V4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="W4" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="Z4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -1894,13 +1906,16 @@
       <c r="AF4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:32">
+      <c r="AG4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1918,16 +1933,16 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="R5">
         <v>4</v>
       </c>
       <c r="S5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T5">
         <v>5</v>
@@ -1936,13 +1951,13 @@
         <v>10</v>
       </c>
       <c r="V5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="W5" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1956,13 +1971,16 @@
       <c r="AF5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:32">
+      <c r="AG5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1980,16 +1998,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="R6">
         <v>5</v>
       </c>
       <c r="S6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T6">
         <v>5</v>
@@ -1998,13 +2016,13 @@
         <v>10</v>
       </c>
       <c r="V6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="W6" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -2018,13 +2036,16 @@
       <c r="AF6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:32">
+      <c r="AG6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2042,16 +2063,16 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="R7">
         <v>6</v>
       </c>
       <c r="S7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T7">
         <v>5</v>
@@ -2060,13 +2081,13 @@
         <v>10</v>
       </c>
       <c r="V7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="W7" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="Z7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -2080,13 +2101,16 @@
       <c r="AF7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:32">
+      <c r="AG7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2104,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="R8">
         <v>7</v>
       </c>
       <c r="S8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T8">
         <v>6</v>
@@ -2122,13 +2146,13 @@
         <v>12</v>
       </c>
       <c r="V8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="W8" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="Z8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -2142,13 +2166,16 @@
       <c r="AF8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:32">
+      <c r="AG8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2166,16 +2193,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="R9">
         <v>8</v>
       </c>
       <c r="S9" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T9">
         <v>7</v>
@@ -2184,13 +2211,13 @@
         <v>13</v>
       </c>
       <c r="V9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="W9" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="Z9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -2204,13 +2231,16 @@
       <c r="AF9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:32">
+      <c r="AG9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2228,16 +2258,16 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="R10">
         <v>9</v>
       </c>
       <c r="S10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T10">
         <v>9</v>
@@ -2246,13 +2276,13 @@
         <v>15</v>
       </c>
       <c r="V10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="W10" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Z10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -2266,13 +2296,16 @@
       <c r="AF10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:32">
+      <c r="AG10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2290,16 +2323,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="R11">
         <v>10</v>
       </c>
       <c r="S11" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T11">
         <v>10</v>
@@ -2308,13 +2341,13 @@
         <v>16</v>
       </c>
       <c r="V11" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="W11" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="Z11" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -2328,13 +2361,16 @@
       <c r="AF11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:32">
+      <c r="AG11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2352,16 +2388,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="R12">
         <v>11</v>
       </c>
       <c r="S12" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T12">
         <v>11</v>
@@ -2370,13 +2406,13 @@
         <v>17</v>
       </c>
       <c r="V12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W12" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z12" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -2390,13 +2426,16 @@
       <c r="AF12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:32">
+      <c r="AG12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2414,16 +2453,16 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R13">
         <v>12</v>
       </c>
       <c r="S13" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T13">
         <v>11</v>
@@ -2432,13 +2471,13 @@
         <v>17</v>
       </c>
       <c r="V13" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W13" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -2452,13 +2491,16 @@
       <c r="AF13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:32">
+      <c r="AG13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2476,16 +2518,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="R14">
         <v>13</v>
       </c>
       <c r="S14" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T14">
         <v>11</v>
@@ -2494,13 +2536,13 @@
         <v>17</v>
       </c>
       <c r="V14" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W14" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z14" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -2514,13 +2556,16 @@
       <c r="AF14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:32">
+      <c r="AG14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2538,16 +2583,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="R15">
         <v>14</v>
       </c>
       <c r="S15" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T15">
         <v>11</v>
@@ -2556,13 +2601,13 @@
         <v>17</v>
       </c>
       <c r="V15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W15" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z15" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -2576,13 +2621,16 @@
       <c r="AF15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:32">
+      <c r="AG15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2600,16 +2648,16 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="R16">
         <v>15</v>
       </c>
       <c r="S16" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T16">
         <v>11</v>
@@ -2618,13 +2666,13 @@
         <v>17</v>
       </c>
       <c r="V16" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W16" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z16" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC16">
         <v>0</v>
@@ -2638,13 +2686,16 @@
       <c r="AF16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:32">
+      <c r="AG16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2662,16 +2713,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="R17">
         <v>16</v>
       </c>
       <c r="S17" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T17">
         <v>11</v>
@@ -2680,13 +2731,13 @@
         <v>17</v>
       </c>
       <c r="V17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W17" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z17" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC17">
         <v>0</v>
@@ -2700,13 +2751,16 @@
       <c r="AF17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:32">
+      <c r="AG17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2724,16 +2778,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="R18">
         <v>17</v>
       </c>
       <c r="S18" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T18">
         <v>11</v>
@@ -2742,13 +2796,13 @@
         <v>17</v>
       </c>
       <c r="V18" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W18" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z18" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC18">
         <v>0</v>
@@ -2762,13 +2816,16 @@
       <c r="AF18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:32">
+      <c r="AG18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2786,16 +2843,16 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="R19">
         <v>18</v>
       </c>
       <c r="S19" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T19">
         <v>11</v>
@@ -2804,13 +2861,13 @@
         <v>17</v>
       </c>
       <c r="V19" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W19" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z19" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC19">
         <v>0</v>
@@ -2824,13 +2881,16 @@
       <c r="AF19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:32">
+      <c r="AG19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2848,16 +2908,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="R20">
         <v>19</v>
       </c>
       <c r="S20" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T20">
         <v>11</v>
@@ -2866,13 +2926,13 @@
         <v>17</v>
       </c>
       <c r="V20" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W20" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z20" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC20">
         <v>0</v>
@@ -2886,13 +2946,16 @@
       <c r="AF20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:32">
+      <c r="AG20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2910,16 +2973,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J21" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="R21">
         <v>20</v>
       </c>
       <c r="S21" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T21">
         <v>11</v>
@@ -2928,13 +2991,13 @@
         <v>17</v>
       </c>
       <c r="V21" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W21" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z21" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC21">
         <v>0</v>
@@ -2948,13 +3011,16 @@
       <c r="AF21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:32">
+      <c r="AG21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2972,16 +3038,16 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J22" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="R22">
         <v>21</v>
       </c>
       <c r="S22" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T22">
         <v>11</v>
@@ -2990,13 +3056,13 @@
         <v>17</v>
       </c>
       <c r="V22" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W22" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z22" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC22">
         <v>0</v>
@@ -3010,13 +3076,16 @@
       <c r="AF22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:32">
+      <c r="AG22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -3034,16 +3103,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J23" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="R23">
         <v>22</v>
       </c>
       <c r="S23" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T23">
         <v>11</v>
@@ -3052,13 +3121,13 @@
         <v>17</v>
       </c>
       <c r="V23" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W23" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z23" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC23">
         <v>0</v>
@@ -3072,13 +3141,16 @@
       <c r="AF23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:32">
+      <c r="AG23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -3096,16 +3168,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="R24">
         <v>23</v>
       </c>
       <c r="S24" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T24">
         <v>12</v>
@@ -3114,13 +3186,13 @@
         <v>18</v>
       </c>
       <c r="V24" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="W24" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="Z24" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC24">
         <v>0</v>
@@ -3134,13 +3206,16 @@
       <c r="AF24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:32">
+      <c r="AG24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -3158,16 +3233,16 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J25" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="R25">
         <v>24</v>
       </c>
       <c r="S25" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T25">
         <v>13</v>
@@ -3176,13 +3251,13 @@
         <v>20</v>
       </c>
       <c r="V25" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="W25" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="Z25" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AC25">
         <v>0</v>
@@ -3196,13 +3271,16 @@
       <c r="AF25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:32">
+      <c r="AG25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -3220,16 +3298,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J26" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="R26">
         <v>25</v>
       </c>
       <c r="S26" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T26">
         <v>13</v>
@@ -3238,13 +3316,13 @@
         <v>20</v>
       </c>
       <c r="V26" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="W26" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="Z26" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -3258,13 +3336,16 @@
       <c r="AF26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:32">
+      <c r="AG26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -3282,16 +3363,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J27" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="R27">
         <v>26</v>
       </c>
       <c r="S27" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T27">
         <v>15</v>
@@ -3300,13 +3381,13 @@
         <v>22</v>
       </c>
       <c r="V27" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="W27" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Z27" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -3320,13 +3401,16 @@
       <c r="AF27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:32">
+      <c r="AG27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -3344,16 +3428,16 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J28" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="R28">
         <v>27</v>
       </c>
       <c r="S28" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T28">
         <v>16</v>
@@ -3362,13 +3446,13 @@
         <v>25</v>
       </c>
       <c r="V28" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="W28" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="Z28" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC28">
         <v>0</v>
@@ -3382,13 +3466,16 @@
       <c r="AF28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:32">
+      <c r="AG28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -3406,16 +3493,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J29" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="R29">
         <v>28</v>
       </c>
       <c r="S29" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T29">
         <v>16</v>
@@ -3424,13 +3511,13 @@
         <v>25</v>
       </c>
       <c r="V29" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="W29" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="Z29" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC29">
         <v>0</v>
@@ -3444,13 +3531,16 @@
       <c r="AF29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:32">
+      <c r="AG29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -3468,16 +3558,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J30" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="R30">
         <v>29</v>
       </c>
       <c r="S30" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T30">
         <v>16</v>
@@ -3486,13 +3576,13 @@
         <v>25</v>
       </c>
       <c r="V30" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="W30" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="Z30" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC30">
         <v>0</v>
@@ -3506,13 +3596,16 @@
       <c r="AF30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:32">
+      <c r="AG30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -3530,19 +3623,19 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J31" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="R31">
         <v>30</v>
       </c>
       <c r="S31" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T31">
         <v>17</v>
@@ -3551,13 +3644,13 @@
         <v>26</v>
       </c>
       <c r="V31" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="W31" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="Z31" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC31">
         <v>0</v>
@@ -3571,13 +3664,16 @@
       <c r="AF31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:32">
+      <c r="AG31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -3595,16 +3691,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J32" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="R32">
         <v>31</v>
       </c>
       <c r="S32" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T32">
         <v>18</v>
@@ -3613,13 +3709,13 @@
         <v>27</v>
       </c>
       <c r="V32" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="W32" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="Z32" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC32">
         <v>0</v>
@@ -3633,13 +3729,16 @@
       <c r="AF32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:32">
+      <c r="AG32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -3657,16 +3756,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J33" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="R33">
         <v>32</v>
       </c>
       <c r="S33" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T33">
         <v>19</v>
@@ -3675,13 +3774,13 @@
         <v>30</v>
       </c>
       <c r="V33" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="W33" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z33" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC33">
         <v>0</v>
@@ -3695,13 +3794,16 @@
       <c r="AF33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:32">
+      <c r="AG33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -3719,19 +3821,19 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I34" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J34" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="R34">
         <v>33</v>
       </c>
       <c r="S34" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T34">
         <v>19</v>
@@ -3740,13 +3842,13 @@
         <v>30</v>
       </c>
       <c r="V34" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="W34" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z34" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC34">
         <v>0</v>
@@ -3760,13 +3862,16 @@
       <c r="AF34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:32">
+      <c r="AG34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -3784,19 +3889,19 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I35" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J35" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="R35">
         <v>34</v>
       </c>
       <c r="S35" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T35">
         <v>19</v>
@@ -3805,13 +3910,13 @@
         <v>30</v>
       </c>
       <c r="V35" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="W35" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z35" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC35">
         <v>0</v>
@@ -3825,13 +3930,16 @@
       <c r="AF35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:32">
+      <c r="AG35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -3849,19 +3957,19 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I36" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J36" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R36">
         <v>35</v>
       </c>
       <c r="S36" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T36">
         <v>21</v>
@@ -3870,13 +3978,13 @@
         <v>34</v>
       </c>
       <c r="V36" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="W36" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="Z36" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC36">
         <v>0</v>
@@ -3890,13 +3998,16 @@
       <c r="AF36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:32">
+      <c r="AG36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -3914,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J37" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R37">
         <v>36</v>
       </c>
       <c r="S37" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T37">
         <v>22</v>
@@ -3932,13 +4043,13 @@
         <v>37</v>
       </c>
       <c r="V37" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="W37" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z37" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC37">
         <v>0</v>
@@ -3952,13 +4063,16 @@
       <c r="AF37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:32">
+      <c r="AG37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -3976,16 +4090,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J38" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="R38">
         <v>37</v>
       </c>
       <c r="S38" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T38">
         <v>22</v>
@@ -3994,13 +4108,13 @@
         <v>37</v>
       </c>
       <c r="V38" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="W38" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z38" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC38">
         <v>0</v>
@@ -4014,13 +4128,16 @@
       <c r="AF38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:32">
+      <c r="AG38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -4038,16 +4155,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J39" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="R39">
         <v>38</v>
       </c>
       <c r="S39" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T39">
         <v>23</v>
@@ -4056,13 +4173,13 @@
         <v>38</v>
       </c>
       <c r="V39" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="W39" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z39" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC39">
         <v>0</v>
@@ -4076,13 +4193,16 @@
       <c r="AF39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:32">
+      <c r="AG39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -4100,16 +4220,16 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J40" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="R40">
         <v>39</v>
       </c>
       <c r="S40" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T40">
         <v>23</v>
@@ -4118,13 +4238,13 @@
         <v>38</v>
       </c>
       <c r="V40" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="W40" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z40" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC40">
         <v>0</v>
@@ -4138,13 +4258,16 @@
       <c r="AF40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:32">
+      <c r="AG40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -4162,16 +4285,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J41" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="R41">
         <v>40</v>
       </c>
       <c r="S41" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T41">
         <v>23</v>
@@ -4180,13 +4303,13 @@
         <v>38</v>
       </c>
       <c r="V41" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="W41" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z41" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC41">
         <v>0</v>
@@ -4200,13 +4323,16 @@
       <c r="AF41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:32">
+      <c r="AG41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -4224,16 +4350,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J42" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="R42">
         <v>41</v>
       </c>
       <c r="S42" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T42">
         <v>23</v>
@@ -4242,13 +4368,13 @@
         <v>38</v>
       </c>
       <c r="V42" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="W42" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z42" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC42">
         <v>0</v>
@@ -4262,13 +4388,16 @@
       <c r="AF42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:32">
+      <c r="AG42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -4286,16 +4415,16 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J43" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R43">
         <v>42</v>
       </c>
       <c r="S43" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T43">
         <v>23</v>
@@ -4304,13 +4433,13 @@
         <v>38</v>
       </c>
       <c r="V43" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="W43" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z43" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC43">
         <v>0</v>
@@ -4324,13 +4453,16 @@
       <c r="AF43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:32">
+      <c r="AG43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B44" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -4348,16 +4480,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R44">
         <v>43</v>
       </c>
       <c r="S44" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T44">
         <v>23</v>
@@ -4366,13 +4498,13 @@
         <v>38</v>
       </c>
       <c r="V44" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="W44" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z44" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC44">
         <v>0</v>
@@ -4386,13 +4518,16 @@
       <c r="AF44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:32">
+      <c r="AG44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -4410,16 +4545,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R45">
         <v>44</v>
       </c>
       <c r="S45" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T45">
         <v>23</v>
@@ -4428,13 +4563,13 @@
         <v>38</v>
       </c>
       <c r="V45" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="W45" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z45" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC45">
         <v>0</v>
@@ -4448,13 +4583,16 @@
       <c r="AF45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:32">
+      <c r="AG45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -4472,16 +4610,16 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J46" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R46">
         <v>45</v>
       </c>
       <c r="S46" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T46">
         <v>23</v>
@@ -4490,13 +4628,13 @@
         <v>38</v>
       </c>
       <c r="V46" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="W46" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z46" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC46">
         <v>0</v>
@@ -4510,13 +4648,16 @@
       <c r="AF46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:32">
+      <c r="AG46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B47" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -4534,16 +4675,16 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J47" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="R47">
         <v>46</v>
       </c>
       <c r="S47" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T47">
         <v>23</v>
@@ -4552,13 +4693,13 @@
         <v>38</v>
       </c>
       <c r="V47" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="W47" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z47" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC47">
         <v>0</v>
@@ -4572,13 +4713,16 @@
       <c r="AF47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:32">
+      <c r="AG47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B48" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -4596,16 +4740,16 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J48" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="R48">
         <v>47</v>
       </c>
       <c r="S48" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T48">
         <v>23</v>
@@ -4614,13 +4758,13 @@
         <v>38</v>
       </c>
       <c r="V48" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="W48" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z48" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC48">
         <v>0</v>
@@ -4634,13 +4778,16 @@
       <c r="AF48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:32">
+      <c r="AG48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -4658,16 +4805,16 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J49" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="R49">
         <v>48</v>
       </c>
       <c r="S49" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T49">
         <v>23</v>
@@ -4676,13 +4823,13 @@
         <v>38</v>
       </c>
       <c r="V49" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="W49" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z49" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC49">
         <v>0</v>
@@ -4696,13 +4843,16 @@
       <c r="AF49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:32">
+      <c r="AG49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33">
       <c r="A50" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B50" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -4720,19 +4870,19 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I50" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J50" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="R50">
         <v>49</v>
       </c>
       <c r="S50" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T50">
         <v>24</v>
@@ -4741,13 +4891,13 @@
         <v>51</v>
       </c>
       <c r="V50" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="W50" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z50" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AC50">
         <v>0</v>
@@ -4761,13 +4911,16 @@
       <c r="AF50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:32">
+      <c r="AG50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33">
       <c r="A51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B51" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -4785,19 +4938,19 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I51" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J51" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="R51">
         <v>50</v>
       </c>
       <c r="S51" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T51">
         <v>24</v>
@@ -4806,13 +4959,13 @@
         <v>51</v>
       </c>
       <c r="V51" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="W51" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z51" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AC51">
         <v>0</v>
@@ -4826,13 +4979,16 @@
       <c r="AF51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:32">
+      <c r="AG51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33">
       <c r="A52" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B52" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -4850,19 +5006,19 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I52" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J52" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="R52">
         <v>51</v>
       </c>
       <c r="S52" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T52">
         <v>24</v>
@@ -4871,13 +5027,13 @@
         <v>51</v>
       </c>
       <c r="V52" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="W52" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z52" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AC52">
         <v>0</v>
@@ -4891,13 +5047,16 @@
       <c r="AF52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:32">
+      <c r="AG52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33">
       <c r="A53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4915,16 +5074,16 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J53" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="R53">
         <v>52</v>
       </c>
       <c r="S53" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T53">
         <v>25</v>
@@ -4933,13 +5092,13 @@
         <v>52</v>
       </c>
       <c r="V53" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="W53" s="2">
         <v>45033.79946759259</v>
       </c>
       <c r="Z53" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC53">
         <v>0</v>
@@ -4953,13 +5112,16 @@
       <c r="AF53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:32">
+      <c r="AG53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33">
       <c r="A54" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B54" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -4977,16 +5139,16 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J54" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="R54">
         <v>53</v>
       </c>
       <c r="S54" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T54">
         <v>26</v>
@@ -4995,13 +5157,13 @@
         <v>55</v>
       </c>
       <c r="V54" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="W54" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="Z54" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC54">
         <v>0</v>
@@ -5015,13 +5177,16 @@
       <c r="AF54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:32">
+      <c r="AG54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33">
       <c r="A55" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B55" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -5039,19 +5204,19 @@
         <v>0</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I55" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J55" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="R55">
         <v>54</v>
       </c>
       <c r="S55" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T55">
         <v>27</v>
@@ -5060,13 +5225,13 @@
         <v>56</v>
       </c>
       <c r="V55" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="W55" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="Z55" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC55">
         <v>0</v>
@@ -5080,13 +5245,16 @@
       <c r="AF55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:32">
+      <c r="AG55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33">
       <c r="A56" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B56" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -5104,16 +5272,16 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J56" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="R56">
         <v>55</v>
       </c>
       <c r="S56" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T56">
         <v>28</v>
@@ -5122,13 +5290,13 @@
         <v>57</v>
       </c>
       <c r="V56" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="W56" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Z56" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC56">
         <v>0</v>
@@ -5142,13 +5310,16 @@
       <c r="AF56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:32">
+      <c r="AG56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33">
       <c r="A57" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B57" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -5166,16 +5337,16 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J57" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="R57">
         <v>56</v>
       </c>
       <c r="S57" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T57">
         <v>28</v>
@@ -5184,13 +5355,13 @@
         <v>57</v>
       </c>
       <c r="V57" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="W57" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Z57" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC57">
         <v>0</v>
@@ -5204,13 +5375,16 @@
       <c r="AF57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:32">
+      <c r="AG57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33">
       <c r="A58" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B58" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -5228,16 +5402,16 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J58" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="R58">
         <v>57</v>
       </c>
       <c r="S58" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T58">
         <v>28</v>
@@ -5246,13 +5420,13 @@
         <v>57</v>
       </c>
       <c r="V58" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="W58" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Z58" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC58">
         <v>0</v>
@@ -5266,13 +5440,16 @@
       <c r="AF58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:32">
+      <c r="AG58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33">
       <c r="A59" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B59" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -5290,16 +5467,16 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J59" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R59">
         <v>58</v>
       </c>
       <c r="S59" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T59">
         <v>28</v>
@@ -5308,13 +5485,13 @@
         <v>57</v>
       </c>
       <c r="V59" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="W59" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Z59" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC59">
         <v>0</v>
@@ -5328,13 +5505,16 @@
       <c r="AF59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:32">
+      <c r="AG59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33">
       <c r="A60" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B60" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -5352,16 +5532,16 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J60" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="R60">
         <v>59</v>
       </c>
       <c r="S60" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T60">
         <v>29</v>
@@ -5370,13 +5550,13 @@
         <v>58</v>
       </c>
       <c r="V60" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="W60" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="Z60" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC60">
         <v>0</v>
@@ -5390,13 +5570,16 @@
       <c r="AF60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:32">
+      <c r="AG60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33">
       <c r="A61" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B61" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -5414,16 +5597,16 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J61" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="R61">
         <v>60</v>
       </c>
       <c r="S61" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T61">
         <v>30</v>
@@ -5432,13 +5615,13 @@
         <v>59</v>
       </c>
       <c r="V61" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="W61" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z61" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC61">
         <v>0</v>
@@ -5452,13 +5635,16 @@
       <c r="AF61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:32">
+      <c r="AG61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33">
       <c r="A62" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B62" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -5476,16 +5662,16 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J62" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="R62">
         <v>61</v>
       </c>
       <c r="S62" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T62">
         <v>31</v>
@@ -5494,13 +5680,13 @@
         <v>60</v>
       </c>
       <c r="V62" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="W62" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="Z62" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC62">
         <v>0</v>
@@ -5514,13 +5700,16 @@
       <c r="AF62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:32">
+      <c r="AG62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33">
       <c r="A63" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B63" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -5538,16 +5727,16 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J63" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="R63">
         <v>62</v>
       </c>
       <c r="S63" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T63">
         <v>31</v>
@@ -5556,13 +5745,13 @@
         <v>60</v>
       </c>
       <c r="V63" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="W63" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="Z63" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC63">
         <v>0</v>
@@ -5576,13 +5765,16 @@
       <c r="AF63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:32">
+      <c r="AG63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33">
       <c r="A64" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B64" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -5600,16 +5792,16 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J64" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="R64">
         <v>63</v>
       </c>
       <c r="S64" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T64">
         <v>32</v>
@@ -5618,13 +5810,13 @@
         <v>61</v>
       </c>
       <c r="V64" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="W64" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Z64" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC64">
         <v>0</v>
@@ -5638,13 +5830,16 @@
       <c r="AF64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:32">
+      <c r="AG64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33">
       <c r="A65" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B65" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -5662,16 +5857,16 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J65" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R65">
         <v>64</v>
       </c>
       <c r="S65" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T65">
         <v>33</v>
@@ -5680,13 +5875,13 @@
         <v>63</v>
       </c>
       <c r="V65" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="W65" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z65" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC65">
         <v>0</v>
@@ -5700,13 +5895,16 @@
       <c r="AF65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:32">
+      <c r="AG65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33">
       <c r="A66" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B66" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -5724,16 +5922,16 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J66" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="R66">
         <v>65</v>
       </c>
       <c r="S66" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T66">
         <v>33</v>
@@ -5742,13 +5940,13 @@
         <v>63</v>
       </c>
       <c r="V66" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="W66" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z66" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC66">
         <v>0</v>
@@ -5762,13 +5960,16 @@
       <c r="AF66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:32">
+      <c r="AG66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33">
       <c r="A67" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B67" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -5786,16 +5987,16 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J67" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="R67">
         <v>66</v>
       </c>
       <c r="S67" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T67">
         <v>33</v>
@@ -5804,13 +6005,13 @@
         <v>63</v>
       </c>
       <c r="V67" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="W67" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z67" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC67">
         <v>0</v>
@@ -5824,13 +6025,16 @@
       <c r="AF67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:32">
+      <c r="AG67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33">
       <c r="A68" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B68" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -5848,16 +6052,16 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J68" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="R68">
         <v>67</v>
       </c>
       <c r="S68" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T68">
         <v>33</v>
@@ -5866,13 +6070,13 @@
         <v>63</v>
       </c>
       <c r="V68" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="W68" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z68" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC68">
         <v>0</v>
@@ -5886,13 +6090,16 @@
       <c r="AF68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:32">
+      <c r="AG68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33">
       <c r="A69" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B69" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -5910,16 +6117,16 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J69" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="R69">
         <v>68</v>
       </c>
       <c r="S69" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T69">
         <v>33</v>
@@ -5928,13 +6135,13 @@
         <v>63</v>
       </c>
       <c r="V69" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="W69" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z69" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC69">
         <v>0</v>
@@ -5948,13 +6155,16 @@
       <c r="AF69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:32">
+      <c r="AG69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33">
       <c r="A70" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B70" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -5972,16 +6182,16 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J70" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="R70">
         <v>69</v>
       </c>
       <c r="S70" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T70">
         <v>33</v>
@@ -5990,13 +6200,13 @@
         <v>63</v>
       </c>
       <c r="V70" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="W70" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z70" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC70">
         <v>0</v>
@@ -6010,13 +6220,16 @@
       <c r="AF70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:32">
+      <c r="AG70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33">
       <c r="A71" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B71" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -6034,16 +6247,16 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J71" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="R71">
         <v>70</v>
       </c>
       <c r="S71" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T71">
         <v>34</v>
@@ -6052,13 +6265,13 @@
         <v>64</v>
       </c>
       <c r="V71" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="W71" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="Z71" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC71">
         <v>0</v>
@@ -6072,13 +6285,16 @@
       <c r="AF71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:32">
+      <c r="AG71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33">
       <c r="A72" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B72" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -6096,19 +6312,19 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I72" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J72" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="R72">
         <v>71</v>
       </c>
       <c r="S72" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T72">
         <v>36</v>
@@ -6117,13 +6333,13 @@
         <v>77</v>
       </c>
       <c r="V72" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="W72" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z72" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC72">
         <v>0</v>
@@ -6137,13 +6353,16 @@
       <c r="AF72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:32">
+      <c r="AG72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33">
       <c r="A73" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B73" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -6161,16 +6380,16 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J73" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="R73">
         <v>72</v>
       </c>
       <c r="S73" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T73">
         <v>36</v>
@@ -6179,13 +6398,13 @@
         <v>77</v>
       </c>
       <c r="V73" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="W73" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z73" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC73">
         <v>0</v>
@@ -6199,13 +6418,16 @@
       <c r="AF73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:32">
+      <c r="AG73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33">
       <c r="A74" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B74" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -6223,16 +6445,16 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J74" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="R74">
         <v>73</v>
       </c>
       <c r="S74" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T74">
         <v>36</v>
@@ -6241,13 +6463,13 @@
         <v>77</v>
       </c>
       <c r="V74" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="W74" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z74" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC74">
         <v>0</v>
@@ -6261,13 +6483,16 @@
       <c r="AF74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:32">
+      <c r="AG74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33">
       <c r="A75" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B75" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -6285,19 +6510,19 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I75" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J75" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="R75">
         <v>74</v>
       </c>
       <c r="S75" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T75">
         <v>37</v>
@@ -6306,13 +6531,13 @@
         <v>78</v>
       </c>
       <c r="V75" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="W75" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="Z75" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC75">
         <v>0</v>
@@ -6326,13 +6551,16 @@
       <c r="AF75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:32">
+      <c r="AG75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33">
       <c r="A76" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B76" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -6350,16 +6578,16 @@
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J76" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="R76">
         <v>75</v>
       </c>
       <c r="S76" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T76">
         <v>38</v>
@@ -6368,13 +6596,13 @@
         <v>80</v>
       </c>
       <c r="V76" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="W76" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="Z76" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC76">
         <v>0</v>
@@ -6388,13 +6616,16 @@
       <c r="AF76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:32">
+      <c r="AG76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33">
       <c r="A77" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B77" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -6412,16 +6643,16 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J77" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="R77">
         <v>76</v>
       </c>
       <c r="S77" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T77">
         <v>39</v>
@@ -6430,13 +6661,13 @@
         <v>81</v>
       </c>
       <c r="V77" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="W77" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z77" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC77">
         <v>0</v>
@@ -6450,13 +6681,16 @@
       <c r="AF77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:32">
+      <c r="AG77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33">
       <c r="A78" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B78" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -6474,19 +6708,19 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I78" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J78" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="R78">
         <v>77</v>
       </c>
       <c r="S78" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T78">
         <v>40</v>
@@ -6495,13 +6729,13 @@
         <v>82</v>
       </c>
       <c r="V78" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="W78" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="Z78" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC78">
         <v>0</v>
@@ -6515,13 +6749,16 @@
       <c r="AF78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:32">
+      <c r="AG78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33">
       <c r="A79" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B79" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -6539,16 +6776,16 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J79" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="R79">
         <v>78</v>
       </c>
       <c r="S79" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T79">
         <v>42</v>
@@ -6557,13 +6794,13 @@
         <v>84</v>
       </c>
       <c r="V79" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="W79" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="Z79" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC79">
         <v>0</v>
@@ -6577,13 +6814,16 @@
       <c r="AF79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:32">
+      <c r="AG79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33">
       <c r="A80" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B80" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -6601,19 +6841,19 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I80" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J80" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="R80">
         <v>79</v>
       </c>
       <c r="S80" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T80">
         <v>44</v>
@@ -6622,13 +6862,13 @@
         <v>87</v>
       </c>
       <c r="V80" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="W80" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z80" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC80">
         <v>0</v>
@@ -6642,13 +6882,16 @@
       <c r="AF80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:32">
+      <c r="AG80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33">
       <c r="A81" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B81" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -6666,19 +6909,19 @@
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I81" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J81" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="R81">
         <v>80</v>
       </c>
       <c r="S81" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T81">
         <v>44</v>
@@ -6687,13 +6930,13 @@
         <v>87</v>
       </c>
       <c r="V81" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="W81" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z81" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC81">
         <v>0</v>
@@ -6707,13 +6950,16 @@
       <c r="AF81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:32">
+      <c r="AG81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33">
       <c r="A82" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B82" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -6731,19 +6977,19 @@
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I82" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J82" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="R82">
         <v>81</v>
       </c>
       <c r="S82" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T82">
         <v>44</v>
@@ -6752,13 +6998,13 @@
         <v>87</v>
       </c>
       <c r="V82" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="W82" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z82" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC82">
         <v>0</v>
@@ -6772,13 +7018,16 @@
       <c r="AF82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:32">
+      <c r="AG82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33">
       <c r="A83" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B83" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -6796,19 +7045,19 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I83" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J83" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="R83">
         <v>82</v>
       </c>
       <c r="S83" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T83">
         <v>44</v>
@@ -6817,13 +7066,13 @@
         <v>87</v>
       </c>
       <c r="V83" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="W83" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z83" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC83">
         <v>0</v>
@@ -6837,13 +7086,16 @@
       <c r="AF83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:32">
+      <c r="AG83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:33">
       <c r="A84" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B84" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -6861,19 +7113,19 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I84" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J84" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="R84">
         <v>83</v>
       </c>
       <c r="S84" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T84">
         <v>44</v>
@@ -6882,13 +7134,13 @@
         <v>87</v>
       </c>
       <c r="V84" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="W84" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z84" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC84">
         <v>0</v>
@@ -6902,13 +7154,16 @@
       <c r="AF84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:32">
+      <c r="AG84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:33">
       <c r="A85" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B85" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -6926,16 +7181,16 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J85" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="R85">
         <v>84</v>
       </c>
       <c r="S85" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T85">
         <v>44</v>
@@ -6944,13 +7199,13 @@
         <v>87</v>
       </c>
       <c r="V85" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="W85" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z85" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC85">
         <v>0</v>
@@ -6964,13 +7219,16 @@
       <c r="AF85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:32">
+      <c r="AG85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:33">
       <c r="A86" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B86" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -6988,16 +7246,16 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J86" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="R86">
         <v>85</v>
       </c>
       <c r="S86" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T86">
         <v>44</v>
@@ -7006,13 +7264,13 @@
         <v>87</v>
       </c>
       <c r="V86" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="W86" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z86" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC86">
         <v>0</v>
@@ -7026,13 +7284,16 @@
       <c r="AF86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:32">
+      <c r="AG86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:33">
       <c r="A87" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B87" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -7050,19 +7311,19 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I87" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J87" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R87">
         <v>86</v>
       </c>
       <c r="S87" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T87">
         <v>45</v>
@@ -7071,13 +7332,13 @@
         <v>88</v>
       </c>
       <c r="V87" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="W87" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Z87" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AC87">
         <v>0</v>
@@ -7091,13 +7352,16 @@
       <c r="AF87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:32">
+      <c r="AG87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:33">
       <c r="A88" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B88" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -7115,16 +7379,16 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J88" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="R88">
         <v>87</v>
       </c>
       <c r="S88" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T88">
         <v>45</v>
@@ -7133,13 +7397,13 @@
         <v>88</v>
       </c>
       <c r="V88" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="W88" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Z88" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AC88">
         <v>0</v>
@@ -7153,13 +7417,16 @@
       <c r="AF88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:32">
+      <c r="AG88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:33">
       <c r="A89" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B89" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -7177,16 +7444,16 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J89" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="R89">
         <v>88</v>
       </c>
       <c r="S89" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T89">
         <v>46</v>
@@ -7195,13 +7462,13 @@
         <v>90</v>
       </c>
       <c r="V89" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="W89" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z89" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC89">
         <v>0</v>
@@ -7215,13 +7482,16 @@
       <c r="AF89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:32">
+      <c r="AG89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:33">
       <c r="A90" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B90" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -7239,16 +7509,16 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J90" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="R90">
         <v>89</v>
       </c>
       <c r="S90" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T90">
         <v>46</v>
@@ -7257,13 +7527,13 @@
         <v>90</v>
       </c>
       <c r="V90" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="W90" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z90" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC90">
         <v>0</v>
@@ -7277,13 +7547,16 @@
       <c r="AF90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:32">
+      <c r="AG90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:33">
       <c r="A91" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B91" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -7301,16 +7574,16 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J91" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R91">
         <v>90</v>
       </c>
       <c r="S91" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T91">
         <v>46</v>
@@ -7319,13 +7592,13 @@
         <v>90</v>
       </c>
       <c r="V91" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="W91" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z91" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC91">
         <v>0</v>
@@ -7339,13 +7612,16 @@
       <c r="AF91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:32">
+      <c r="AG91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:33">
       <c r="A92" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B92" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -7363,16 +7639,16 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J92" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="R92">
         <v>91</v>
       </c>
       <c r="S92" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T92">
         <v>47</v>
@@ -7381,13 +7657,13 @@
         <v>91</v>
       </c>
       <c r="V92" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="W92" s="2">
         <v>45043.91625</v>
       </c>
       <c r="Z92" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC92">
         <v>0</v>
@@ -7401,13 +7677,16 @@
       <c r="AF92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:32">
+      <c r="AG92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:33">
       <c r="A93" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B93" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -7425,16 +7704,16 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J93" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="R93">
         <v>92</v>
       </c>
       <c r="S93" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T93">
         <v>48</v>
@@ -7443,13 +7722,13 @@
         <v>92</v>
       </c>
       <c r="V93" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="W93" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="Z93" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC93">
         <v>0</v>
@@ -7463,13 +7742,16 @@
       <c r="AF93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:32">
+      <c r="AG93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:33">
       <c r="A94" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B94" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -7487,16 +7769,16 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J94" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="R94">
         <v>93</v>
       </c>
       <c r="S94" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T94">
         <v>48</v>
@@ -7505,13 +7787,13 @@
         <v>92</v>
       </c>
       <c r="V94" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="W94" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="Z94" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC94">
         <v>0</v>
@@ -7525,13 +7807,16 @@
       <c r="AF94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:32">
+      <c r="AG94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:33">
       <c r="A95" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B95" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -7549,19 +7834,19 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I95" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J95" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="R95">
         <v>94</v>
       </c>
       <c r="S95" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T95">
         <v>49</v>
@@ -7570,13 +7855,13 @@
         <v>93</v>
       </c>
       <c r="V95" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="W95" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Z95" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC95">
         <v>0</v>
@@ -7590,13 +7875,16 @@
       <c r="AF95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:32">
+      <c r="AG95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:33">
       <c r="A96" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B96" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -7614,19 +7902,19 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I96" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J96" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="R96">
         <v>95</v>
       </c>
       <c r="S96" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T96">
         <v>49</v>
@@ -7635,13 +7923,13 @@
         <v>93</v>
       </c>
       <c r="V96" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="W96" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Z96" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC96">
         <v>0</v>
@@ -7655,13 +7943,16 @@
       <c r="AF96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:32">
+      <c r="AG96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33">
       <c r="A97" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B97" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -7679,19 +7970,19 @@
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I97" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J97" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="R97">
         <v>96</v>
       </c>
       <c r="S97" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T97">
         <v>50</v>
@@ -7700,13 +7991,13 @@
         <v>94</v>
       </c>
       <c r="V97" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="W97" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="Z97" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC97">
         <v>0</v>
@@ -7720,13 +8011,16 @@
       <c r="AF97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:32">
+      <c r="AG97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33">
       <c r="A98" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B98" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -7744,19 +8038,19 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I98" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J98" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="R98">
         <v>97</v>
       </c>
       <c r="S98" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T98">
         <v>51</v>
@@ -7765,13 +8059,13 @@
         <v>95</v>
       </c>
       <c r="V98" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="W98" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z98" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC98">
         <v>0</v>
@@ -7785,13 +8079,16 @@
       <c r="AF98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:32">
+      <c r="AG98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33">
       <c r="A99" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B99" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -7809,16 +8106,16 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J99" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="R99">
         <v>98</v>
       </c>
       <c r="S99" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T99">
         <v>53</v>
@@ -7827,13 +8124,13 @@
         <v>98</v>
       </c>
       <c r="V99" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="W99" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="Z99" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AC99">
         <v>0</v>
@@ -7847,13 +8144,16 @@
       <c r="AF99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:32">
+      <c r="AG99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33">
       <c r="A100" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B100" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -7871,16 +8171,16 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J100" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="R100">
         <v>99</v>
       </c>
       <c r="S100" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T100">
         <v>54</v>
@@ -7889,13 +8189,13 @@
         <v>99</v>
       </c>
       <c r="V100" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="W100" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z100" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC100">
         <v>0</v>
@@ -7909,13 +8209,16 @@
       <c r="AF100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:32">
+      <c r="AG100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33">
       <c r="A101" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B101" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -7933,16 +8236,16 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J101" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="R101">
         <v>100</v>
       </c>
       <c r="S101" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T101">
         <v>54</v>
@@ -7951,13 +8254,13 @@
         <v>99</v>
       </c>
       <c r="V101" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="W101" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z101" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC101">
         <v>0</v>
@@ -7971,13 +8274,16 @@
       <c r="AF101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:32">
+      <c r="AG101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33">
       <c r="A102" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B102" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -7995,16 +8301,16 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J102" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="R102">
         <v>101</v>
       </c>
       <c r="S102" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T102">
         <v>54</v>
@@ -8013,13 +8319,13 @@
         <v>99</v>
       </c>
       <c r="V102" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="W102" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z102" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC102">
         <v>0</v>
@@ -8033,13 +8339,16 @@
       <c r="AF102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:32">
+      <c r="AG102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33">
       <c r="A103" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B103" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8057,16 +8366,16 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J103" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="R103">
         <v>102</v>
       </c>
       <c r="S103" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T103">
         <v>54</v>
@@ -8075,13 +8384,13 @@
         <v>99</v>
       </c>
       <c r="V103" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="W103" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z103" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC103">
         <v>0</v>
@@ -8095,13 +8404,16 @@
       <c r="AF103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:32">
+      <c r="AG103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33">
       <c r="A104" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B104" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8119,16 +8431,16 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J104" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="R104">
         <v>103</v>
       </c>
       <c r="S104" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T104">
         <v>54</v>
@@ -8137,13 +8449,13 @@
         <v>99</v>
       </c>
       <c r="V104" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="W104" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z104" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC104">
         <v>0</v>
@@ -8157,13 +8469,16 @@
       <c r="AF104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:32">
+      <c r="AG104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33">
       <c r="A105" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B105" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8181,16 +8496,16 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J105" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="R105">
         <v>104</v>
       </c>
       <c r="S105" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T105">
         <v>54</v>
@@ -8199,13 +8514,13 @@
         <v>99</v>
       </c>
       <c r="V105" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="W105" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z105" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC105">
         <v>0</v>
@@ -8219,13 +8534,16 @@
       <c r="AF105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:32">
+      <c r="AG105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33">
       <c r="A106" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B106" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8243,16 +8561,16 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J106" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="R106">
         <v>105</v>
       </c>
       <c r="S106" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T106">
         <v>54</v>
@@ -8261,13 +8579,13 @@
         <v>99</v>
       </c>
       <c r="V106" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="W106" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z106" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC106">
         <v>0</v>
@@ -8281,13 +8599,16 @@
       <c r="AF106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:32">
+      <c r="AG106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33">
       <c r="A107" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B107" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8305,16 +8626,16 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J107" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="R107">
         <v>106</v>
       </c>
       <c r="S107" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T107">
         <v>54</v>
@@ -8323,13 +8644,13 @@
         <v>99</v>
       </c>
       <c r="V107" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="W107" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z107" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC107">
         <v>0</v>
@@ -8343,13 +8664,16 @@
       <c r="AF107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:32">
+      <c r="AG107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33">
       <c r="A108" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B108" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -8367,16 +8691,16 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J108" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="R108">
         <v>107</v>
       </c>
       <c r="S108" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T108">
         <v>55</v>
@@ -8385,13 +8709,13 @@
         <v>100</v>
       </c>
       <c r="V108" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="W108" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Z108" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC108">
         <v>0</v>
@@ -8405,13 +8729,16 @@
       <c r="AF108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:32">
+      <c r="AG108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:33">
       <c r="A109" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B109" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -8429,16 +8756,16 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J109" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R109">
         <v>108</v>
       </c>
       <c r="S109" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T109">
         <v>55</v>
@@ -8447,13 +8774,13 @@
         <v>100</v>
       </c>
       <c r="V109" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="W109" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Z109" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC109">
         <v>0</v>
@@ -8467,13 +8794,16 @@
       <c r="AF109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:32">
+      <c r="AG109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:33">
       <c r="A110" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B110" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -8491,16 +8821,16 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J110" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="R110">
         <v>109</v>
       </c>
       <c r="S110" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T110">
         <v>55</v>
@@ -8509,13 +8839,13 @@
         <v>100</v>
       </c>
       <c r="V110" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="W110" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Z110" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC110">
         <v>0</v>
@@ -8529,13 +8859,16 @@
       <c r="AF110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:32">
+      <c r="AG110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:33">
       <c r="A111" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B111" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -8553,16 +8886,16 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J111" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R111">
         <v>110</v>
       </c>
       <c r="S111" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T111">
         <v>56</v>
@@ -8571,13 +8904,13 @@
         <v>101</v>
       </c>
       <c r="V111" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="W111" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Z111" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC111">
         <v>0</v>
@@ -8591,13 +8924,16 @@
       <c r="AF111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:32">
+      <c r="AG111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:33">
       <c r="A112" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B112" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -8615,19 +8951,19 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I112" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J112" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="R112">
         <v>111</v>
       </c>
       <c r="S112" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T112">
         <v>57</v>
@@ -8636,13 +8972,13 @@
         <v>102</v>
       </c>
       <c r="V112" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="W112" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="Z112" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC112">
         <v>0</v>
@@ -8656,13 +8992,16 @@
       <c r="AF112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:32">
+      <c r="AG112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:33">
       <c r="A113" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B113" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -8680,16 +9019,16 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J113" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="R113">
         <v>112</v>
       </c>
       <c r="S113" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T113">
         <v>58</v>
@@ -8698,13 +9037,13 @@
         <v>103</v>
       </c>
       <c r="V113" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="W113" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="Z113" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC113">
         <v>0</v>
@@ -8718,13 +9057,16 @@
       <c r="AF113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:32">
+      <c r="AG113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:33">
       <c r="A114" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B114" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -8742,16 +9084,16 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J114" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="R114">
         <v>113</v>
       </c>
       <c r="S114" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T114">
         <v>59</v>
@@ -8760,13 +9102,13 @@
         <v>104</v>
       </c>
       <c r="V114" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W114" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z114" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC114">
         <v>0</v>
@@ -8780,13 +9122,16 @@
       <c r="AF114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:32">
+      <c r="AG114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:33">
       <c r="A115" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B115" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -8804,16 +9149,16 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J115" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="R115">
         <v>114</v>
       </c>
       <c r="S115" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T115">
         <v>59</v>
@@ -8822,13 +9167,13 @@
         <v>104</v>
       </c>
       <c r="V115" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W115" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z115" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC115">
         <v>0</v>
@@ -8842,13 +9187,16 @@
       <c r="AF115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:32">
+      <c r="AG115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:33">
       <c r="A116" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B116" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -8866,16 +9214,16 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J116" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="R116">
         <v>115</v>
       </c>
       <c r="S116" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T116">
         <v>59</v>
@@ -8884,13 +9232,13 @@
         <v>104</v>
       </c>
       <c r="V116" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W116" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z116" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC116">
         <v>0</v>
@@ -8904,13 +9252,16 @@
       <c r="AF116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:32">
+      <c r="AG116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:33">
       <c r="A117" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B117" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -8928,16 +9279,16 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J117" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="R117">
         <v>116</v>
       </c>
       <c r="S117" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T117">
         <v>59</v>
@@ -8946,13 +9297,13 @@
         <v>104</v>
       </c>
       <c r="V117" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W117" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z117" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC117">
         <v>0</v>
@@ -8966,13 +9317,16 @@
       <c r="AF117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:32">
+      <c r="AG117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:33">
       <c r="A118" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B118" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -8990,16 +9344,16 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J118" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="R118">
         <v>117</v>
       </c>
       <c r="S118" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T118">
         <v>59</v>
@@ -9008,13 +9362,13 @@
         <v>104</v>
       </c>
       <c r="V118" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W118" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z118" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC118">
         <v>0</v>
@@ -9028,13 +9382,16 @@
       <c r="AF118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:32">
+      <c r="AG118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:33">
       <c r="A119" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B119" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -9052,16 +9409,16 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J119" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="R119">
         <v>118</v>
       </c>
       <c r="S119" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T119">
         <v>61</v>
@@ -9070,13 +9427,13 @@
         <v>106</v>
       </c>
       <c r="V119" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="W119" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="Z119" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC119">
         <v>0</v>
@@ -9090,13 +9447,16 @@
       <c r="AF119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:32">
+      <c r="AG119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:33">
       <c r="A120" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B120" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -9114,16 +9474,16 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J120" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R120">
         <v>119</v>
       </c>
       <c r="S120" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T120">
         <v>63</v>
@@ -9132,13 +9492,13 @@
         <v>110</v>
       </c>
       <c r="V120" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="W120" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="Z120" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC120">
         <v>0</v>
@@ -9152,13 +9512,16 @@
       <c r="AF120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:32">
+      <c r="AG120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:33">
       <c r="A121" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B121" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -9176,16 +9539,16 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J121" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="R121">
         <v>120</v>
       </c>
       <c r="S121" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T121">
         <v>64</v>
@@ -9194,13 +9557,13 @@
         <v>111</v>
       </c>
       <c r="V121" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="W121" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="Z121" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC121">
         <v>0</v>
@@ -9214,13 +9577,16 @@
       <c r="AF121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:32">
+      <c r="AG121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:33">
       <c r="A122" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B122" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -9238,16 +9604,16 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J122" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="R122">
         <v>121</v>
       </c>
       <c r="S122" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T122">
         <v>65</v>
@@ -9256,13 +9622,13 @@
         <v>113</v>
       </c>
       <c r="V122" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="W122" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="Z122" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC122">
         <v>0</v>
@@ -9276,13 +9642,16 @@
       <c r="AF122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:32">
+      <c r="AG122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:33">
       <c r="A123" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B123" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9300,16 +9669,16 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J123" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="R123">
         <v>122</v>
       </c>
       <c r="S123" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T123">
         <v>67</v>
@@ -9318,13 +9687,13 @@
         <v>115</v>
       </c>
       <c r="V123" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="W123" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="Z123" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AC123">
         <v>0</v>
@@ -9338,13 +9707,16 @@
       <c r="AF123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:32">
+      <c r="AG123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:33">
       <c r="A124" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B124" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9362,16 +9734,16 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J124" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="R124">
         <v>123</v>
       </c>
       <c r="S124" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T124">
         <v>67</v>
@@ -9380,13 +9752,13 @@
         <v>115</v>
       </c>
       <c r="V124" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="W124" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="Z124" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AC124">
         <v>0</v>
@@ -9400,13 +9772,16 @@
       <c r="AF124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:32">
+      <c r="AG124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:33">
       <c r="A125" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B125" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9424,16 +9799,16 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J125" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="R125">
         <v>124</v>
       </c>
       <c r="S125" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T125">
         <v>70</v>
@@ -9442,13 +9817,13 @@
         <v>119</v>
       </c>
       <c r="V125" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="W125" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z125" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC125">
         <v>0</v>
@@ -9462,13 +9837,16 @@
       <c r="AF125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:32">
+      <c r="AG125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:33">
       <c r="A126" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B126" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9486,16 +9864,16 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J126" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="R126">
         <v>125</v>
       </c>
       <c r="S126" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T126">
         <v>70</v>
@@ -9504,13 +9882,13 @@
         <v>119</v>
       </c>
       <c r="V126" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="W126" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z126" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC126">
         <v>0</v>
@@ -9524,13 +9902,16 @@
       <c r="AF126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:32">
+      <c r="AG126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:33">
       <c r="A127" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B127" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -9548,16 +9929,16 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J127" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R127">
         <v>126</v>
       </c>
       <c r="S127" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T127">
         <v>70</v>
@@ -9566,13 +9947,13 @@
         <v>119</v>
       </c>
       <c r="V127" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="W127" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z127" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC127">
         <v>0</v>
@@ -9586,13 +9967,16 @@
       <c r="AF127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:32">
+      <c r="AG127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:33">
       <c r="A128" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B128" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -9610,16 +9994,16 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J128" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="R128">
         <v>127</v>
       </c>
       <c r="S128" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T128">
         <v>70</v>
@@ -9628,13 +10012,13 @@
         <v>119</v>
       </c>
       <c r="V128" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="W128" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z128" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC128">
         <v>0</v>
@@ -9648,13 +10032,16 @@
       <c r="AF128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:32">
+      <c r="AG128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:33">
       <c r="A129" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B129" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -9672,16 +10059,16 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J129" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="R129">
         <v>128</v>
       </c>
       <c r="S129" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T129">
         <v>70</v>
@@ -9690,13 +10077,13 @@
         <v>119</v>
       </c>
       <c r="V129" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="W129" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z129" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC129">
         <v>0</v>
@@ -9710,13 +10097,16 @@
       <c r="AF129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:32">
+      <c r="AG129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:33">
       <c r="A130" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B130" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -9734,16 +10124,16 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J130" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="R130">
         <v>129</v>
       </c>
       <c r="S130" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T130">
         <v>70</v>
@@ -9752,13 +10142,13 @@
         <v>119</v>
       </c>
       <c r="V130" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="W130" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z130" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC130">
         <v>0</v>
@@ -9772,13 +10162,16 @@
       <c r="AF130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:32">
+      <c r="AG130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:33">
       <c r="A131" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B131" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -9796,16 +10189,16 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J131" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="R131">
         <v>130</v>
       </c>
       <c r="S131" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T131">
         <v>70</v>
@@ -9814,13 +10207,13 @@
         <v>119</v>
       </c>
       <c r="V131" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="W131" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z131" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC131">
         <v>0</v>
@@ -9834,13 +10227,16 @@
       <c r="AF131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:32">
+      <c r="AG131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:33">
       <c r="A132" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B132" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -9858,16 +10254,16 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J132" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R132">
         <v>131</v>
       </c>
       <c r="S132" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T132">
         <v>70</v>
@@ -9876,13 +10272,13 @@
         <v>119</v>
       </c>
       <c r="V132" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="W132" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z132" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC132">
         <v>0</v>
@@ -9896,13 +10292,16 @@
       <c r="AF132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:32">
+      <c r="AG132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:33">
       <c r="A133" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B133" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -9920,16 +10319,16 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J133" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="R133">
         <v>132</v>
       </c>
       <c r="S133" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T133">
         <v>70</v>
@@ -9938,13 +10337,13 @@
         <v>119</v>
       </c>
       <c r="V133" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="W133" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z133" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC133">
         <v>0</v>
@@ -9958,13 +10357,16 @@
       <c r="AF133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:32">
+      <c r="AG133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:33">
       <c r="A134" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B134" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -9982,16 +10384,16 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J134" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="R134">
         <v>133</v>
       </c>
       <c r="S134" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T134">
         <v>70</v>
@@ -10000,13 +10402,13 @@
         <v>119</v>
       </c>
       <c r="V134" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="W134" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z134" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC134">
         <v>0</v>
@@ -10020,13 +10422,16 @@
       <c r="AF134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:32">
+      <c r="AG134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:33">
       <c r="A135" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B135" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -10044,19 +10449,19 @@
         <v>0</v>
       </c>
       <c r="H135" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I135" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J135" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="R135">
         <v>134</v>
       </c>
       <c r="S135" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T135">
         <v>70</v>
@@ -10065,13 +10470,13 @@
         <v>119</v>
       </c>
       <c r="V135" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="W135" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z135" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AC135">
         <v>0</v>
@@ -10083,6 +10488,9 @@
         <v>0</v>
       </c>
       <c r="AF135">
+        <v>0</v>
+      </c>
+      <c r="AG135">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p15.xlsx
+++ b/files/separadas/repeat_p15.xlsx
@@ -6342,7 +6342,7 @@
         <v>395</v>
       </c>
       <c r="AC72">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD72">
         <v>0</v>
@@ -6351,10 +6351,10 @@
         <v>0</v>
       </c>
       <c r="AF72">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AG72">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="73" spans="1:33">
@@ -6413,13 +6413,13 @@
         <v>0</v>
       </c>
       <c r="AE73">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AF73">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AG73">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="74" spans="1:33">
@@ -6478,13 +6478,13 @@
         <v>0</v>
       </c>
       <c r="AE74">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AF74">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AG74">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="75" spans="1:33">

--- a/files/separadas/repeat_p15.xlsx
+++ b/files/separadas/repeat_p15.xlsx
@@ -6871,19 +6871,19 @@
         <v>395</v>
       </c>
       <c r="AC80">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD80">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AE80">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AF80">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG80">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="81" spans="1:33">
@@ -6939,19 +6939,19 @@
         <v>395</v>
       </c>
       <c r="AC81">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD81">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AE81">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AF81">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG81">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="82" spans="1:33">
@@ -7007,19 +7007,19 @@
         <v>395</v>
       </c>
       <c r="AC82">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD82">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AE82">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AF82">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG82">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="83" spans="1:33">
@@ -7075,19 +7075,19 @@
         <v>395</v>
       </c>
       <c r="AC83">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD83">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AE83">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AF83">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG83">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="84" spans="1:33">
@@ -7143,19 +7143,19 @@
         <v>395</v>
       </c>
       <c r="AC84">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD84">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AE84">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AF84">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG84">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="85" spans="1:33">
@@ -7208,19 +7208,19 @@
         <v>395</v>
       </c>
       <c r="AC85">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD85">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AE85">
         <v>0</v>
       </c>
       <c r="AF85">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AG85">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="86" spans="1:33">
@@ -7273,19 +7273,19 @@
         <v>395</v>
       </c>
       <c r="AC86">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD86">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AE86">
         <v>0</v>
       </c>
       <c r="AF86">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AG86">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="87" spans="1:33">

--- a/files/separadas/repeat_p15.xlsx
+++ b/files/separadas/repeat_p15.xlsx
@@ -6407,13 +6407,13 @@
         <v>395</v>
       </c>
       <c r="AC73">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD73">
         <v>0</v>
       </c>
       <c r="AE73">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AF73">
         <v>0.1</v>
@@ -6472,13 +6472,13 @@
         <v>395</v>
       </c>
       <c r="AC74">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD74">
         <v>0</v>
       </c>
       <c r="AE74">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AF74">
         <v>0.1</v>
@@ -6871,19 +6871,19 @@
         <v>395</v>
       </c>
       <c r="AC80">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AD80">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AE80">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AF80">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AG80">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:33">
@@ -6939,19 +6939,19 @@
         <v>395</v>
       </c>
       <c r="AC81">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AD81">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AE81">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AF81">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AG81">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:33">
@@ -7007,19 +7007,19 @@
         <v>395</v>
       </c>
       <c r="AC82">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AD82">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AE82">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AF82">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AG82">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:33">
@@ -7075,19 +7075,19 @@
         <v>395</v>
       </c>
       <c r="AC83">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AD83">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AE83">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AF83">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AG83">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:33">
@@ -7143,19 +7143,19 @@
         <v>395</v>
       </c>
       <c r="AC84">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AD84">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AE84">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AF84">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AG84">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:33">
@@ -7208,19 +7208,19 @@
         <v>395</v>
       </c>
       <c r="AC85">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AD85">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AE85">
         <v>0</v>
       </c>
       <c r="AF85">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AG85">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:33">
@@ -7273,19 +7273,19 @@
         <v>395</v>
       </c>
       <c r="AC86">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AD86">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AE86">
         <v>0</v>
       </c>
       <c r="AF86">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AG86">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:33">

--- a/files/separadas/repeat_p15.xlsx
+++ b/files/separadas/repeat_p15.xlsx
@@ -4968,7 +4968,7 @@
       <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="inlineStr"/>
       <c r="AC56" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="57">
@@ -5047,7 +5047,7 @@
       <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="inlineStr"/>
       <c r="AC57" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="58">
@@ -5126,7 +5126,7 @@
       <c r="AA58" t="inlineStr"/>
       <c r="AB58" t="inlineStr"/>
       <c r="AC58" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="59">
@@ -5205,7 +5205,7 @@
       <c r="AA59" t="inlineStr"/>
       <c r="AB59" t="inlineStr"/>
       <c r="AC59" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="60">

--- a/files/separadas/repeat_p15.xlsx
+++ b/files/separadas/repeat_p15.xlsx
@@ -1138,7 +1138,7 @@
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9">
@@ -1217,7 +1217,7 @@
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10">
@@ -4725,7 +4725,7 @@
       <c r="AA53" t="inlineStr"/>
       <c r="AB53" t="inlineStr"/>
       <c r="AC53" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="54">
@@ -6722,7 +6722,7 @@
       <c r="AA78" t="inlineStr"/>
       <c r="AB78" t="inlineStr"/>
       <c r="AC78" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="79">
@@ -8504,7 +8504,7 @@
       <c r="AA100" t="inlineStr"/>
       <c r="AB100" t="inlineStr"/>
       <c r="AC100" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="101">
@@ -8583,7 +8583,7 @@
       <c r="AA101" t="inlineStr"/>
       <c r="AB101" t="inlineStr"/>
       <c r="AC101" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="102">
@@ -8662,7 +8662,7 @@
       <c r="AA102" t="inlineStr"/>
       <c r="AB102" t="inlineStr"/>
       <c r="AC102" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="103">
@@ -8741,7 +8741,7 @@
       <c r="AA103" t="inlineStr"/>
       <c r="AB103" t="inlineStr"/>
       <c r="AC103" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="104">
@@ -8820,7 +8820,7 @@
       <c r="AA104" t="inlineStr"/>
       <c r="AB104" t="inlineStr"/>
       <c r="AC104" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="105">
@@ -8899,7 +8899,7 @@
       <c r="AA105" t="inlineStr"/>
       <c r="AB105" t="inlineStr"/>
       <c r="AC105" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="106">
@@ -8978,7 +8978,7 @@
       <c r="AA106" t="inlineStr"/>
       <c r="AB106" t="inlineStr"/>
       <c r="AC106" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="107">
@@ -9057,7 +9057,7 @@
       <c r="AA107" t="inlineStr"/>
       <c r="AB107" t="inlineStr"/>
       <c r="AC107" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="108">
@@ -9616,7 +9616,7 @@
       <c r="AA114" t="inlineStr"/>
       <c r="AB114" t="inlineStr"/>
       <c r="AC114" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="115">
@@ -9695,7 +9695,7 @@
       <c r="AA115" t="inlineStr"/>
       <c r="AB115" t="inlineStr"/>
       <c r="AC115" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="116">
@@ -9774,7 +9774,7 @@
       <c r="AA116" t="inlineStr"/>
       <c r="AB116" t="inlineStr"/>
       <c r="AC116" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="117">
@@ -9853,7 +9853,7 @@
       <c r="AA117" t="inlineStr"/>
       <c r="AB117" t="inlineStr"/>
       <c r="AC117" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="118">
@@ -9932,7 +9932,7 @@
       <c r="AA118" t="inlineStr"/>
       <c r="AB118" t="inlineStr"/>
       <c r="AC118" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="119">
@@ -10011,7 +10011,7 @@
       <c r="AA119" t="inlineStr"/>
       <c r="AB119" t="inlineStr"/>
       <c r="AC119" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="120">
@@ -10090,7 +10090,7 @@
       <c r="AA120" t="inlineStr"/>
       <c r="AB120" t="inlineStr"/>
       <c r="AC120" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="121">
